--- a/src/attributions/attributions_saliency_traj_57.xlsx
+++ b/src/attributions/attributions_saliency_traj_57.xlsx
@@ -1573,1709 +1573,1709 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.005971290171146393</v>
+        <v>0.2455988377332687</v>
       </c>
       <c r="B3" t="n">
-        <v>0.001238327473402023</v>
+        <v>0.06858193129301071</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1239688545465469</v>
+        <v>0.1562525033950806</v>
       </c>
       <c r="D3" t="n">
-        <v>0.01564562320709229</v>
+        <v>0.1313268542289734</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3284323811531067</v>
+        <v>0.3453479409217834</v>
       </c>
       <c r="F3" t="n">
-        <v>0.01783796399831772</v>
+        <v>0.07761643081903458</v>
       </c>
       <c r="G3" t="n">
-        <v>0.07432815432548523</v>
+        <v>0.05404248833656311</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0455726757645607</v>
+        <v>0.159399539232254</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1483955979347229</v>
+        <v>0.1006480753421783</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03450145199894905</v>
+        <v>0.03082796931266785</v>
       </c>
       <c r="K3" t="n">
-        <v>0.02296104282140732</v>
+        <v>0.07987530529499054</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1381042152643204</v>
+        <v>0.05070070177316666</v>
       </c>
       <c r="M3" t="n">
-        <v>0.02998795732855797</v>
+        <v>0.2004130035638809</v>
       </c>
       <c r="N3" t="n">
-        <v>0.3052407503128052</v>
+        <v>0.01815745234489441</v>
       </c>
       <c r="O3" t="n">
-        <v>0.005905341356992722</v>
+        <v>0.002590024843811989</v>
       </c>
       <c r="P3" t="n">
-        <v>0.03059124574065208</v>
+        <v>0.08924596011638641</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.04391933232545853</v>
+        <v>0.06726780533790588</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1058649122714996</v>
+        <v>0.2385110855102539</v>
       </c>
       <c r="S3" t="n">
-        <v>0.003524658735841513</v>
+        <v>0.1198154389858246</v>
       </c>
       <c r="T3" t="n">
-        <v>0.05735772848129272</v>
+        <v>0.08643165230751038</v>
       </c>
       <c r="U3" t="n">
-        <v>0.0303807333111763</v>
+        <v>0.06668101251125336</v>
       </c>
       <c r="V3" t="n">
-        <v>0.08693669736385345</v>
+        <v>0.09395571053028107</v>
       </c>
       <c r="W3" t="n">
-        <v>0.05788280069828033</v>
+        <v>0.07306353747844696</v>
       </c>
       <c r="X3" t="n">
-        <v>0.01223480328917503</v>
+        <v>0.1593694239854813</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.003857306204736233</v>
+        <v>0.07342939078807831</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.04585748165845871</v>
+        <v>0.1511435806751251</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.0386010929942131</v>
+        <v>0.04754751548171043</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.01605991646647453</v>
+        <v>0.04880595952272415</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.007433474063873291</v>
+        <v>0.1581221222877502</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.009465213865041733</v>
+        <v>0.02531026862561703</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.02969782426953316</v>
+        <v>0.003901470452547073</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.08484023064374924</v>
+        <v>0.220546767115593</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.02383760362863541</v>
+        <v>0.0478026382625103</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.02783023938536644</v>
+        <v>0.01357100158929825</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.06758911162614822</v>
+        <v>0.01971348747611046</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.06029383838176727</v>
+        <v>0.1721408367156982</v>
       </c>
       <c r="AK3" t="n">
-        <v>0.01529460307210684</v>
+        <v>0.01934255473315716</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.05987177416682243</v>
+        <v>0.01031334232538939</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.02740099467337132</v>
+        <v>0.07483680546283722</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.01717067696154118</v>
+        <v>0.1297978758811951</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02671569027006626</v>
+        <v>0.0005441354587674141</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.04703265428543091</v>
+        <v>0.01421772781759501</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.003266001585870981</v>
+        <v>0.01869743131101131</v>
       </c>
       <c r="AR3" t="n">
-        <v>0.01975391805171967</v>
+        <v>0.01976998336613178</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.03042897768318653</v>
+        <v>0.0699189305305481</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.006048144772648811</v>
+        <v>0.001233573071658611</v>
       </c>
       <c r="AU3" t="n">
-        <v>0.07125543057918549</v>
+        <v>0.008361940272152424</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.1164572313427925</v>
+        <v>0.1164815947413445</v>
       </c>
       <c r="AW3" t="n">
-        <v>0.02753963693976402</v>
+        <v>0.2073364555835724</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.1410723626613617</v>
+        <v>0.4104551374912262</v>
       </c>
       <c r="AY3" t="n">
-        <v>0.1072962433099747</v>
+        <v>0.09472034126520157</v>
       </c>
       <c r="AZ3" t="n">
-        <v>0.01338951103389263</v>
+        <v>0.05975130200386047</v>
       </c>
       <c r="BA3" t="n">
-        <v>0.1197667717933655</v>
+        <v>0.04524357989430428</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.1056018173694611</v>
+        <v>0.03691549971699715</v>
       </c>
       <c r="BC3" t="n">
-        <v>5.395617336034775e-05</v>
+        <v>0.209756463766098</v>
       </c>
       <c r="BD3" t="n">
-        <v>0.05534498021006584</v>
+        <v>0.05265926569700241</v>
       </c>
       <c r="BE3" t="n">
-        <v>0.03029875084757805</v>
+        <v>0.04139058291912079</v>
       </c>
       <c r="BF3" t="n">
-        <v>0.01575782336294651</v>
+        <v>0.01544151082634926</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.08051282167434692</v>
+        <v>0.04629209637641907</v>
       </c>
       <c r="BH3" t="n">
-        <v>0.04227469116449356</v>
+        <v>0.0454370342195034</v>
       </c>
       <c r="BI3" t="n">
-        <v>0.01587972790002823</v>
+        <v>0.1370855271816254</v>
       </c>
       <c r="BJ3" t="n">
-        <v>0.004932955838739872</v>
+        <v>0.2273987382650375</v>
       </c>
       <c r="BK3" t="n">
-        <v>0.02596572786569595</v>
+        <v>0.2272456139326096</v>
       </c>
       <c r="BL3" t="n">
-        <v>0.001740002655424178</v>
+        <v>0.08749723434448242</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.01428646221756935</v>
+        <v>0.09911982715129852</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.09362431615591049</v>
+        <v>0.0292434599250555</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.002570646815001965</v>
+        <v>0.08254871517419815</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.003413760103285313</v>
+        <v>0.158133864402771</v>
       </c>
       <c r="BQ3" t="n">
-        <v>0.04798834025859833</v>
+        <v>0.01604917831718922</v>
       </c>
       <c r="BR3" t="n">
-        <v>0.00694216787815094</v>
+        <v>0.07950776070356369</v>
       </c>
       <c r="BS3" t="n">
-        <v>0.01289421319961548</v>
+        <v>0.02891159988939762</v>
       </c>
       <c r="BT3" t="n">
-        <v>0.0006647761911153793</v>
+        <v>0.03458558022975922</v>
       </c>
       <c r="BU3" t="n">
-        <v>0.0311860702931881</v>
+        <v>0.0334930457174778</v>
       </c>
       <c r="BV3" t="n">
-        <v>0.0443657711148262</v>
+        <v>0.05162003636360168</v>
       </c>
       <c r="BW3" t="n">
-        <v>0.03098305873572826</v>
+        <v>0.05822019279003143</v>
       </c>
       <c r="BX3" t="n">
-        <v>0.03046051040291786</v>
+        <v>0.05910703539848328</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.1497917622327805</v>
+        <v>0.0844712033867836</v>
       </c>
       <c r="BZ3" t="n">
-        <v>0.01387555524706841</v>
+        <v>0.06444389373064041</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.0135406507179141</v>
+        <v>0.03006451576948166</v>
       </c>
       <c r="CB3" t="n">
-        <v>0.05090665072202682</v>
+        <v>0.1823350489139557</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.09948496520519257</v>
+        <v>0.01815140619874001</v>
       </c>
       <c r="CD3" t="n">
-        <v>0.003009699517861009</v>
+        <v>0.02293466404080391</v>
       </c>
       <c r="CE3" t="n">
-        <v>0.04639246687293053</v>
+        <v>0.01285707391798496</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.029950812458992</v>
+        <v>0.06053407862782478</v>
       </c>
       <c r="CG3" t="n">
-        <v>0.00769558921456337</v>
+        <v>0.005293991416692734</v>
       </c>
       <c r="CH3" t="n">
-        <v>0.07088205218315125</v>
+        <v>0.006828540936112404</v>
       </c>
       <c r="CI3" t="n">
-        <v>0.004582801833748817</v>
+        <v>0.01703505963087082</v>
       </c>
       <c r="CJ3" t="n">
-        <v>0.02242200076580048</v>
+        <v>0.01272787526249886</v>
       </c>
       <c r="CK3" t="n">
-        <v>0.0148087115958333</v>
+        <v>0.03940681740641594</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.01389051601290703</v>
+        <v>0.0276048369705677</v>
       </c>
       <c r="CM3" t="n">
-        <v>0.0039528738707304</v>
+        <v>0.01028420776128769</v>
       </c>
       <c r="CN3" t="n">
-        <v>0.1271696090698242</v>
+        <v>0.006075531244277954</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.008070499636232853</v>
+        <v>0.00129218865185976</v>
       </c>
       <c r="CP3" t="n">
-        <v>0.02564985863864422</v>
+        <v>0.07278982549905777</v>
       </c>
       <c r="CQ3" t="n">
-        <v>0.07157190889120102</v>
+        <v>0.04204400256276131</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.038932204246521</v>
+        <v>0.01994331553578377</v>
       </c>
       <c r="CS3" t="n">
-        <v>0.01301729772239923</v>
+        <v>0.06414634734392166</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.02631677873432636</v>
+        <v>0.01268376223742962</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.02985909581184387</v>
+        <v>0.1495875120162964</v>
       </c>
       <c r="CV3" t="n">
-        <v>0.004180143587291241</v>
+        <v>0.02473225444555283</v>
       </c>
       <c r="CW3" t="n">
-        <v>0.04644184932112694</v>
+        <v>0.00935777835547924</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.03680193051695824</v>
+        <v>0.02866707555949688</v>
       </c>
       <c r="CY3" t="n">
-        <v>0.002569335512816906</v>
+        <v>0.016587994992733</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.0842018723487854</v>
+        <v>0.02648485451936722</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.01621402986347675</v>
+        <v>0.02299115434288979</v>
       </c>
       <c r="DB3" t="n">
-        <v>0.04246271029114723</v>
+        <v>0.001919969916343689</v>
       </c>
       <c r="DC3" t="n">
-        <v>0.003025551326572895</v>
+        <v>0.03748668730258942</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.0253263246268034</v>
+        <v>0.02340121008455753</v>
       </c>
       <c r="DE3" t="n">
-        <v>0.03236142545938492</v>
+        <v>0.1024641692638397</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.1068957820534706</v>
+        <v>0.2371597439050674</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.1539376527070999</v>
+        <v>0.1400475054979324</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.0733572244644165</v>
+        <v>0.03167824447154999</v>
       </c>
       <c r="DI3" t="n">
-        <v>0.0462849847972393</v>
+        <v>0.2004645615816116</v>
       </c>
       <c r="DJ3" t="n">
-        <v>0.02006050199270248</v>
+        <v>0.4291695058345795</v>
       </c>
       <c r="DK3" t="n">
-        <v>0.09962424635887146</v>
+        <v>0.05417553335428238</v>
       </c>
       <c r="DL3" t="n">
-        <v>0.02238525822758675</v>
+        <v>0.04739561304450035</v>
       </c>
       <c r="DM3" t="n">
-        <v>0.05075472965836525</v>
+        <v>0.09038025140762329</v>
       </c>
       <c r="DN3" t="n">
-        <v>0.003069991245865822</v>
+        <v>0.09114406257867813</v>
       </c>
       <c r="DO3" t="n">
-        <v>0.05421251803636551</v>
+        <v>0.03384026885032654</v>
       </c>
       <c r="DP3" t="n">
-        <v>0.03210193663835526</v>
+        <v>0.1186898872256279</v>
       </c>
       <c r="DQ3" t="n">
-        <v>0.01798964105546474</v>
+        <v>0.1097937375307083</v>
       </c>
       <c r="DR3" t="n">
-        <v>0.04935569316148758</v>
+        <v>0.1531438231468201</v>
       </c>
       <c r="DS3" t="n">
-        <v>0.0581699013710022</v>
+        <v>0.051558718085289</v>
       </c>
       <c r="DT3" t="n">
-        <v>0.001487672328948975</v>
+        <v>0.1060931906104088</v>
       </c>
       <c r="DU3" t="n">
-        <v>0.02721321955323219</v>
+        <v>0.08175050467252731</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.01545374840497971</v>
+        <v>0.01230503618717194</v>
       </c>
       <c r="DW3" t="n">
-        <v>0.007833059877157211</v>
+        <v>0.013246214017272</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.007779417559504509</v>
+        <v>0.008295085281133652</v>
       </c>
       <c r="DY3" t="n">
-        <v>0.01380386762320995</v>
+        <v>0.08177837729454041</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0.01646655425429344</v>
+        <v>0.01802618801593781</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.02445205859839916</v>
+        <v>0.04203912243247032</v>
       </c>
       <c r="EB3" t="n">
-        <v>0.01020618062466383</v>
+        <v>0.08540403842926025</v>
       </c>
       <c r="EC3" t="n">
-        <v>0.003432672470808029</v>
+        <v>0.06549310684204102</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.04206018522381783</v>
+        <v>0.1185806319117546</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.03926547989249229</v>
+        <v>0.05025153607130051</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.00738532142713666</v>
+        <v>0.01308643631637096</v>
       </c>
       <c r="EG3" t="n">
-        <v>0.05933369696140289</v>
+        <v>0.04267454147338867</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.02074174396693707</v>
+        <v>0.04768738150596619</v>
       </c>
       <c r="EI3" t="n">
-        <v>0.01674354821443558</v>
+        <v>0.01569652184844017</v>
       </c>
       <c r="EJ3" t="n">
-        <v>0.05476856604218483</v>
+        <v>0.03450044244527817</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.04054107517004013</v>
+        <v>0.1093748956918716</v>
       </c>
       <c r="EL3" t="n">
-        <v>0.02132676355540752</v>
+        <v>0.04301402717828751</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.005741127301007509</v>
+        <v>0.05933206528425217</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.006041847635060549</v>
+        <v>0.02114630863070488</v>
       </c>
       <c r="EO3" t="n">
-        <v>0.01541122235357761</v>
+        <v>0.05503735691308975</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.02632085233926773</v>
+        <v>0.02121569961309433</v>
       </c>
       <c r="EQ3" t="n">
-        <v>0.03812306374311447</v>
+        <v>0.04060408845543861</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.01140427496284246</v>
+        <v>0.06559856235980988</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.08036439120769501</v>
+        <v>0.05175036564469337</v>
       </c>
       <c r="ET3" t="n">
-        <v>0.005998499691486359</v>
+        <v>0.07661722600460052</v>
       </c>
       <c r="EU3" t="n">
-        <v>0.05104453861713409</v>
+        <v>0.01580640859901905</v>
       </c>
       <c r="EV3" t="n">
-        <v>0.005334677174687386</v>
+        <v>0.1263091862201691</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.01387246232479811</v>
+        <v>0.03326559811830521</v>
       </c>
       <c r="EX3" t="n">
-        <v>0.001479605445638299</v>
+        <v>0.00487426295876503</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.04419118911027908</v>
+        <v>0.008277192711830139</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.03512746840715408</v>
+        <v>0.0304250679910183</v>
       </c>
       <c r="FA3" t="n">
-        <v>0.003672003513202071</v>
+        <v>0.04280535131692886</v>
       </c>
       <c r="FB3" t="n">
-        <v>0.06796358525753021</v>
+        <v>0.04277323186397552</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.02866214141249657</v>
+        <v>0.009745244868099689</v>
       </c>
       <c r="FD3" t="n">
-        <v>0.02413222193717957</v>
+        <v>0.01968714967370033</v>
       </c>
       <c r="FE3" t="n">
-        <v>0.003953850362449884</v>
+        <v>0.03846393898129463</v>
       </c>
       <c r="FF3" t="n">
-        <v>0.02083485387265682</v>
+        <v>0.03563213348388672</v>
       </c>
       <c r="FG3" t="n">
-        <v>0.0002336488105356693</v>
+        <v>0.01769291236996651</v>
       </c>
       <c r="FH3" t="n">
-        <v>0.0099358931183815</v>
+        <v>0.03223474696278572</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.04002293571829796</v>
+        <v>0.03376458957791328</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.024917371571064</v>
+        <v>0.0293726921081543</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.03352800011634827</v>
+        <v>0.03971484303474426</v>
       </c>
       <c r="FL3" t="n">
-        <v>0.04546806216239929</v>
+        <v>0.09526028484106064</v>
       </c>
       <c r="FM3" t="n">
-        <v>0.01348748989403248</v>
+        <v>0.1094089448451996</v>
       </c>
       <c r="FN3" t="n">
-        <v>0.05900798738002777</v>
+        <v>0.1476541757583618</v>
       </c>
       <c r="FO3" t="n">
-        <v>0.08596167713403702</v>
+        <v>0.01709623448550701</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.00419815257191658</v>
+        <v>0.06531986594200134</v>
       </c>
       <c r="FQ3" t="n">
-        <v>0.05417804047465324</v>
+        <v>0.04885587468743324</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.02773990854620934</v>
+        <v>0.07959064841270447</v>
       </c>
       <c r="FS3" t="n">
-        <v>0.08902398496866226</v>
+        <v>0.03053853660821915</v>
       </c>
       <c r="FT3" t="n">
-        <v>0.03983647003769875</v>
+        <v>0.1381079703569412</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.003317954018712044</v>
+        <v>0.07100191712379456</v>
       </c>
       <c r="FV3" t="n">
-        <v>0.01455616764724255</v>
+        <v>0.01631654426455498</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.001951634883880615</v>
+        <v>0.0003524124622344971</v>
       </c>
       <c r="FX3" t="n">
-        <v>0.001012476161122322</v>
+        <v>0.03467351943254471</v>
       </c>
       <c r="FY3" t="n">
-        <v>0.003178434912115335</v>
+        <v>0.0195707343518734</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0.03138885274529457</v>
+        <v>0.01168870273977518</v>
       </c>
       <c r="GA3" t="n">
-        <v>0.04646865278482437</v>
+        <v>0.1426973640918732</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.004080670885741711</v>
+        <v>0.0387730598449707</v>
       </c>
       <c r="GC3" t="n">
-        <v>0.02438763156533241</v>
+        <v>0.04953476041555405</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.0334724634885788</v>
+        <v>0.05260413512587547</v>
       </c>
       <c r="GE3" t="n">
-        <v>0.007993767037987709</v>
+        <v>0.05177107825875282</v>
       </c>
       <c r="GF3" t="n">
-        <v>0.07860986888408661</v>
+        <v>0.1013667061924934</v>
       </c>
       <c r="GG3" t="n">
-        <v>0.01619697734713554</v>
+        <v>0.007503960281610489</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.001870094914920628</v>
+        <v>0.0005252952687442303</v>
       </c>
       <c r="B4" t="n">
-        <v>0.001987101510167122</v>
+        <v>0.00316867302171886</v>
       </c>
       <c r="C4" t="n">
-        <v>0.005274878814816475</v>
+        <v>0.0002012418990489095</v>
       </c>
       <c r="D4" t="n">
-        <v>0.002487287623807788</v>
+        <v>0.001573715475387871</v>
       </c>
       <c r="E4" t="n">
-        <v>0.007059453520923853</v>
+        <v>0.0008131032809615135</v>
       </c>
       <c r="F4" t="n">
-        <v>0.001324370852671564</v>
+        <v>0.0006764289573766291</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0005175479454919696</v>
+        <v>9.095047425944358e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.002567014889791608</v>
+        <v>5.230245005805045e-05</v>
       </c>
       <c r="I4" t="n">
-        <v>0.005235593765974045</v>
+        <v>0.0001071829465217888</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0008052196353673935</v>
+        <v>0.0007813702104613185</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0007158878142945468</v>
+        <v>0.002172926673665643</v>
       </c>
       <c r="L4" t="n">
-        <v>0.006175137124955654</v>
+        <v>7.580360397696495e-05</v>
       </c>
       <c r="M4" t="n">
-        <v>0.0007753465324640274</v>
+        <v>0.001294080168008804</v>
       </c>
       <c r="N4" t="n">
-        <v>0.004459608811885118</v>
+        <v>0.001109628705307841</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0007391232065856457</v>
+        <v>0.0011818673228845</v>
       </c>
       <c r="P4" t="n">
-        <v>0.001029852195642889</v>
+        <v>0.0002416427305433899</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.002707618521526456</v>
+        <v>0.0004467290127649903</v>
       </c>
       <c r="R4" t="n">
-        <v>0.005063778720796108</v>
+        <v>0.0002179344155592844</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0001368086668662727</v>
+        <v>4.151556640863419e-05</v>
       </c>
       <c r="T4" t="n">
-        <v>0.001075206673704088</v>
+        <v>0.0003337467205710709</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001049195183441043</v>
+        <v>0.0001797244331100956</v>
       </c>
       <c r="V4" t="n">
-        <v>0.003233701456338167</v>
+        <v>0.0004215503286104649</v>
       </c>
       <c r="W4" t="n">
-        <v>0.001671105273999274</v>
+        <v>4.68454891233705e-05</v>
       </c>
       <c r="X4" t="n">
-        <v>0.0004265728057362139</v>
+        <v>4.410219844430685e-06</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.001094395527616143</v>
+        <v>0.0005193962715566158</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.001899643917568028</v>
+        <v>0.0002118475385941565</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.0003370891790837049</v>
+        <v>0.0003241471713408828</v>
       </c>
       <c r="AB4" t="n">
-        <v>0.0004553486651275307</v>
+        <v>0.0001991097524296492</v>
       </c>
       <c r="AC4" t="n">
-        <v>0.001064125681295991</v>
+        <v>0.0003671768645290285</v>
       </c>
       <c r="AD4" t="n">
-        <v>0.0009172651334665716</v>
+        <v>0.0001050625432981178</v>
       </c>
       <c r="AE4" t="n">
-        <v>9.540870087221265e-05</v>
+        <v>3.144412767142057e-05</v>
       </c>
       <c r="AF4" t="n">
-        <v>0.0008106022141873837</v>
+        <v>0.0003294976777397096</v>
       </c>
       <c r="AG4" t="n">
-        <v>2.783082891255617e-05</v>
+        <v>0.000362493796274066</v>
       </c>
       <c r="AH4" t="n">
-        <v>0.0002857835497707129</v>
+        <v>2.319972554687411e-05</v>
       </c>
       <c r="AI4" t="n">
-        <v>0.00250436645001173</v>
+        <v>0.0001738975406624377</v>
       </c>
       <c r="AJ4" t="n">
-        <v>0.001528264256194234</v>
+        <v>0.000240105262491852</v>
       </c>
       <c r="AK4" t="n">
-        <v>0.0002564306487329304</v>
+        <v>0.0002655581920407712</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.002556074410676956</v>
+        <v>0.0003170460695400834</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.0006339563988149166</v>
+        <v>7.063654720695922e-06</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.000852071912959218</v>
+        <v>0.0002169498329749331</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.0008011358440853655</v>
+        <v>0.0001115073682740331</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.002152314409613609</v>
+        <v>0.0004794081905856729</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.0005970010533928871</v>
+        <v>2.988702181028202e-05</v>
       </c>
       <c r="AR4" t="n">
-        <v>2.749347913777456e-06</v>
+        <v>0.000177527850610204</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.0005153502570465207</v>
+        <v>0.0002279036852996796</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.001927825971506536</v>
+        <v>0.0002637203724589199</v>
       </c>
       <c r="AU4" t="n">
-        <v>0.004151853267103434</v>
+        <v>0.002083720872178674</v>
       </c>
       <c r="AV4" t="n">
-        <v>0.005876635201275349</v>
+        <v>0.0001789750531315804</v>
       </c>
       <c r="AW4" t="n">
-        <v>0.001399356173351407</v>
+        <v>0.0006856110412627459</v>
       </c>
       <c r="AX4" t="n">
-        <v>0.003082708455622196</v>
+        <v>0.0003147328388877213</v>
       </c>
       <c r="AY4" t="n">
-        <v>0.004303146619349718</v>
+        <v>1.437267201254144e-05</v>
       </c>
       <c r="AZ4" t="n">
-        <v>0.0004332445678301156</v>
+        <v>0.0003747410082723945</v>
       </c>
       <c r="BA4" t="n">
-        <v>0.002792370971292257</v>
+        <v>0.0002801773662213236</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.002682468853890896</v>
+        <v>0.0003868032654281706</v>
       </c>
       <c r="BC4" t="n">
-        <v>0.0001188316746265627</v>
+        <v>0.000291111966362223</v>
       </c>
       <c r="BD4" t="n">
-        <v>0.00143302942160517</v>
+        <v>0.0005432505859062076</v>
       </c>
       <c r="BE4" t="n">
-        <v>0.001150055089965463</v>
+        <v>0.0004241640563122928</v>
       </c>
       <c r="BF4" t="n">
-        <v>2.818612847477198e-05</v>
+        <v>0.0001848687388701364</v>
       </c>
       <c r="BG4" t="n">
-        <v>0.000692608009558171</v>
+        <v>0.0009020384750328958</v>
       </c>
       <c r="BH4" t="n">
-        <v>0.002231547143310308</v>
+        <v>0.0003869368229061365</v>
       </c>
       <c r="BI4" t="n">
-        <v>0.0002653952687978745</v>
+        <v>0.000161764575750567</v>
       </c>
       <c r="BJ4" t="n">
-        <v>0.001106818090192974</v>
+        <v>0.0004324337642174214</v>
       </c>
       <c r="BK4" t="n">
-        <v>0.0004587213916238397</v>
+        <v>6.194624438649043e-05</v>
       </c>
       <c r="BL4" t="n">
-        <v>0.0006529989768750966</v>
+        <v>0.0003374034131411463</v>
       </c>
       <c r="BM4" t="n">
-        <v>0.0002657245786394924</v>
+        <v>7.624694990226999e-05</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.002947213593870401</v>
+        <v>6.579283945029601e-05</v>
       </c>
       <c r="BO4" t="n">
-        <v>0.0004863440699409693</v>
+        <v>0.0004620930412784219</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.0003482781758066267</v>
+        <v>0.0003437157138250768</v>
       </c>
       <c r="BQ4" t="n">
-        <v>0.0004256632237229496</v>
+        <v>9.229505667462945e-05</v>
       </c>
       <c r="BR4" t="n">
-        <v>0.0004766684141941369</v>
+        <v>5.966315075056627e-05</v>
       </c>
       <c r="BS4" t="n">
-        <v>0.000737421796657145</v>
+        <v>5.783885717391968e-05</v>
       </c>
       <c r="BT4" t="n">
-        <v>0.0003006693150382489</v>
+        <v>0.0002116024115821347</v>
       </c>
       <c r="BU4" t="n">
-        <v>0.0002138156996807083</v>
+        <v>0.0001035832829074934</v>
       </c>
       <c r="BV4" t="n">
-        <v>0.002029252937063575</v>
+        <v>0.0009801771957427263</v>
       </c>
       <c r="BW4" t="n">
-        <v>0.0005490947514772415</v>
+        <v>4.884092777501792e-05</v>
       </c>
       <c r="BX4" t="n">
-        <v>0.0002011835749726743</v>
+        <v>0.0003063616459257901</v>
       </c>
       <c r="BY4" t="n">
-        <v>0.001499970909208059</v>
+        <v>0.0001056384498951957</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0.0005442581023089588</v>
+        <v>0.00039792584720999</v>
       </c>
       <c r="CA4" t="n">
-        <v>8.166093175532296e-05</v>
+        <v>6.475010741269216e-05</v>
       </c>
       <c r="CB4" t="n">
-        <v>0.002040051389485598</v>
+        <v>0.0001926032418850809</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.002032359363511205</v>
+        <v>0.0003050534869544208</v>
       </c>
       <c r="CD4" t="n">
-        <v>0.0002536311512812972</v>
+        <v>0.0001795682910596952</v>
       </c>
       <c r="CE4" t="n">
-        <v>0.001635870430618525</v>
+        <v>0.0005562595906667411</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.001203723251819611</v>
+        <v>0.0001966705749509856</v>
       </c>
       <c r="CG4" t="n">
-        <v>0.0006398228579200804</v>
+        <v>6.786831363569945e-05</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.001749578514136374</v>
+        <v>1.980588967853691e-05</v>
       </c>
       <c r="CI4" t="n">
-        <v>0.0002947922621387988</v>
+        <v>0.0001307834172621369</v>
       </c>
       <c r="CJ4" t="n">
-        <v>0.0002187998034060001</v>
+        <v>8.034982602111995e-05</v>
       </c>
       <c r="CK4" t="n">
-        <v>0.0001339953887509182</v>
+        <v>6.771797779947519e-05</v>
       </c>
       <c r="CL4" t="n">
-        <v>0.0006054530967958272</v>
+        <v>0.0001598238159203902</v>
       </c>
       <c r="CM4" t="n">
-        <v>0.0002256569568999112</v>
+        <v>0.000207969089387916</v>
       </c>
       <c r="CN4" t="n">
-        <v>0.004551470279693604</v>
+        <v>7.3710732976906e-05</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.0009863586165010929</v>
+        <v>0.0004080000799149275</v>
       </c>
       <c r="CP4" t="n">
-        <v>0.001454964280128479</v>
+        <v>0.000358821707777679</v>
       </c>
       <c r="CQ4" t="n">
-        <v>0.0005064649740234017</v>
+        <v>0.0004350410308688879</v>
       </c>
       <c r="CR4" t="n">
-        <v>0.0003395554376766086</v>
+        <v>0.000317318073939532</v>
       </c>
       <c r="CS4" t="n">
-        <v>3.139430191367865e-06</v>
+        <v>0.0002806978591252118</v>
       </c>
       <c r="CT4" t="n">
-        <v>0.0001531165326014161</v>
+        <v>0.0006701139500364661</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.001825171755626798</v>
+        <v>7.904632366262376e-05</v>
       </c>
       <c r="CV4" t="n">
-        <v>0.0004029092378914356</v>
+        <v>0.0001667306787567213</v>
       </c>
       <c r="CW4" t="n">
-        <v>0.001781769562512636</v>
+        <v>0.0004374359268695116</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.001140816835686564</v>
+        <v>0.0001506346743553877</v>
       </c>
       <c r="CY4" t="n">
-        <v>0.0003369089681655169</v>
+        <v>0.0002934709191322327</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.001963485032320023</v>
+        <v>1.645240263314918e-05</v>
       </c>
       <c r="DA4" t="n">
-        <v>0.0003831252688542008</v>
+        <v>0.000166135432664305</v>
       </c>
       <c r="DB4" t="n">
-        <v>0.0003734847123268992</v>
+        <v>6.770783511456102e-05</v>
       </c>
       <c r="DC4" t="n">
-        <v>0.0003476215351838619</v>
+        <v>3.552544512785971e-05</v>
       </c>
       <c r="DD4" t="n">
-        <v>0.0007857850287109613</v>
+        <v>0.0001297399285249412</v>
       </c>
       <c r="DE4" t="n">
-        <v>0.001944266026839614</v>
+        <v>0.0003000381984747946</v>
       </c>
       <c r="DF4" t="n">
-        <v>0.001706213457509875</v>
+        <v>0.0002490732003934681</v>
       </c>
       <c r="DG4" t="n">
-        <v>0.003873307956382632</v>
+        <v>2.2962052753428e-05</v>
       </c>
       <c r="DH4" t="n">
-        <v>4.019336483906955e-05</v>
+        <v>0.0007882991340011358</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.004167815670371056</v>
+        <v>0.0002939968544524163</v>
       </c>
       <c r="DJ4" t="n">
-        <v>0.0007510051364079118</v>
+        <v>0.0001258485135622323</v>
       </c>
       <c r="DK4" t="n">
-        <v>0.00130862626247108</v>
+        <v>0.000190221588127315</v>
       </c>
       <c r="DL4" t="n">
-        <v>0.001448948285542428</v>
+        <v>0.000533773098140955</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.001199385384097695</v>
+        <v>0.0001063623058144003</v>
       </c>
       <c r="DN4" t="n">
-        <v>0.0001651410420890898</v>
+        <v>0.0004447181127034128</v>
       </c>
       <c r="DO4" t="n">
-        <v>0.0009679247159510851</v>
+        <v>0.0002210004895459861</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.001076112734153867</v>
+        <v>0.0001430059783160686</v>
       </c>
       <c r="DQ4" t="n">
-        <v>0.001210878253914416</v>
+        <v>5.421015885076486e-06</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.0002224358468083665</v>
+        <v>6.248709541978315e-05</v>
       </c>
       <c r="DS4" t="n">
-        <v>0.002710391534492373</v>
+        <v>0.000489516940433532</v>
       </c>
       <c r="DT4" t="n">
-        <v>0.0005636986461468041</v>
+        <v>3.73290095012635e-05</v>
       </c>
       <c r="DU4" t="n">
-        <v>0.0001268986816285178</v>
+        <v>5.218564183451235e-06</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.000477178895380348</v>
+        <v>0.0002333706070203334</v>
       </c>
       <c r="DW4" t="n">
-        <v>0.0008830621954984963</v>
+        <v>0.0002427094586892053</v>
       </c>
       <c r="DX4" t="n">
-        <v>0.0001047859550453722</v>
+        <v>3.724739872268401e-05</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.001029481994919479</v>
+        <v>0.0006472247187048197</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0.0004302236484363675</v>
+        <v>0.000156631474965252</v>
       </c>
       <c r="EA4" t="n">
-        <v>0.0004045248497277498</v>
+        <v>0.0003197187616024166</v>
       </c>
       <c r="EB4" t="n">
-        <v>0.0006851619691587985</v>
+        <v>1.883241202449426e-05</v>
       </c>
       <c r="EC4" t="n">
-        <v>0.0001621018309378996</v>
+        <v>1.000467091216706e-05</v>
       </c>
       <c r="ED4" t="n">
-        <v>0.0001900479401228949</v>
+        <v>0.0001000414486043155</v>
       </c>
       <c r="EE4" t="n">
-        <v>0.0008054755162447691</v>
+        <v>8.619269647169858e-05</v>
       </c>
       <c r="EF4" t="n">
-        <v>0.0004540584341157228</v>
+        <v>6.125200889073312e-05</v>
       </c>
       <c r="EG4" t="n">
-        <v>0.002928064903244376</v>
+        <v>0.0003588772669900209</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.0006715938216075301</v>
+        <v>7.007428212091327e-05</v>
       </c>
       <c r="EI4" t="n">
-        <v>0.0009609038243070245</v>
+        <v>1.616070221643895e-06</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.001094809849746525</v>
+        <v>0.0002404392434982583</v>
       </c>
       <c r="EK4" t="n">
-        <v>0.001503351610153913</v>
+        <v>0.0001161161562777124</v>
       </c>
       <c r="EL4" t="n">
-        <v>0.0006598440231755376</v>
+        <v>0.0001612997439224273</v>
       </c>
       <c r="EM4" t="n">
-        <v>0.0002151694061467424</v>
+        <v>0.0001239530538441613</v>
       </c>
       <c r="EN4" t="n">
-        <v>0.0007257216493599117</v>
+        <v>7.721013389527798e-06</v>
       </c>
       <c r="EO4" t="n">
-        <v>0.0009262860403396189</v>
+        <v>0.0002644893829710782</v>
       </c>
       <c r="EP4" t="n">
-        <v>0.0009689675061963499</v>
+        <v>0.0003846804902423173</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.0008268599049188197</v>
+        <v>5.466583024826832e-05</v>
       </c>
       <c r="ER4" t="n">
-        <v>9.983277413994074e-05</v>
+        <v>0.0003412841178942472</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.001467083813622594</v>
+        <v>0.0001752330281306058</v>
       </c>
       <c r="ET4" t="n">
-        <v>0.0003600234922487289</v>
+        <v>0.000838658248540014</v>
       </c>
       <c r="EU4" t="n">
-        <v>0.0001892233267426491</v>
+        <v>6.573669088538736e-05</v>
       </c>
       <c r="EV4" t="n">
-        <v>0.001077934633940458</v>
+        <v>0.0002958369150292128</v>
       </c>
       <c r="EW4" t="n">
-        <v>0.0007627546438015997</v>
+        <v>7.589331653434783e-05</v>
       </c>
       <c r="EX4" t="n">
-        <v>0.0002025609428528696</v>
+        <v>0.0001416709128534421</v>
       </c>
       <c r="EY4" t="n">
-        <v>0.001688138581812382</v>
+        <v>0.0004553724720608443</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.001135905389674008</v>
+        <v>6.606964598177001e-05</v>
       </c>
       <c r="FA4" t="n">
-        <v>0.0003914261469617486</v>
+        <v>0.0001811841648304835</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.001398273278027773</v>
+        <v>1.08589229057543e-05</v>
       </c>
       <c r="FC4" t="n">
-        <v>0.0006108555826358497</v>
+        <v>0.0001820672478061169</v>
       </c>
       <c r="FD4" t="n">
-        <v>0.0001567488070577383</v>
+        <v>0.0001132472971221432</v>
       </c>
       <c r="FE4" t="n">
-        <v>0.0003489285882096738</v>
+        <v>4.514277679845691e-05</v>
       </c>
       <c r="FF4" t="n">
-        <v>0.0007254066877067089</v>
+        <v>0.0001730423682602122</v>
       </c>
       <c r="FG4" t="n">
-        <v>8.758238982409239e-05</v>
+        <v>6.769436004105955e-05</v>
       </c>
       <c r="FH4" t="n">
-        <v>0.0003096565487794578</v>
+        <v>0.0002363698731642216</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.0009826226159930229</v>
+        <v>0.0001940252113854513</v>
       </c>
       <c r="FJ4" t="n">
-        <v>0.0006772986380383372</v>
+        <v>0.0004089760186616331</v>
       </c>
       <c r="FK4" t="n">
-        <v>0.001878936658613384</v>
+        <v>3.155101512675174e-05</v>
       </c>
       <c r="FL4" t="n">
-        <v>0.001264507649466395</v>
+        <v>1.533674912934657e-05</v>
       </c>
       <c r="FM4" t="n">
-        <v>0.0008608453208580613</v>
+        <v>9.941722964867949e-05</v>
       </c>
       <c r="FN4" t="n">
-        <v>0.0009530236129648983</v>
+        <v>0.0001684593735262752</v>
       </c>
       <c r="FO4" t="n">
-        <v>0.001397541258484125</v>
+        <v>0.0003575900918804109</v>
       </c>
       <c r="FP4" t="n">
-        <v>0.000259042892139405</v>
+        <v>0.0003717678191605955</v>
       </c>
       <c r="FQ4" t="n">
-        <v>0.0007904731901362538</v>
+        <v>0.0006120211910456419</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.0001114833576139063</v>
+        <v>0.0001813607523217797</v>
       </c>
       <c r="FS4" t="n">
-        <v>0.0008987879264168441</v>
+        <v>0.0005294400034472346</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.0006427637999877334</v>
+        <v>0.0009812335483729839</v>
       </c>
       <c r="FU4" t="n">
-        <v>0.001221404760144651</v>
+        <v>9.693334868643433e-05</v>
       </c>
       <c r="FV4" t="n">
-        <v>0.0006883112364448607</v>
+        <v>6.02810614509508e-05</v>
       </c>
       <c r="FW4" t="n">
-        <v>0.001358379144221544</v>
+        <v>0.0003270157030783594</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.0004492515581659973</v>
+        <v>0.0001936410117195919</v>
       </c>
       <c r="FY4" t="n">
-        <v>0.0006688794819638133</v>
+        <v>0.0003476587007753551</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0.001026344252750278</v>
+        <v>0.0001965138653758913</v>
       </c>
       <c r="GA4" t="n">
-        <v>0.001297338865697384</v>
+        <v>0.0003060838207602501</v>
       </c>
       <c r="GB4" t="n">
-        <v>5.547150067286566e-05</v>
+        <v>0.0001187002417282201</v>
       </c>
       <c r="GC4" t="n">
-        <v>0.0012611293932423</v>
+        <v>0.0004085300315637141</v>
       </c>
       <c r="GD4" t="n">
-        <v>0.001246861182153225</v>
+        <v>0.0002129511412931606</v>
       </c>
       <c r="GE4" t="n">
-        <v>0.0009788873139768839</v>
+        <v>0.000628313806373626</v>
       </c>
       <c r="GF4" t="n">
-        <v>0.0006106505170464516</v>
+        <v>0.0001133120676968247</v>
       </c>
       <c r="GG4" t="n">
-        <v>0.0001695617684163153</v>
+        <v>0.0001621775300009176</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.04857337102293968</v>
+        <v>6.559761459357105e-06</v>
       </c>
       <c r="B5" t="n">
-        <v>0.0753677636384964</v>
+        <v>7.165457645896822e-05</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02962035872042179</v>
+        <v>1.233298098668456e-05</v>
       </c>
       <c r="D5" t="n">
-        <v>0.09060152620077133</v>
+        <v>2.043517815764062e-05</v>
       </c>
       <c r="E5" t="n">
-        <v>0.04149938002228737</v>
+        <v>5.932792919338681e-05</v>
       </c>
       <c r="F5" t="n">
-        <v>0.02492691576480865</v>
+        <v>4.101303056813776e-05</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0275767482817173</v>
+        <v>5.313134352036286e-06</v>
       </c>
       <c r="H5" t="n">
-        <v>0.02218200452625751</v>
+        <v>1.021461594064021e-05</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1716115921735764</v>
+        <v>5.72377985008643e-06</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07509710639715195</v>
+        <v>4.182758857496083e-06</v>
       </c>
       <c r="K5" t="n">
-        <v>0.05359052121639252</v>
+        <v>7.09218074916862e-05</v>
       </c>
       <c r="L5" t="n">
-        <v>0.06317369639873505</v>
+        <v>1.191893261420773e-05</v>
       </c>
       <c r="M5" t="n">
-        <v>0.06577308475971222</v>
+        <v>2.292982753715478e-05</v>
       </c>
       <c r="N5" t="n">
-        <v>0.05165226757526398</v>
+        <v>5.152260200702585e-05</v>
       </c>
       <c r="O5" t="n">
-        <v>0.02059271186590195</v>
+        <v>4.511058432399295e-05</v>
       </c>
       <c r="P5" t="n">
-        <v>0.04987835511565208</v>
+        <v>1.768706351867877e-05</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.002293706405907869</v>
+        <v>8.901287401386071e-06</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1714365184307098</v>
+        <v>1.075182535714703e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>0.002306098351255059</v>
+        <v>2.944298785223509e-06</v>
       </c>
       <c r="T5" t="n">
-        <v>0.007465457078069448</v>
+        <v>1.287399754801299e-05</v>
       </c>
       <c r="U5" t="n">
-        <v>0.002120284363627434</v>
+        <v>9.497831342741847e-06</v>
       </c>
       <c r="V5" t="n">
-        <v>0.01949962787330151</v>
+        <v>9.119224841924733e-08</v>
       </c>
       <c r="W5" t="n">
-        <v>0.03977260738611221</v>
+        <v>5.987760232528672e-06</v>
       </c>
       <c r="X5" t="n">
-        <v>0.005808581132441759</v>
+        <v>1.347356374026276e-05</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.04145555198192596</v>
+        <v>2.132921963493573e-06</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.009109773673117161</v>
+        <v>8.150024086717167e-07</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.007699588313698769</v>
+        <v>3.130021468678024e-06</v>
       </c>
       <c r="AB5" t="n">
-        <v>0.00752886850386858</v>
+        <v>6.744546226400416e-06</v>
       </c>
       <c r="AC5" t="n">
-        <v>0.03436113521456718</v>
+        <v>7.398796697088983e-06</v>
       </c>
       <c r="AD5" t="n">
-        <v>0.01031527761369944</v>
+        <v>2.113143091264647e-05</v>
       </c>
       <c r="AE5" t="n">
-        <v>0.01550527568906546</v>
+        <v>1.672017424425576e-05</v>
       </c>
       <c r="AF5" t="n">
-        <v>0.05393848568201065</v>
+        <v>1.509923185949447e-05</v>
       </c>
       <c r="AG5" t="n">
-        <v>0.0007879463955760002</v>
+        <v>2.908109991039964e-06</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.02816252969205379</v>
+        <v>5.141116162121762e-06</v>
       </c>
       <c r="AI5" t="n">
-        <v>0.02001071348786354</v>
+        <v>4.931127477902919e-06</v>
       </c>
       <c r="AJ5" t="n">
-        <v>0.0287233293056488</v>
+        <v>8.078985956672113e-06</v>
       </c>
       <c r="AK5" t="n">
-        <v>0.01858515851199627</v>
+        <v>3.081084287259728e-06</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.02581239864230156</v>
+        <v>1.552725188957993e-05</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.03454045206308365</v>
+        <v>9.347227205580566e-06</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.03010105527937412</v>
+        <v>2.631145434861537e-06</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.009871362708508968</v>
+        <v>1.754348659233074e-06</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.06359922140836716</v>
+        <v>1.118751424655784e-05</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.002282192930579185</v>
+        <v>2.522603381294175e-06</v>
       </c>
       <c r="AR5" t="n">
-        <v>0.009765960276126862</v>
+        <v>3.51169205714541e-07</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.008885273709893227</v>
+        <v>3.53322457158356e-06</v>
       </c>
       <c r="AT5" t="n">
-        <v>0.004897870123386383</v>
+        <v>6.765652869944461e-06</v>
       </c>
       <c r="AU5" t="n">
-        <v>0.0222986564040184</v>
+        <v>5.859636439708993e-05</v>
       </c>
       <c r="AV5" t="n">
-        <v>0.05226171389222145</v>
+        <v>1.399196571583161e-05</v>
       </c>
       <c r="AW5" t="n">
-        <v>0.005529370158910751</v>
+        <v>8.804998287814669e-06</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.008351708762347698</v>
+        <v>7.77751029090723e-06</v>
       </c>
       <c r="AY5" t="n">
-        <v>0.06160280480980873</v>
+        <v>3.749777761186124e-06</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.02185599878430367</v>
+        <v>2.051677438430488e-05</v>
       </c>
       <c r="BA5" t="n">
-        <v>0.03847163543105125</v>
+        <v>1.34335705297417e-05</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.1039142981171608</v>
+        <v>1.269248969038017e-05</v>
       </c>
       <c r="BC5" t="n">
-        <v>0.02980991266667843</v>
+        <v>9.406630852026865e-06</v>
       </c>
       <c r="BD5" t="n">
-        <v>0.02572575770318508</v>
+        <v>1.420108492311556e-05</v>
       </c>
       <c r="BE5" t="n">
-        <v>0.01066274661570787</v>
+        <v>1.146093018178362e-05</v>
       </c>
       <c r="BF5" t="n">
-        <v>0.01255686022341251</v>
+        <v>4.791778792423429e-06</v>
       </c>
       <c r="BG5" t="n">
-        <v>0.04463188722729683</v>
+        <v>4.582450856105424e-05</v>
       </c>
       <c r="BH5" t="n">
-        <v>0.007092010229825974</v>
+        <v>3.947475124732591e-05</v>
       </c>
       <c r="BI5" t="n">
-        <v>0.02348237857222557</v>
+        <v>8.453156624455005e-06</v>
       </c>
       <c r="BJ5" t="n">
-        <v>0.07324078679084778</v>
+        <v>7.176794952101773e-06</v>
       </c>
       <c r="BK5" t="n">
-        <v>0.01254746038466692</v>
+        <v>7.163118880271213e-06</v>
       </c>
       <c r="BL5" t="n">
-        <v>0.006142179481685162</v>
+        <v>1.241965037479531e-05</v>
       </c>
       <c r="BM5" t="n">
-        <v>0.003781303064897656</v>
+        <v>8.139599003698095e-07</v>
       </c>
       <c r="BN5" t="n">
-        <v>0.01751721650362015</v>
+        <v>2.915862069130526e-06</v>
       </c>
       <c r="BO5" t="n">
-        <v>0.007782391272485256</v>
+        <v>7.525328783231089e-06</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.01321657188236713</v>
+        <v>2.868443516490515e-06</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0.01134339161217213</v>
+        <v>6.508549631689675e-06</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.00649089552462101</v>
+        <v>1.009541301755235e-05</v>
       </c>
       <c r="BS5" t="n">
-        <v>0.03052696213126183</v>
+        <v>9.304044965574576e-07</v>
       </c>
       <c r="BT5" t="n">
-        <v>0.0263584740459919</v>
+        <v>6.286486950557446e-06</v>
       </c>
       <c r="BU5" t="n">
-        <v>0.0446699894964695</v>
+        <v>4.762402568303514e-06</v>
       </c>
       <c r="BV5" t="n">
-        <v>0.01062364876270294</v>
+        <v>3.189883864251897e-05</v>
       </c>
       <c r="BW5" t="n">
-        <v>0.01573079824447632</v>
+        <v>6.483013748947997e-06</v>
       </c>
       <c r="BX5" t="n">
-        <v>0.03689143434166908</v>
+        <v>8.319806511281058e-06</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.02646616287529469</v>
+        <v>7.548236453658319e-07</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0.01478446181863546</v>
+        <v>1.375385636492865e-05</v>
       </c>
       <c r="CA5" t="n">
-        <v>0.01521319802850485</v>
+        <v>1.047221576300217e-05</v>
       </c>
       <c r="CB5" t="n">
-        <v>0.03677194938063622</v>
+        <v>9.753388212629943e-07</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.06986819952726364</v>
+        <v>4.038198312628083e-06</v>
       </c>
       <c r="CD5" t="n">
-        <v>0.01140190288424492</v>
+        <v>2.822092426413292e-07</v>
       </c>
       <c r="CE5" t="n">
-        <v>0.03629997372627258</v>
+        <v>1.244975283043459e-05</v>
       </c>
       <c r="CF5" t="n">
-        <v>0.008339372463524342</v>
+        <v>2.933100404334255e-06</v>
       </c>
       <c r="CG5" t="n">
-        <v>0.008083033375442028</v>
+        <v>4.244703632139135e-06</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.003522397950291634</v>
+        <v>9.238373195330496e-07</v>
       </c>
       <c r="CI5" t="n">
-        <v>0.005562036298215389</v>
+        <v>3.996794930571923e-06</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.0008918815874494612</v>
+        <v>9.162899004877545e-06</v>
       </c>
       <c r="CK5" t="n">
-        <v>0.006416599731892347</v>
+        <v>4.965103244103375e-07</v>
       </c>
       <c r="CL5" t="n">
-        <v>0.0220200102776289</v>
+        <v>3.613579792727251e-06</v>
       </c>
       <c r="CM5" t="n">
-        <v>0.0204689297825098</v>
+        <v>7.496598300349433e-06</v>
       </c>
       <c r="CN5" t="n">
-        <v>0.003255201037973166</v>
+        <v>1.342857012787135e-05</v>
       </c>
       <c r="CO5" t="n">
-        <v>0.0121162673458457</v>
+        <v>4.297721261536935e-06</v>
       </c>
       <c r="CP5" t="n">
-        <v>0.008570980280637741</v>
+        <v>4.865637492912356e-07</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.03602108359336853</v>
+        <v>9.185225280816667e-06</v>
       </c>
       <c r="CR5" t="n">
-        <v>0.02077421173453331</v>
+        <v>3.053146883758018e-06</v>
       </c>
       <c r="CS5" t="n">
-        <v>0.01204867009073496</v>
+        <v>1.413058726029703e-05</v>
       </c>
       <c r="CT5" t="n">
-        <v>0.03459271416068077</v>
+        <v>3.230557558708824e-05</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.02549030259251595</v>
+        <v>5.749743195337942e-06</v>
       </c>
       <c r="CV5" t="n">
-        <v>0.01084602810442448</v>
+        <v>6.211849949977477e-07</v>
       </c>
       <c r="CW5" t="n">
-        <v>0.03449822962284088</v>
+        <v>8.925009751692414e-06</v>
       </c>
       <c r="CX5" t="n">
-        <v>0.002895884215831757</v>
+        <v>8.300328318000538e-07</v>
       </c>
       <c r="CY5" t="n">
-        <v>0.0110845398157835</v>
+        <v>4.713355338026304e-06</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.009122519753873348</v>
+        <v>2.839427452272503e-06</v>
       </c>
       <c r="DA5" t="n">
-        <v>0.005816249176859856</v>
+        <v>6.16318675383809e-06</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.002426044084131718</v>
+        <v>5.737529590987833e-06</v>
       </c>
       <c r="DC5" t="n">
-        <v>0.01285601407289505</v>
+        <v>1.096854134630121e-06</v>
       </c>
       <c r="DD5" t="n">
-        <v>0.02371330931782722</v>
+        <v>3.870075488521252e-06</v>
       </c>
       <c r="DE5" t="n">
-        <v>0.0291726365685463</v>
+        <v>1.17436284199357e-05</v>
       </c>
       <c r="DF5" t="n">
-        <v>0.05830263718962669</v>
+        <v>1.220226204168284e-05</v>
       </c>
       <c r="DG5" t="n">
-        <v>0.07139471918344498</v>
+        <v>1.569112646393478e-05</v>
       </c>
       <c r="DH5" t="n">
-        <v>0.003664745017886162</v>
+        <v>1.041613359120674e-06</v>
       </c>
       <c r="DI5" t="n">
-        <v>0.01404683012515306</v>
+        <v>4.716428065876244e-06</v>
       </c>
       <c r="DJ5" t="n">
-        <v>0.09673942625522614</v>
+        <v>1.620357215870172e-05</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.0324169248342514</v>
+        <v>8.969058399088681e-06</v>
       </c>
       <c r="DL5" t="n">
-        <v>0.02766515873372555</v>
+        <v>9.862719707598444e-08</v>
       </c>
       <c r="DM5" t="n">
-        <v>0.02073237299919128</v>
+        <v>9.082796168513596e-06</v>
       </c>
       <c r="DN5" t="n">
-        <v>0.002159026451408863</v>
+        <v>1.528623414515096e-07</v>
       </c>
       <c r="DO5" t="n">
-        <v>0.0003562737256288528</v>
+        <v>5.185036116017727e-06</v>
       </c>
       <c r="DP5" t="n">
-        <v>0.03636246174573898</v>
+        <v>9.796793847272056e-07</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0.02081413194537163</v>
+        <v>2.059741382254288e-05</v>
       </c>
       <c r="DR5" t="n">
-        <v>0.0253230407834053</v>
+        <v>4.219645234115887e-06</v>
       </c>
       <c r="DS5" t="n">
-        <v>0.04005987197160721</v>
+        <v>1.108506330638193e-05</v>
       </c>
       <c r="DT5" t="n">
-        <v>0.01001943368464708</v>
+        <v>3.925886630895548e-06</v>
       </c>
       <c r="DU5" t="n">
-        <v>0.0006891964003443718</v>
+        <v>6.688651410513557e-06</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.01610998623073101</v>
+        <v>4.268582415534183e-06</v>
       </c>
       <c r="DW5" t="n">
-        <v>0.009951713494956493</v>
+        <v>7.346378652073327e-07</v>
       </c>
       <c r="DX5" t="n">
-        <v>0.005969162564724684</v>
+        <v>5.54040116185206e-06</v>
       </c>
       <c r="DY5" t="n">
-        <v>0.005868318025022745</v>
+        <v>4.23118899561814e-06</v>
       </c>
       <c r="DZ5" t="n">
-        <v>0.00246002059429884</v>
+        <v>1.560038072057068e-05</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.0110525768250227</v>
+        <v>7.519061000493821e-07</v>
       </c>
       <c r="EB5" t="n">
-        <v>0.00233064778149128</v>
+        <v>1.191050796478521e-05</v>
       </c>
       <c r="EC5" t="n">
-        <v>0.007831909693777561</v>
+        <v>8.546588105673436e-06</v>
       </c>
       <c r="ED5" t="n">
-        <v>0.005384067073464394</v>
+        <v>1.595855428604409e-05</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.01830030605196953</v>
+        <v>8.212280590669252e-06</v>
       </c>
       <c r="EF5" t="n">
-        <v>0.01840953901410103</v>
+        <v>1.43688771458983e-06</v>
       </c>
       <c r="EG5" t="n">
-        <v>0.06676948815584183</v>
+        <v>1.234092087543104e-05</v>
       </c>
       <c r="EH5" t="n">
-        <v>0.01188660599291325</v>
+        <v>3.409716100577498e-06</v>
       </c>
       <c r="EI5" t="n">
-        <v>0.009332329966127872</v>
+        <v>1.519105353509076e-05</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.0104160588234663</v>
+        <v>9.756950021255761e-06</v>
       </c>
       <c r="EK5" t="n">
-        <v>0.03174715489149094</v>
+        <v>7.464371265086811e-06</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.00582998851314187</v>
+        <v>1.547847932670265e-05</v>
       </c>
       <c r="EM5" t="n">
-        <v>0.01254568062722683</v>
+        <v>9.740416544445907e-07</v>
       </c>
       <c r="EN5" t="n">
-        <v>0.03273342549800873</v>
+        <v>8.151540669132373e-07</v>
       </c>
       <c r="EO5" t="n">
-        <v>0.01107770204544067</v>
+        <v>2.434096586512169e-06</v>
       </c>
       <c r="EP5" t="n">
-        <v>0.01636617816984653</v>
+        <v>6.255972493818263e-06</v>
       </c>
       <c r="EQ5" t="n">
-        <v>0.0008073135395534337</v>
+        <v>7.164790076785721e-06</v>
       </c>
       <c r="ER5" t="n">
-        <v>0.003563862293958664</v>
+        <v>3.968923920183443e-06</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.02132868207991123</v>
+        <v>1.498921847087331e-05</v>
       </c>
       <c r="ET5" t="n">
-        <v>0.06421460956335068</v>
+        <v>2.111576759489253e-05</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.01768933981657028</v>
+        <v>1.80569190888491e-06</v>
       </c>
       <c r="EV5" t="n">
-        <v>0.03209725767374039</v>
+        <v>9.3652506620856e-06</v>
       </c>
       <c r="EW5" t="n">
-        <v>0.01055475044995546</v>
+        <v>4.763898687087931e-06</v>
       </c>
       <c r="EX5" t="n">
-        <v>0.01356123946607113</v>
+        <v>8.130112973958603e-07</v>
       </c>
       <c r="EY5" t="n">
-        <v>0.02973781526088715</v>
+        <v>1.094441449822625e-05</v>
       </c>
       <c r="EZ5" t="n">
-        <v>0.007365623954683542</v>
+        <v>3.539179942890769e-06</v>
       </c>
       <c r="FA5" t="n">
-        <v>0.006348884198814631</v>
+        <v>4.387546141515486e-06</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.003575564594939351</v>
+        <v>1.356547443265299e-07</v>
       </c>
       <c r="FC5" t="n">
-        <v>0.002270644530653954</v>
+        <v>6.338602361211088e-06</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.001849067164584994</v>
+        <v>5.798710844828747e-06</v>
       </c>
       <c r="FE5" t="n">
-        <v>0.01425540540367365</v>
+        <v>2.388519760643248e-06</v>
       </c>
       <c r="FF5" t="n">
-        <v>0.02540210820734501</v>
+        <v>3.763006134249736e-06</v>
       </c>
       <c r="FG5" t="n">
-        <v>0.02357917837798595</v>
+        <v>1.858845621427463e-06</v>
       </c>
       <c r="FH5" t="n">
-        <v>0.00937221571803093</v>
+        <v>3.515511025398155e-06</v>
       </c>
       <c r="FI5" t="n">
-        <v>0.01842819899320602</v>
+        <v>4.140437795285834e-06</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0.004633951932191849</v>
+        <v>2.335272438358516e-05</v>
       </c>
       <c r="FK5" t="n">
-        <v>0.005579075776040554</v>
+        <v>1.303236422245391e-05</v>
       </c>
       <c r="FL5" t="n">
-        <v>0.01972102373838425</v>
+        <v>1.442532266082708e-05</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.02778850123286247</v>
+        <v>7.120957434381125e-06</v>
       </c>
       <c r="FN5" t="n">
-        <v>0.0431346669793129</v>
+        <v>1.636717388464604e-05</v>
       </c>
       <c r="FO5" t="n">
-        <v>0.01911096647381783</v>
+        <v>9.397482244821731e-06</v>
       </c>
       <c r="FP5" t="n">
-        <v>0.01973886601626873</v>
+        <v>3.326937076053582e-06</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0.03662504628300667</v>
+        <v>2.879480780393351e-05</v>
       </c>
       <c r="FR5" t="n">
-        <v>0.005942382849752903</v>
+        <v>5.157429768587463e-06</v>
       </c>
       <c r="FS5" t="n">
-        <v>0.03699458390474319</v>
+        <v>2.466458863636944e-05</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.02974282950162888</v>
+        <v>2.393917748122476e-05</v>
       </c>
       <c r="FU5" t="n">
-        <v>0.04032034799456596</v>
+        <v>8.569159035687335e-06</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.02667070366442204</v>
+        <v>8.552626240998507e-06</v>
       </c>
       <c r="FW5" t="n">
-        <v>0.03050972707569599</v>
+        <v>8.682964107720181e-06</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.03802553564310074</v>
+        <v>8.761407116253395e-06</v>
       </c>
       <c r="FY5" t="n">
-        <v>0.03556576371192932</v>
+        <v>2.287128154421225e-06</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0.03851646184921265</v>
+        <v>1.673075712460559e-05</v>
       </c>
       <c r="GA5" t="n">
-        <v>0.01882750913500786</v>
+        <v>1.598144262970891e-05</v>
       </c>
       <c r="GB5" t="n">
-        <v>0.02310329861938953</v>
+        <v>9.328136911790352e-07</v>
       </c>
       <c r="GC5" t="n">
-        <v>0.0002160051953978837</v>
+        <v>2.064758518827148e-06</v>
       </c>
       <c r="GD5" t="n">
-        <v>0.01919114775955677</v>
+        <v>1.841354105636128e-06</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.02472259849309921</v>
+        <v>9.848173249338288e-06</v>
       </c>
       <c r="GF5" t="n">
-        <v>0.04619677737355232</v>
+        <v>1.079687262972584e-05</v>
       </c>
       <c r="GG5" t="n">
-        <v>0.02535953372716904</v>
+        <v>9.800954103411641e-06</v>
       </c>
     </row>
     <row r="6">
@@ -3849,571 +3849,571 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.001286890124902129</v>
+        <v>0.2408297657966614</v>
       </c>
       <c r="B7" t="n">
-        <v>0.002728400053456426</v>
+        <v>0.9738849997520447</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007836510427296162</v>
+        <v>0.08951562643051147</v>
       </c>
       <c r="D7" t="n">
-        <v>0.00409378670156002</v>
+        <v>0.380377858877182</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0108402892947197</v>
+        <v>0.108934223651886</v>
       </c>
       <c r="F7" t="n">
-        <v>0.002014774363487959</v>
+        <v>0.2610948979854584</v>
       </c>
       <c r="G7" t="n">
-        <v>0.001570815686136484</v>
+        <v>0.02736591175198555</v>
       </c>
       <c r="H7" t="n">
-        <v>0.002819092245772481</v>
+        <v>0.04271390289068222</v>
       </c>
       <c r="I7" t="n">
-        <v>0.01136534288525581</v>
+        <v>0.02783114835619926</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0002815851476043463</v>
+        <v>0.3071176111698151</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001411847304552794</v>
+        <v>0.5993753671646118</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00919308140873909</v>
+        <v>0.01430178061127663</v>
       </c>
       <c r="M7" t="n">
-        <v>0.003787053748965263</v>
+        <v>0.3569054007530212</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01014910731464624</v>
+        <v>0.2245594710111618</v>
       </c>
       <c r="O7" t="n">
-        <v>0.0008350015850737691</v>
+        <v>0.3758378922939301</v>
       </c>
       <c r="P7" t="n">
-        <v>0.001115801045671105</v>
+        <v>0.04401199147105217</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0027938112616539</v>
+        <v>0.04505052044987679</v>
       </c>
       <c r="R7" t="n">
-        <v>0.01157463248819113</v>
+        <v>0.08457627147436142</v>
       </c>
       <c r="S7" t="n">
-        <v>0.0002978971169795841</v>
+        <v>0.0142319742590189</v>
       </c>
       <c r="T7" t="n">
-        <v>0.001479814993217587</v>
+        <v>0.07548096030950546</v>
       </c>
       <c r="U7" t="n">
-        <v>0.001272399327717721</v>
+        <v>0.06399780511856079</v>
       </c>
       <c r="V7" t="n">
-        <v>0.002175191650167108</v>
+        <v>0.1534532755613327</v>
       </c>
       <c r="W7" t="n">
-        <v>0.002437811344861984</v>
+        <v>0.1170278042554855</v>
       </c>
       <c r="X7" t="n">
-        <v>4.319867002777755e-05</v>
+        <v>0.05826396122574806</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.002423149300739169</v>
+        <v>0.1170419082045555</v>
       </c>
       <c r="Z7" t="n">
-        <v>1.883512595668435e-05</v>
+        <v>0.05995757877826691</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0007753822137601674</v>
+        <v>0.09604935348033905</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.0002627428038977087</v>
+        <v>0.03287892416119576</v>
       </c>
       <c r="AC7" t="n">
-        <v>8.605548646301031e-05</v>
+        <v>0.1742271929979324</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.002084018662571907</v>
+        <v>0.02843696251511574</v>
       </c>
       <c r="AE7" t="n">
-        <v>0.001103734597563744</v>
+        <v>0.03089610114693642</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.001861423254013062</v>
+        <v>0.09833908081054688</v>
       </c>
       <c r="AG7" t="n">
-        <v>0.000195417640497908</v>
+        <v>0.02013262733817101</v>
       </c>
       <c r="AH7" t="n">
-        <v>0.0008664330234751105</v>
+        <v>0.009777117520570755</v>
       </c>
       <c r="AI7" t="n">
-        <v>0.001478391350246966</v>
+        <v>0.00430325698107481</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.003721689805388451</v>
+        <v>0.04127532988786697</v>
       </c>
       <c r="AK7" t="n">
-        <v>6.541103357449174e-05</v>
+        <v>0.07970691472291946</v>
       </c>
       <c r="AL7" t="n">
-        <v>0.00354490615427494</v>
+        <v>0.09890635311603546</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.0007532380986958742</v>
+        <v>0.01930880919098854</v>
       </c>
       <c r="AN7" t="n">
-        <v>0.0009386253077536821</v>
+        <v>0.04441935941576958</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.0004922885564155877</v>
+        <v>0.07669911533594131</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.00451082456856966</v>
+        <v>0.1175461784005165</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.0001714087557047606</v>
+        <v>0.001295547932386398</v>
       </c>
       <c r="AR7" t="n">
-        <v>0.001578944851644337</v>
+        <v>0.02511152997612953</v>
       </c>
       <c r="AS7" t="n">
-        <v>0.0005635679117403924</v>
+        <v>0.06872610747814178</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.001971898367628455</v>
+        <v>0.001355813816189766</v>
       </c>
       <c r="AU7" t="n">
-        <v>0.00474583962932229</v>
+        <v>0.6550281047821045</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.007337784394621849</v>
+        <v>0.01808515563607216</v>
       </c>
       <c r="AW7" t="n">
-        <v>0.0008613085956312716</v>
+        <v>0.07991486042737961</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.003775907913222909</v>
+        <v>0.08146178722381592</v>
       </c>
       <c r="AY7" t="n">
-        <v>0.008310445584356785</v>
+        <v>0.01417726371437311</v>
       </c>
       <c r="AZ7" t="n">
-        <v>0.0004740182484965771</v>
+        <v>0.03237436711788177</v>
       </c>
       <c r="BA7" t="n">
-        <v>0.003482268657535315</v>
+        <v>0.01713832467794418</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.003124585375189781</v>
+        <v>0.1128656566143036</v>
       </c>
       <c r="BC7" t="n">
-        <v>8.199489820981398e-05</v>
+        <v>0.1162204146385193</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.00117024255450815</v>
+        <v>0.1675878912210464</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.001996445003896952</v>
+        <v>0.136345773935318</v>
       </c>
       <c r="BF7" t="n">
-        <v>0.001565938000567257</v>
+        <v>0.005823783576488495</v>
       </c>
       <c r="BG7" t="n">
-        <v>0.000247079849941656</v>
+        <v>0.2248665243387222</v>
       </c>
       <c r="BH7" t="n">
-        <v>0.002016048412770033</v>
+        <v>0.1520203500986099</v>
       </c>
       <c r="BI7" t="n">
-        <v>0.001175302662886679</v>
+        <v>0.07406867295503616</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0.002062350511550903</v>
+        <v>0.08120005577802658</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.00318159768357873</v>
+        <v>0.003290850669145584</v>
       </c>
       <c r="BL7" t="n">
-        <v>0.0004646401212085038</v>
+        <v>0.06808619946241379</v>
       </c>
       <c r="BM7" t="n">
-        <v>0.0003232494054827839</v>
+        <v>0.1006093099713326</v>
       </c>
       <c r="BN7" t="n">
-        <v>0.004344598390161991</v>
+        <v>0.03211338818073273</v>
       </c>
       <c r="BO7" t="n">
-        <v>0.001711631193757057</v>
+        <v>0.1305960565805435</v>
       </c>
       <c r="BP7" t="n">
-        <v>5.216660792939365e-05</v>
+        <v>0.07533416897058487</v>
       </c>
       <c r="BQ7" t="n">
-        <v>0.001842182944528759</v>
+        <v>0.06666910648345947</v>
       </c>
       <c r="BR7" t="n">
-        <v>0.001317148329690099</v>
+        <v>0.07824914902448654</v>
       </c>
       <c r="BS7" t="n">
-        <v>0.001844692975282669</v>
+        <v>0.0193126555532217</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.002174917841330171</v>
+        <v>0.08395127952098846</v>
       </c>
       <c r="BU7" t="n">
-        <v>0.0002449696476105601</v>
+        <v>0.001631342573091388</v>
       </c>
       <c r="BV7" t="n">
-        <v>0.002703349571675062</v>
+        <v>0.3028077781200409</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.0004320851876400411</v>
+        <v>0.05950993299484253</v>
       </c>
       <c r="BX7" t="n">
-        <v>0.001224122708663344</v>
+        <v>0.09820561856031418</v>
       </c>
       <c r="BY7" t="n">
-        <v>0.004751714877784252</v>
+        <v>0.07574343681335449</v>
       </c>
       <c r="BZ7" t="n">
-        <v>0.0005503078573383391</v>
+        <v>0.1514386832714081</v>
       </c>
       <c r="CA7" t="n">
-        <v>0.001197204692289233</v>
+        <v>0.03147025778889656</v>
       </c>
       <c r="CB7" t="n">
-        <v>0.001190531067550182</v>
+        <v>0.02087727189064026</v>
       </c>
       <c r="CC7" t="n">
-        <v>0.004576900508254766</v>
+        <v>0.09424246102571487</v>
       </c>
       <c r="CD7" t="n">
-        <v>0.0004190361360087991</v>
+        <v>0.06247323751449585</v>
       </c>
       <c r="CE7" t="n">
-        <v>0.002304790774360299</v>
+        <v>0.1574710458517075</v>
       </c>
       <c r="CF7" t="n">
-        <v>0.00173040316440165</v>
+        <v>0.06249653548002243</v>
       </c>
       <c r="CG7" t="n">
-        <v>0.0004798452719114721</v>
+        <v>0.03245957940816879</v>
       </c>
       <c r="CH7" t="n">
-        <v>0.002665189560502768</v>
+        <v>0.04152651503682137</v>
       </c>
       <c r="CI7" t="n">
-        <v>0.0006613105069845915</v>
+        <v>0.07664516568183899</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0.0003262065292801708</v>
+        <v>0.02305776439607143</v>
       </c>
       <c r="CK7" t="n">
-        <v>0.0002614160475786775</v>
+        <v>0.01132379099726677</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.001383134862408042</v>
+        <v>0.03956454992294312</v>
       </c>
       <c r="CM7" t="n">
-        <v>0.0009576104348525405</v>
+        <v>0.05488855391740799</v>
       </c>
       <c r="CN7" t="n">
-        <v>0.005781973712146282</v>
+        <v>0.006300636567175388</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.001141124754212797</v>
+        <v>0.09288223087787628</v>
       </c>
       <c r="CP7" t="n">
-        <v>0.000311272859107703</v>
+        <v>0.1488275229930878</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.0001208075555041432</v>
+        <v>0.07958028465509415</v>
       </c>
       <c r="CR7" t="n">
-        <v>6.243330426514149e-05</v>
+        <v>0.1027756184339523</v>
       </c>
       <c r="CS7" t="n">
-        <v>0.0004922103835269809</v>
+        <v>0.06866656243801117</v>
       </c>
       <c r="CT7" t="n">
-        <v>6.735807983204722e-05</v>
+        <v>0.07751999795436859</v>
       </c>
       <c r="CU7" t="n">
-        <v>0.002454197267070413</v>
+        <v>0.03676607087254524</v>
       </c>
       <c r="CV7" t="n">
-        <v>0.0004602029221132398</v>
+        <v>0.05140889436006546</v>
       </c>
       <c r="CW7" t="n">
-        <v>0.002579537220299244</v>
+        <v>0.1241029351949692</v>
       </c>
       <c r="CX7" t="n">
-        <v>0.001834348076954484</v>
+        <v>0.05733830109238625</v>
       </c>
       <c r="CY7" t="n">
-        <v>0.0005078190006315708</v>
+        <v>0.07757266610860825</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0.003208980429917574</v>
+        <v>0.03870833292603493</v>
       </c>
       <c r="DA7" t="n">
-        <v>0.001177416183054447</v>
+        <v>0.09011362493038177</v>
       </c>
       <c r="DB7" t="n">
-        <v>2.184472396038473e-05</v>
+        <v>0.03233379870653152</v>
       </c>
       <c r="DC7" t="n">
-        <v>0.0008335695019923151</v>
+        <v>0.01491106487810612</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.001691315672360361</v>
+        <v>0.02941116318106651</v>
       </c>
       <c r="DE7" t="n">
-        <v>0.0007644956931471825</v>
+        <v>0.1078563332557678</v>
       </c>
       <c r="DF7" t="n">
-        <v>0.003558812430128455</v>
+        <v>0.04104157537221909</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.004739729221910238</v>
+        <v>0.04563695564866066</v>
       </c>
       <c r="DH7" t="n">
-        <v>0.002257365500554442</v>
+        <v>0.2079005390405655</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.001778667909093201</v>
+        <v>0.1388303339481354</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0.001010412233881652</v>
+        <v>0.04359934478998184</v>
       </c>
       <c r="DK7" t="n">
-        <v>0.003386731259524822</v>
+        <v>0.06618795543909073</v>
       </c>
       <c r="DL7" t="n">
-        <v>0.000379578152205795</v>
+        <v>0.000912494957447052</v>
       </c>
       <c r="DM7" t="n">
-        <v>0.001887873280793428</v>
+        <v>0.01243690401315689</v>
       </c>
       <c r="DN7" t="n">
-        <v>0.0002288638352183625</v>
+        <v>0.1056969985365868</v>
       </c>
       <c r="DO7" t="n">
-        <v>0.001440792926587164</v>
+        <v>0.03080844692885876</v>
       </c>
       <c r="DP7" t="n">
-        <v>0.00118164555169642</v>
+        <v>0.07742518931627274</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0.002379857935011387</v>
+        <v>0.00385195529088378</v>
       </c>
       <c r="DR7" t="n">
-        <v>0.00110254087485373</v>
+        <v>0.02417132630944252</v>
       </c>
       <c r="DS7" t="n">
-        <v>0.00198264280334115</v>
+        <v>0.1372337490320206</v>
       </c>
       <c r="DT7" t="n">
-        <v>0.0007436711457557976</v>
+        <v>0.001988006755709648</v>
       </c>
       <c r="DU7" t="n">
-        <v>0.001668862183578312</v>
+        <v>0.01664247736334801</v>
       </c>
       <c r="DV7" t="n">
-        <v>0.0004124760162085295</v>
+        <v>0.06426896154880524</v>
       </c>
       <c r="DW7" t="n">
-        <v>0.0007821844192221761</v>
+        <v>0.05799559503793716</v>
       </c>
       <c r="DX7" t="n">
-        <v>0.0005975132808089256</v>
+        <v>0.01513917185366154</v>
       </c>
       <c r="DY7" t="n">
-        <v>0.001351825427263975</v>
+        <v>0.1674104183912277</v>
       </c>
       <c r="DZ7" t="n">
-        <v>0.0004193649801891297</v>
+        <v>0.05354658141732216</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.0006217732443474233</v>
+        <v>0.1178357154130936</v>
       </c>
       <c r="EB7" t="n">
-        <v>0.0009903027676045895</v>
+        <v>0.002050507813692093</v>
       </c>
       <c r="EC7" t="n">
-        <v>6.599279004149139e-05</v>
+        <v>0.0136564364656806</v>
       </c>
       <c r="ED7" t="n">
-        <v>0.002328230300918221</v>
+        <v>0.02094830945134163</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.0008805007673799992</v>
+        <v>0.06179710105061531</v>
       </c>
       <c r="EF7" t="n">
-        <v>0.0008653474505990744</v>
+        <v>0.004101403057575226</v>
       </c>
       <c r="EG7" t="n">
-        <v>0.003132646437734365</v>
+        <v>0.0886356309056282</v>
       </c>
       <c r="EH7" t="n">
-        <v>0.001250929315574467</v>
+        <v>0.002445520600304008</v>
       </c>
       <c r="EI7" t="n">
-        <v>8.838268695399165e-05</v>
+        <v>0.007961561903357506</v>
       </c>
       <c r="EJ7" t="n">
-        <v>0.002118032425642014</v>
+        <v>0.0131854210048914</v>
       </c>
       <c r="EK7" t="n">
-        <v>0.002888211747631431</v>
+        <v>0.05261288583278656</v>
       </c>
       <c r="EL7" t="n">
-        <v>0.0008544344455003738</v>
+        <v>0.05095858126878738</v>
       </c>
       <c r="EM7" t="n">
-        <v>0.001731444499455392</v>
+        <v>0.02362690679728985</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.0009856810793280602</v>
+        <v>0.001083463430404663</v>
       </c>
       <c r="EO7" t="n">
-        <v>0.0008413553587161005</v>
+        <v>0.06343105435371399</v>
       </c>
       <c r="EP7" t="n">
-        <v>0.001073641935363412</v>
+        <v>0.1380388885736465</v>
       </c>
       <c r="EQ7" t="n">
-        <v>0.002267802134156227</v>
+        <v>0.03526837378740311</v>
       </c>
       <c r="ER7" t="n">
-        <v>0.0006185420788824558</v>
+        <v>0.09938731789588928</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.001893823500722647</v>
+        <v>0.1129202097654343</v>
       </c>
       <c r="ET7" t="n">
-        <v>0.002234902698546648</v>
+        <v>0.2509468197822571</v>
       </c>
       <c r="EU7" t="n">
-        <v>0.0009771368931978941</v>
+        <v>0.06293317675590515</v>
       </c>
       <c r="EV7" t="n">
-        <v>0.0008589525823481381</v>
+        <v>0.1196593344211578</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.001112804864533246</v>
+        <v>0.01953638903796673</v>
       </c>
       <c r="EX7" t="n">
-        <v>0.0006244558608159423</v>
+        <v>0.04206828773021698</v>
       </c>
       <c r="EY7" t="n">
-        <v>0.002551991492509842</v>
+        <v>0.1318970024585724</v>
       </c>
       <c r="EZ7" t="n">
-        <v>0.001850126311182976</v>
+        <v>0.01501080300658941</v>
       </c>
       <c r="FA7" t="n">
-        <v>0.0001452559081371874</v>
+        <v>0.05744257196784019</v>
       </c>
       <c r="FB7" t="n">
-        <v>0.002306228503584862</v>
+        <v>0.03046372160315514</v>
       </c>
       <c r="FC7" t="n">
-        <v>0.0005109282210469246</v>
+        <v>0.09650196135044098</v>
       </c>
       <c r="FD7" t="n">
-        <v>9.668953134678304e-05</v>
+        <v>0.04012492671608925</v>
       </c>
       <c r="FE7" t="n">
-        <v>0.0008729131077416241</v>
+        <v>0.0133223244920373</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.002060034079477191</v>
+        <v>0.04783855378627777</v>
       </c>
       <c r="FG7" t="n">
-        <v>0.0006633782759308815</v>
+        <v>0.03492577001452446</v>
       </c>
       <c r="FH7" t="n">
-        <v>0.001120452419854701</v>
+        <v>0.06138913333415985</v>
       </c>
       <c r="FI7" t="n">
-        <v>0.001693380065262318</v>
+        <v>0.0404607467353344</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0.002389106433838606</v>
+        <v>0.1010856628417969</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.002689518965780735</v>
+        <v>0.03575261682271957</v>
       </c>
       <c r="FL7" t="n">
-        <v>0.003316448302939534</v>
+        <v>0.05028426274657249</v>
       </c>
       <c r="FM7" t="n">
-        <v>0.0002150670334231108</v>
+        <v>0.02961778454482555</v>
       </c>
       <c r="FN7" t="n">
-        <v>0.0005540088750422001</v>
+        <v>0.07668392360210419</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.001862794393673539</v>
+        <v>0.1325503885746002</v>
       </c>
       <c r="FP7" t="n">
-        <v>1.567412255099043e-05</v>
+        <v>0.05456720665097237</v>
       </c>
       <c r="FQ7" t="n">
-        <v>0.003210661699995399</v>
+        <v>0.1274938732385635</v>
       </c>
       <c r="FR7" t="n">
-        <v>0.0004654568911064416</v>
+        <v>0.0566488541662693</v>
       </c>
       <c r="FS7" t="n">
-        <v>0.001230035908520222</v>
+        <v>0.08313538879156113</v>
       </c>
       <c r="FT7" t="n">
-        <v>0.002159501425921917</v>
+        <v>0.2634093761444092</v>
       </c>
       <c r="FU7" t="n">
-        <v>0.0006785957375541329</v>
+        <v>0.1038239002227783</v>
       </c>
       <c r="FV7" t="n">
-        <v>0.00223036902025342</v>
+        <v>0.009706604294478893</v>
       </c>
       <c r="FW7" t="n">
-        <v>0.0006607410032302141</v>
+        <v>0.03488370776176453</v>
       </c>
       <c r="FX7" t="n">
-        <v>0.0006289196317084134</v>
+        <v>0.04694517701864243</v>
       </c>
       <c r="FY7" t="n">
-        <v>0.0005253783310763538</v>
+        <v>0.1027515530586243</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0.0009124435600824654</v>
+        <v>0.07258445769548416</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.001501621794886887</v>
+        <v>0.06943666934967041</v>
       </c>
       <c r="GB7" t="n">
-        <v>0.002052210737019777</v>
+        <v>0.02684576064348221</v>
       </c>
       <c r="GC7" t="n">
-        <v>3.981775080319494e-06</v>
+        <v>0.1039789989590645</v>
       </c>
       <c r="GD7" t="n">
-        <v>0.002346815774217248</v>
+        <v>0.06083244457840919</v>
       </c>
       <c r="GE7" t="n">
-        <v>0.00134827836882323</v>
+        <v>0.2167099267244339</v>
       </c>
       <c r="GF7" t="n">
-        <v>0.002628937363624573</v>
+        <v>0.003900116309523582</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.001401069574058056</v>
+        <v>0.04316872730851173</v>
       </c>
     </row>
     <row r="8">
@@ -4987,1140 +4987,1140 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.0001321681920671836</v>
+        <v>0.00204407935962081</v>
       </c>
       <c r="B9" t="n">
-        <v>7.774947152938694e-05</v>
+        <v>0.01017550565302372</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001582350378157571</v>
+        <v>0.0006588856922462583</v>
       </c>
       <c r="D9" t="n">
-        <v>1.851693741627969e-05</v>
+        <v>0.003582466393709183</v>
       </c>
       <c r="E9" t="n">
-        <v>1.063686067936942e-05</v>
+        <v>0.0009690448641777039</v>
       </c>
       <c r="F9" t="n">
-        <v>0.0002412887697573751</v>
+        <v>0.002239152556285262</v>
       </c>
       <c r="G9" t="n">
-        <v>1.819095632527024e-05</v>
+        <v>0.0007042884826660156</v>
       </c>
       <c r="H9" t="n">
-        <v>9.255444456357509e-05</v>
+        <v>0.000397319789044559</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0003698489454109222</v>
+        <v>0.0002890609903261065</v>
       </c>
       <c r="J9" t="n">
-        <v>6.585667870240286e-05</v>
+        <v>0.001577181625179946</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0001157980877906084</v>
+        <v>0.006065267138183117</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003023211320396513</v>
+        <v>0.0004125947307329625</v>
       </c>
       <c r="M9" t="n">
-        <v>2.608063368825242e-06</v>
+        <v>0.004528933204710484</v>
       </c>
       <c r="N9" t="n">
-        <v>8.474683272652328e-05</v>
+        <v>0.002029625233262777</v>
       </c>
       <c r="O9" t="n">
-        <v>7.80404225224629e-05</v>
+        <v>0.003444223431870341</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0001338933361694217</v>
+        <v>0.002340806648135185</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0001033525331877172</v>
+        <v>0.002808011136949062</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0003114455030299723</v>
+        <v>0.0001599614479346201</v>
       </c>
       <c r="S9" t="n">
-        <v>3.039588045794517e-05</v>
+        <v>0.0003159545012749732</v>
       </c>
       <c r="T9" t="n">
-        <v>4.149246888118796e-05</v>
+        <v>0.001227523083798587</v>
       </c>
       <c r="U9" t="n">
-        <v>2.79808955383487e-05</v>
+        <v>4.896133032161742e-05</v>
       </c>
       <c r="V9" t="n">
-        <v>0.0001325696794083342</v>
+        <v>0.0004477892653085291</v>
       </c>
       <c r="W9" t="n">
-        <v>2.444585516059306e-05</v>
+        <v>0.001466994523070753</v>
       </c>
       <c r="X9" t="n">
-        <v>6.28763300483115e-05</v>
+        <v>0.0001339343143627048</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.0001331567182205617</v>
+        <v>0.0009966909419745207</v>
       </c>
       <c r="Z9" t="n">
-        <v>2.988840151374461e-06</v>
+        <v>0.0009300400852225721</v>
       </c>
       <c r="AA9" t="n">
-        <v>9.721176320454106e-05</v>
+        <v>0.0008474355563521385</v>
       </c>
       <c r="AB9" t="n">
-        <v>2.219272573711351e-06</v>
+        <v>0.0001738723367452621</v>
       </c>
       <c r="AC9" t="n">
-        <v>5.442831024993211e-05</v>
+        <v>0.00229110661894083</v>
       </c>
       <c r="AD9" t="n">
-        <v>4.607686605595518e-06</v>
+        <v>0.0001287126797251403</v>
       </c>
       <c r="AE9" t="n">
-        <v>7.375162385869771e-05</v>
+        <v>0.001021891599521041</v>
       </c>
       <c r="AF9" t="n">
-        <v>4.12056760978885e-06</v>
+        <v>0.000952031638007611</v>
       </c>
       <c r="AG9" t="n">
-        <v>2.022868102358188e-05</v>
+        <v>0.0005730666453018785</v>
       </c>
       <c r="AH9" t="n">
-        <v>0.0001632393687032163</v>
+        <v>0.001937430817633867</v>
       </c>
       <c r="AI9" t="n">
-        <v>7.204365829238668e-05</v>
+        <v>7.738679414615035e-06</v>
       </c>
       <c r="AJ9" t="n">
-        <v>3.312319677206688e-06</v>
+        <v>0.000139964948175475</v>
       </c>
       <c r="AK9" t="n">
-        <v>6.618210136366542e-06</v>
+        <v>0.001193611184135079</v>
       </c>
       <c r="AL9" t="n">
-        <v>8.752738358452916e-05</v>
+        <v>0.001894946210086346</v>
       </c>
       <c r="AM9" t="n">
-        <v>3.05765206576325e-05</v>
+        <v>0.0004496369801927358</v>
       </c>
       <c r="AN9" t="n">
-        <v>1.973409962374717e-05</v>
+        <v>0.0005988959455862641</v>
       </c>
       <c r="AO9" t="n">
-        <v>4.032060678582639e-05</v>
+        <v>0.0002429998567095026</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.0001492841547587886</v>
+        <v>0.001473904121667147</v>
       </c>
       <c r="AQ9" t="n">
-        <v>3.414109232835472e-05</v>
+        <v>0.000243258778937161</v>
       </c>
       <c r="AR9" t="n">
-        <v>1.15304283099249e-06</v>
+        <v>0.0001083432871382684</v>
       </c>
       <c r="AS9" t="n">
-        <v>3.780599217861891e-05</v>
+        <v>3.827347245533019e-05</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.0001941377850016579</v>
+        <v>0.001074880128726363</v>
       </c>
       <c r="AU9" t="n">
-        <v>8.206024358514696e-05</v>
+        <v>0.00869373232126236</v>
       </c>
       <c r="AV9" t="n">
-        <v>0.0002632974646985531</v>
+        <v>0.000159363989951089</v>
       </c>
       <c r="AW9" t="n">
-        <v>8.181980228982866e-05</v>
+        <v>0.0003138536994811147</v>
       </c>
       <c r="AX9" t="n">
-        <v>7.878408359829336e-05</v>
+        <v>0.004292106255888939</v>
       </c>
       <c r="AY9" t="n">
-        <v>8.758457261137664e-05</v>
+        <v>0.0005136984400451183</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0.0001195029617520049</v>
+        <v>0.0009039343567565084</v>
       </c>
       <c r="BA9" t="n">
-        <v>0.0001567967410665005</v>
+        <v>0.001503828912973404</v>
       </c>
       <c r="BB9" t="n">
-        <v>0.0001872586435638368</v>
+        <v>9.701207454781979e-05</v>
       </c>
       <c r="BC9" t="n">
-        <v>3.872362140100449e-05</v>
+        <v>0.0007535764016211033</v>
       </c>
       <c r="BD9" t="n">
-        <v>7.025013474049047e-05</v>
+        <v>0.0008706148364581168</v>
       </c>
       <c r="BE9" t="n">
-        <v>1.410844561178237e-05</v>
+        <v>0.0009727231226861477</v>
       </c>
       <c r="BF9" t="n">
-        <v>2.507640965632163e-05</v>
+        <v>0.0002934685908257961</v>
       </c>
       <c r="BG9" t="n">
-        <v>0.0001200745682581328</v>
+        <v>0.002621358726173639</v>
       </c>
       <c r="BH9" t="n">
-        <v>8.463985432172194e-05</v>
+        <v>0.001117491628974676</v>
       </c>
       <c r="BI9" t="n">
-        <v>4.926908877678216e-05</v>
+        <v>0.001081241178326309</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0.0001924128591781482</v>
+        <v>0.001771882874891162</v>
       </c>
       <c r="BK9" t="n">
-        <v>7.082617958076298e-05</v>
+        <v>0.0004841280751861632</v>
       </c>
       <c r="BL9" t="n">
-        <v>2.482597119524144e-05</v>
+        <v>0.001543055754154921</v>
       </c>
       <c r="BM9" t="n">
-        <v>3.519411620800383e-05</v>
+        <v>0.001347535522654653</v>
       </c>
       <c r="BN9" t="n">
-        <v>0.0001610980834811926</v>
+        <v>0.0003049896913580596</v>
       </c>
       <c r="BO9" t="n">
-        <v>5.322714423527941e-05</v>
+        <v>0.002188890241086483</v>
       </c>
       <c r="BP9" t="n">
-        <v>4.285766772227362e-05</v>
+        <v>0.002026014262810349</v>
       </c>
       <c r="BQ9" t="n">
-        <v>5.383652387536131e-05</v>
+        <v>0.0002142617595382035</v>
       </c>
       <c r="BR9" t="n">
-        <v>6.28735069767572e-05</v>
+        <v>3.842657315544784e-05</v>
       </c>
       <c r="BS9" t="n">
-        <v>3.966764779761434e-05</v>
+        <v>0.0004123598046135157</v>
       </c>
       <c r="BT9" t="n">
-        <v>6.720495002809912e-05</v>
+        <v>4.10555221606046e-05</v>
       </c>
       <c r="BU9" t="n">
-        <v>3.945520802517422e-05</v>
+        <v>0.0009802818531170487</v>
       </c>
       <c r="BV9" t="n">
-        <v>0.0001038280388456769</v>
+        <v>0.004039211664348841</v>
       </c>
       <c r="BW9" t="n">
-        <v>2.944038442365127e-06</v>
+        <v>9.986977238440886e-05</v>
       </c>
       <c r="BX9" t="n">
-        <v>4.057431215187535e-05</v>
+        <v>7.856980664655566e-05</v>
       </c>
       <c r="BY9" t="n">
-        <v>0.0001244862505700439</v>
+        <v>0.0002285659866174683</v>
       </c>
       <c r="BZ9" t="n">
-        <v>6.903989560669288e-05</v>
+        <v>0.001714776270091534</v>
       </c>
       <c r="CA9" t="n">
-        <v>3.58750949089881e-05</v>
+        <v>0.0002631983661558479</v>
       </c>
       <c r="CB9" t="n">
-        <v>0.0001827695086831227</v>
+        <v>0.0001900701317936182</v>
       </c>
       <c r="CC9" t="n">
-        <v>0.0001234883384313434</v>
+        <v>0.0004791558894794434</v>
       </c>
       <c r="CD9" t="n">
-        <v>1.93112555280095e-06</v>
+        <v>0.0008615017868578434</v>
       </c>
       <c r="CE9" t="n">
-        <v>8.787676779320464e-05</v>
+        <v>0.001826817635446787</v>
       </c>
       <c r="CF9" t="n">
-        <v>2.227068216598127e-05</v>
+        <v>0.0003749819297809154</v>
       </c>
       <c r="CG9" t="n">
-        <v>6.105611828388646e-05</v>
+        <v>0.0008467560401186347</v>
       </c>
       <c r="CH9" t="n">
-        <v>2.424256854283158e-05</v>
+        <v>0.0005133360391482711</v>
       </c>
       <c r="CI9" t="n">
-        <v>9.85460701485863e-06</v>
+        <v>0.0005032950430177152</v>
       </c>
       <c r="CJ9" t="n">
-        <v>2.513549770810641e-05</v>
+        <v>0.0006147614913061261</v>
       </c>
       <c r="CK9" t="n">
-        <v>6.881441549921874e-06</v>
+        <v>0.0002000207605306059</v>
       </c>
       <c r="CL9" t="n">
-        <v>2.442369805066846e-05</v>
+        <v>0.0001870671840151772</v>
       </c>
       <c r="CM9" t="n">
-        <v>5.813674943055958e-05</v>
+        <v>0.00087705411715433</v>
       </c>
       <c r="CN9" t="n">
-        <v>5.544663872569799e-05</v>
+        <v>0.0008143520099110901</v>
       </c>
       <c r="CO9" t="n">
-        <v>4.097886267118156e-05</v>
+        <v>0.001165861031040549</v>
       </c>
       <c r="CP9" t="n">
-        <v>5.935021545155905e-05</v>
+        <v>0.001969784731045365</v>
       </c>
       <c r="CQ9" t="n">
-        <v>9.251625306205824e-05</v>
+        <v>0.001656510285101831</v>
       </c>
       <c r="CR9" t="n">
-        <v>3.945214120903984e-05</v>
+        <v>0.001154594123363495</v>
       </c>
       <c r="CS9" t="n">
-        <v>2.298223262187093e-05</v>
+        <v>0.000170738305314444</v>
       </c>
       <c r="CT9" t="n">
-        <v>1.910917126224376e-05</v>
+        <v>0.0006129563553258777</v>
       </c>
       <c r="CU9" t="n">
-        <v>0.0001427326060365885</v>
+        <v>0.0006749461172148585</v>
       </c>
       <c r="CV9" t="n">
-        <v>1.16370792966336e-05</v>
+        <v>0.0007478402112610638</v>
       </c>
       <c r="CW9" t="n">
-        <v>7.482393266400322e-05</v>
+        <v>0.001516613177955151</v>
       </c>
       <c r="CX9" t="n">
-        <v>1.292012711928692e-05</v>
+        <v>0.0004019409534521401</v>
       </c>
       <c r="CY9" t="n">
-        <v>3.458023275015876e-05</v>
+        <v>0.001267093583010137</v>
       </c>
       <c r="CZ9" t="n">
-        <v>3.504632331896573e-05</v>
+        <v>0.0005508869071491063</v>
       </c>
       <c r="DA9" t="n">
-        <v>3.156266393489204e-05</v>
+        <v>0.0008606984629295766</v>
       </c>
       <c r="DB9" t="n">
-        <v>1.837168201745953e-05</v>
+        <v>0.0007110358565114439</v>
       </c>
       <c r="DC9" t="n">
-        <v>5.921438059885986e-07</v>
+        <v>0.0003787785535678267</v>
       </c>
       <c r="DD9" t="n">
-        <v>4.627721864380874e-05</v>
+        <v>7.018347969278693e-05</v>
       </c>
       <c r="DE9" t="n">
-        <v>7.625496073160321e-05</v>
+        <v>0.001086704665794969</v>
       </c>
       <c r="DF9" t="n">
-        <v>0.0002010287280427292</v>
+        <v>0.002228547586128116</v>
       </c>
       <c r="DG9" t="n">
-        <v>0.0002828562282957137</v>
+        <v>7.823025225661695e-05</v>
       </c>
       <c r="DH9" t="n">
-        <v>6.329828465823084e-05</v>
+        <v>0.00155374500900507</v>
       </c>
       <c r="DI9" t="n">
-        <v>0.000243105721892789</v>
+        <v>0.001194689655676484</v>
       </c>
       <c r="DJ9" t="n">
-        <v>0.0002993038506247103</v>
+        <v>0.001659245113842189</v>
       </c>
       <c r="DK9" t="n">
-        <v>0.0002295048761880025</v>
+        <v>0.001865589641965926</v>
       </c>
       <c r="DL9" t="n">
-        <v>7.165595889091492e-05</v>
+        <v>0.0009261956438422203</v>
       </c>
       <c r="DM9" t="n">
-        <v>7.731381629128009e-05</v>
+        <v>0.0004725687904283404</v>
       </c>
       <c r="DN9" t="n">
-        <v>5.492516720551066e-05</v>
+        <v>0.001854891423135996</v>
       </c>
       <c r="DO9" t="n">
-        <v>4.606750371749513e-05</v>
+        <v>0.0009360931580886245</v>
       </c>
       <c r="DP9" t="n">
-        <v>0.000131601031171158</v>
+        <v>0.0007663817377761006</v>
       </c>
       <c r="DQ9" t="n">
-        <v>3.894546898663975e-05</v>
+        <v>0.001453867182135582</v>
       </c>
       <c r="DR9" t="n">
-        <v>6.754904461558908e-05</v>
+        <v>0.000274188001640141</v>
       </c>
       <c r="DS9" t="n">
-        <v>4.351773168309592e-05</v>
+        <v>0.00167662906460464</v>
       </c>
       <c r="DT9" t="n">
-        <v>4.966234337189235e-05</v>
+        <v>0.0001195562799694017</v>
       </c>
       <c r="DU9" t="n">
-        <v>4.887964678346179e-06</v>
+        <v>0.0008316639577969909</v>
       </c>
       <c r="DV9" t="n">
-        <v>1.80257557076402e-05</v>
+        <v>0.0004130188608542085</v>
       </c>
       <c r="DW9" t="n">
-        <v>3.561707126209512e-05</v>
+        <v>0.000484688178403303</v>
       </c>
       <c r="DX9" t="n">
-        <v>7.003496193647152e-06</v>
+        <v>0.001686971401795745</v>
       </c>
       <c r="DY9" t="n">
-        <v>1.523531318525784e-05</v>
+        <v>0.001490393071435392</v>
       </c>
       <c r="DZ9" t="n">
-        <v>5.277855234453455e-05</v>
+        <v>8.471123874187469e-05</v>
       </c>
       <c r="EA9" t="n">
-        <v>0.0001211409835377708</v>
+        <v>0.001560608390718699</v>
       </c>
       <c r="EB9" t="n">
-        <v>5.378445712267421e-05</v>
+        <v>6.363268767017871e-06</v>
       </c>
       <c r="EC9" t="n">
-        <v>6.647815462201834e-05</v>
+        <v>0.0002240366593468934</v>
       </c>
       <c r="ED9" t="n">
-        <v>3.780047336476855e-06</v>
+        <v>0.001195355784147978</v>
       </c>
       <c r="EE9" t="n">
-        <v>9.139567555394024e-05</v>
+        <v>2.28670505748596e-05</v>
       </c>
       <c r="EF9" t="n">
-        <v>1.397894266119692e-06</v>
+        <v>0.0001541345845907927</v>
       </c>
       <c r="EG9" t="n">
-        <v>0.0001928163110278547</v>
+        <v>0.0002597031416371465</v>
       </c>
       <c r="EH9" t="n">
-        <v>3.322758129797876e-05</v>
+        <v>0.000214580271858722</v>
       </c>
       <c r="EI9" t="n">
-        <v>1.329492079094052e-06</v>
+        <v>0.0006981237092986703</v>
       </c>
       <c r="EJ9" t="n">
-        <v>2.525857780710794e-05</v>
+        <v>0.00013291573850438</v>
       </c>
       <c r="EK9" t="n">
-        <v>7.217216625576839e-05</v>
+        <v>0.0002826245909091085</v>
       </c>
       <c r="EL9" t="n">
-        <v>1.892044747364707e-05</v>
+        <v>0.0008664475753903389</v>
       </c>
       <c r="EM9" t="n">
-        <v>8.615770639153197e-06</v>
+        <v>0.0002599447616375983</v>
       </c>
       <c r="EN9" t="n">
-        <v>6.998568278504536e-05</v>
+        <v>0.0002902668493334204</v>
       </c>
       <c r="EO9" t="n">
-        <v>6.240844959393144e-05</v>
+        <v>0.0009165414376184344</v>
       </c>
       <c r="EP9" t="n">
-        <v>0.000125766804558225</v>
+        <v>0.001095318351872265</v>
       </c>
       <c r="EQ9" t="n">
-        <v>5.308039908413775e-05</v>
+        <v>0.0007209720788523555</v>
       </c>
       <c r="ER9" t="n">
-        <v>2.142767152690794e-05</v>
+        <v>0.0009148019598796964</v>
       </c>
       <c r="ES9" t="n">
-        <v>3.674445906654e-05</v>
+        <v>0.001072851940989494</v>
       </c>
       <c r="ET9" t="n">
-        <v>6.408959052350838e-06</v>
+        <v>0.004249225836247206</v>
       </c>
       <c r="EU9" t="n">
-        <v>4.765495395986363e-05</v>
+        <v>0.0007601439720019698</v>
       </c>
       <c r="EV9" t="n">
-        <v>6.303847476374358e-05</v>
+        <v>0.0009548761299811304</v>
       </c>
       <c r="EW9" t="n">
-        <v>5.66211856494192e-05</v>
+        <v>0.0005490172770805657</v>
       </c>
       <c r="EX9" t="n">
-        <v>2.029834286076948e-05</v>
+        <v>0.0008395659388042986</v>
       </c>
       <c r="EY9" t="n">
-        <v>7.522163650719449e-05</v>
+        <v>0.001191434799693525</v>
       </c>
       <c r="EZ9" t="n">
-        <v>1.507156321167713e-05</v>
+        <v>5.810758375446312e-05</v>
       </c>
       <c r="FA9" t="n">
-        <v>5.018273077439517e-05</v>
+        <v>0.0008570129866711795</v>
       </c>
       <c r="FB9" t="n">
-        <v>1.49318593685166e-05</v>
+        <v>0.000460011709947139</v>
       </c>
       <c r="FC9" t="n">
-        <v>3.973683487856761e-05</v>
+        <v>0.0008152619120664895</v>
       </c>
       <c r="FD9" t="n">
-        <v>1.034769229590893e-05</v>
+        <v>0.0007228745962493122</v>
       </c>
       <c r="FE9" t="n">
-        <v>1.160934880317654e-05</v>
+        <v>9.878470154944807e-05</v>
       </c>
       <c r="FF9" t="n">
-        <v>4.529222860583104e-05</v>
+        <v>0.0001888891274575144</v>
       </c>
       <c r="FG9" t="n">
-        <v>4.34096873505041e-05</v>
+        <v>0.0008766844402998686</v>
       </c>
       <c r="FH9" t="n">
-        <v>6.193733133841306e-05</v>
+        <v>0.001890158397145569</v>
       </c>
       <c r="FI9" t="n">
-        <v>4.3163810914848e-05</v>
+        <v>0.0002714892034418881</v>
       </c>
       <c r="FJ9" t="n">
-        <v>3.324986028019339e-05</v>
+        <v>0.0005068270838819444</v>
       </c>
       <c r="FK9" t="n">
-        <v>6.773300265194848e-05</v>
+        <v>0.001116788014769554</v>
       </c>
       <c r="FL9" t="n">
-        <v>0.0001016911337501369</v>
+        <v>0.0010975138284266</v>
       </c>
       <c r="FM9" t="n">
-        <v>3.361611015861854e-05</v>
+        <v>0.0002320953062735498</v>
       </c>
       <c r="FN9" t="n">
-        <v>7.138038927223533e-05</v>
+        <v>0.00117156223859638</v>
       </c>
       <c r="FO9" t="n">
-        <v>9.733794286148623e-06</v>
+        <v>0.000484699325170368</v>
       </c>
       <c r="FP9" t="n">
-        <v>5.262300692265853e-05</v>
+        <v>0.0007765389746055007</v>
       </c>
       <c r="FQ9" t="n">
-        <v>7.945084507809952e-05</v>
+        <v>9.772850899025798e-05</v>
       </c>
       <c r="FR9" t="n">
-        <v>1.071822953235824e-05</v>
+        <v>0.000708480947650969</v>
       </c>
       <c r="FS9" t="n">
-        <v>0.0001481555955251679</v>
+        <v>0.0002351702423766255</v>
       </c>
       <c r="FT9" t="n">
-        <v>6.564270006492734e-05</v>
+        <v>0.002151597524061799</v>
       </c>
       <c r="FU9" t="n">
-        <v>1.234295814356301e-05</v>
+        <v>0.001449365285225213</v>
       </c>
       <c r="FV9" t="n">
-        <v>3.023566750925966e-05</v>
+        <v>9.756899089552462e-06</v>
       </c>
       <c r="FW9" t="n">
-        <v>8.653428812976927e-05</v>
+        <v>0.001030854065902531</v>
       </c>
       <c r="FX9" t="n">
-        <v>0.0001130326927523129</v>
+        <v>0.0002654101117514074</v>
       </c>
       <c r="FY9" t="n">
-        <v>7.677858229726553e-05</v>
+        <v>3.433038364164531e-05</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0.0001366308570140973</v>
+        <v>0.001987743657082319</v>
       </c>
       <c r="GA9" t="n">
-        <v>3.350050610606559e-05</v>
+        <v>0.0007022969657555223</v>
       </c>
       <c r="GB9" t="n">
-        <v>3.320030373288319e-05</v>
+        <v>0.001501657068729401</v>
       </c>
       <c r="GC9" t="n">
-        <v>4.885197267867625e-05</v>
+        <v>0.0003916198911610991</v>
       </c>
       <c r="GD9" t="n">
-        <v>0.0001293394016101956</v>
+        <v>0.001038559712469578</v>
       </c>
       <c r="GE9" t="n">
-        <v>1.533226895844564e-05</v>
+        <v>0.001358541194349527</v>
       </c>
       <c r="GF9" t="n">
-        <v>5.080280971014872e-05</v>
+        <v>0.0004576352948788553</v>
       </c>
       <c r="GG9" t="n">
-        <v>6.482058233814314e-05</v>
+        <v>0.0001965914125321433</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>3.19140890496783e-05</v>
+        <v>0.001701301313005388</v>
       </c>
       <c r="B10" t="n">
-        <v>1.45028443512274e-05</v>
+        <v>0.01396096590906382</v>
       </c>
       <c r="C10" t="n">
-        <v>8.184838225133717e-05</v>
+        <v>0.0006768284365534782</v>
       </c>
       <c r="D10" t="n">
-        <v>4.396426083985716e-05</v>
+        <v>0.006246097385883331</v>
       </c>
       <c r="E10" t="n">
-        <v>5.897884693695232e-05</v>
+        <v>0.003442593617364764</v>
       </c>
       <c r="F10" t="n">
-        <v>9.81579432846047e-07</v>
+        <v>0.00318858539685607</v>
       </c>
       <c r="G10" t="n">
-        <v>1.944818723131903e-05</v>
+        <v>0.0009950688108801842</v>
       </c>
       <c r="H10" t="n">
-        <v>2.963428778457455e-05</v>
+        <v>0.001099641318432987</v>
       </c>
       <c r="I10" t="n">
-        <v>7.787482172716409e-05</v>
+        <v>0.000743033189792186</v>
       </c>
       <c r="J10" t="n">
-        <v>1.048048034135718e-05</v>
+        <v>0.002605067798867822</v>
       </c>
       <c r="K10" t="n">
-        <v>1.378149681841023e-05</v>
+        <v>0.009179430082440376</v>
       </c>
       <c r="L10" t="n">
-        <v>8.755752060096711e-05</v>
+        <v>0.000993430963717401</v>
       </c>
       <c r="M10" t="n">
-        <v>2.644994310685433e-05</v>
+        <v>0.006213896907866001</v>
       </c>
       <c r="N10" t="n">
-        <v>2.877403494494502e-05</v>
+        <v>0.0058079669252038</v>
       </c>
       <c r="O10" t="n">
-        <v>3.04645595861075e-07</v>
+        <v>0.00510229729115963</v>
       </c>
       <c r="P10" t="n">
-        <v>3.108672899543308e-05</v>
+        <v>0.0009918003343045712</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.146859257365577e-05</v>
+        <v>0.0009456729749217629</v>
       </c>
       <c r="R10" t="n">
-        <v>8.600961155025288e-05</v>
+        <v>0.0007264228770509362</v>
       </c>
       <c r="S10" t="n">
-        <v>2.758247774181655e-06</v>
+        <v>0.0004492898005992174</v>
       </c>
       <c r="T10" t="n">
-        <v>3.435552207520232e-05</v>
+        <v>0.002190000843256712</v>
       </c>
       <c r="U10" t="n">
-        <v>7.065954832796706e-06</v>
+        <v>7.545784319518134e-05</v>
       </c>
       <c r="V10" t="n">
-        <v>1.567332765262108e-05</v>
+        <v>0.001849121996201575</v>
       </c>
       <c r="W10" t="n">
-        <v>1.660726047703065e-05</v>
+        <v>0.001418625121004879</v>
       </c>
       <c r="X10" t="n">
-        <v>5.486626378115034e-06</v>
+        <v>0.001669385237619281</v>
       </c>
       <c r="Y10" t="n">
-        <v>3.533249582687858e-06</v>
+        <v>0.001503233565017581</v>
       </c>
       <c r="Z10" t="n">
-        <v>1.602070369699504e-05</v>
+        <v>0.0008085349109023809</v>
       </c>
       <c r="AA10" t="n">
-        <v>1.31362930915202e-05</v>
+        <v>0.0009469505166634917</v>
       </c>
       <c r="AB10" t="n">
-        <v>8.773523404670414e-06</v>
+        <v>0.0008437609649263322</v>
       </c>
       <c r="AC10" t="n">
-        <v>1.965985120477853e-06</v>
+        <v>0.00167438224889338</v>
       </c>
       <c r="AD10" t="n">
-        <v>5.802819487144006e-06</v>
+        <v>0.000510356156155467</v>
       </c>
       <c r="AE10" t="n">
-        <v>1.406657065672334e-05</v>
+        <v>0.0003917956200893968</v>
       </c>
       <c r="AF10" t="n">
-        <v>9.166452400677372e-06</v>
+        <v>0.001294757006689906</v>
       </c>
       <c r="AG10" t="n">
-        <v>3.454590842011385e-05</v>
+        <v>0.0001332257525064051</v>
       </c>
       <c r="AH10" t="n">
-        <v>6.81567416904727e-06</v>
+        <v>0.0001897572074085474</v>
       </c>
       <c r="AI10" t="n">
-        <v>2.344808854104485e-05</v>
+        <v>0.0003662130620796233</v>
       </c>
       <c r="AJ10" t="n">
-        <v>2.788752317428589e-05</v>
+        <v>0.0005831968155689538</v>
       </c>
       <c r="AK10" t="n">
-        <v>5.119543402543059e-06</v>
+        <v>0.00107231386937201</v>
       </c>
       <c r="AL10" t="n">
-        <v>2.433899135212414e-05</v>
+        <v>0.001758686150424182</v>
       </c>
       <c r="AM10" t="n">
-        <v>1.051556864695158e-06</v>
+        <v>6.385042797774076e-05</v>
       </c>
       <c r="AN10" t="n">
-        <v>4.933046966471011e-06</v>
+        <v>0.0005938918911851943</v>
       </c>
       <c r="AO10" t="n">
-        <v>2.467767899361206e-06</v>
+        <v>0.001327448291704059</v>
       </c>
       <c r="AP10" t="n">
-        <v>1.946493466675747e-05</v>
+        <v>0.001904266304336488</v>
       </c>
       <c r="AQ10" t="n">
-        <v>2.807201326504583e-06</v>
+        <v>0.0002537919499445707</v>
       </c>
       <c r="AR10" t="n">
-        <v>4.629068826034199e-06</v>
+        <v>0.0004648960893973708</v>
       </c>
       <c r="AS10" t="n">
-        <v>6.17669513758301e-07</v>
+        <v>0.0009912158129736781</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.794783929653931e-05</v>
+        <v>0.001185515429824591</v>
       </c>
       <c r="AU10" t="n">
-        <v>2.372598464717157e-05</v>
+        <v>0.01022103056311607</v>
       </c>
       <c r="AV10" t="n">
-        <v>7.140320667531341e-05</v>
+        <v>3.253975955885835e-05</v>
       </c>
       <c r="AW10" t="n">
-        <v>2.121478428307455e-05</v>
+        <v>0.001148724462836981</v>
       </c>
       <c r="AX10" t="n">
-        <v>1.543321559438482e-05</v>
+        <v>0.001126078423112631</v>
       </c>
       <c r="AY10" t="n">
-        <v>3.829043271252885e-05</v>
+        <v>7.810779788997024e-05</v>
       </c>
       <c r="AZ10" t="n">
-        <v>5.331003194442019e-07</v>
+        <v>0.0004277937987353653</v>
       </c>
       <c r="BA10" t="n">
-        <v>2.362387385801412e-05</v>
+        <v>0.0003122194611933082</v>
       </c>
       <c r="BB10" t="n">
-        <v>3.410401768633164e-05</v>
+        <v>0.0005289252731017768</v>
       </c>
       <c r="BC10" t="n">
-        <v>4.067057943757391e-07</v>
+        <v>0.0007038246840238571</v>
       </c>
       <c r="BD10" t="n">
-        <v>4.982713107892778e-06</v>
+        <v>0.002101965714246035</v>
       </c>
       <c r="BE10" t="n">
-        <v>1.854657239164226e-05</v>
+        <v>0.002084037754684687</v>
       </c>
       <c r="BF10" t="n">
-        <v>7.669341357541271e-06</v>
+        <v>0.0008783044759184122</v>
       </c>
       <c r="BG10" t="n">
-        <v>9.884846804197878e-06</v>
+        <v>0.004496199078857899</v>
       </c>
       <c r="BH10" t="n">
-        <v>2.218757072114386e-05</v>
+        <v>0.002569740638136864</v>
       </c>
       <c r="BI10" t="n">
-        <v>1.557431642140727e-05</v>
+        <v>0.001607298152521253</v>
       </c>
       <c r="BJ10" t="n">
-        <v>3.30700891026936e-06</v>
+        <v>0.0009863716550171375</v>
       </c>
       <c r="BK10" t="n">
-        <v>2.678932332855766e-06</v>
+        <v>2.676452459127177e-05</v>
       </c>
       <c r="BL10" t="n">
-        <v>4.070640443387674e-06</v>
+        <v>0.001752320560626686</v>
       </c>
       <c r="BM10" t="n">
-        <v>4.780637482326711e-06</v>
+        <v>0.001925465068779886</v>
       </c>
       <c r="BN10" t="n">
-        <v>1.675216299190652e-05</v>
+        <v>0.0005509902839548886</v>
       </c>
       <c r="BO10" t="n">
-        <v>5.615599093289347e-06</v>
+        <v>0.0008699276950210333</v>
       </c>
       <c r="BP10" t="n">
-        <v>3.039783450731193e-06</v>
+        <v>0.001547133317217231</v>
       </c>
       <c r="BQ10" t="n">
-        <v>2.087887423840584e-06</v>
+        <v>0.001391646568663418</v>
       </c>
       <c r="BR10" t="n">
-        <v>1.379631703457562e-05</v>
+        <v>0.0007417388260364532</v>
       </c>
       <c r="BS10" t="n">
-        <v>3.582706995075569e-05</v>
+        <v>0.0003209752903785557</v>
       </c>
       <c r="BT10" t="n">
-        <v>2.231336657132488e-05</v>
+        <v>0.001162799773737788</v>
       </c>
       <c r="BU10" t="n">
-        <v>1.196611628984101e-05</v>
+        <v>0.001080918125808239</v>
       </c>
       <c r="BV10" t="n">
-        <v>4.903976332570892e-06</v>
+        <v>0.005246635060757399</v>
       </c>
       <c r="BW10" t="n">
-        <v>2.33063237828901e-05</v>
+        <v>0.000568276853300631</v>
       </c>
       <c r="BX10" t="n">
-        <v>1.224857624038123e-05</v>
+        <v>0.001242345897480845</v>
       </c>
       <c r="BY10" t="n">
-        <v>2.493272040737793e-05</v>
+        <v>0.0007985786069184542</v>
       </c>
       <c r="BZ10" t="n">
-        <v>7.713290870015044e-06</v>
+        <v>0.002622121712192893</v>
       </c>
       <c r="CA10" t="n">
-        <v>8.60507589095505e-06</v>
+        <v>0.0004301290027797222</v>
       </c>
       <c r="CB10" t="n">
-        <v>1.875994939837256e-06</v>
+        <v>0.0005944870063103735</v>
       </c>
       <c r="CC10" t="n">
-        <v>3.869537977152504e-05</v>
+        <v>0.001097597880288959</v>
       </c>
       <c r="CD10" t="n">
-        <v>6.62129696138436e-06</v>
+        <v>0.0009659213246777654</v>
       </c>
       <c r="CE10" t="n">
-        <v>1.385697305522626e-05</v>
+        <v>0.002306264359503984</v>
       </c>
       <c r="CF10" t="n">
-        <v>1.663323746470269e-05</v>
+        <v>0.0008088935865089297</v>
       </c>
       <c r="CG10" t="n">
-        <v>7.168250704125967e-06</v>
+        <v>0.0006365193985402584</v>
       </c>
       <c r="CH10" t="n">
-        <v>1.239942230313318e-05</v>
+        <v>0.000257469859207049</v>
       </c>
       <c r="CI10" t="n">
-        <v>9.823646905715577e-06</v>
+        <v>0.0009233414311893284</v>
       </c>
       <c r="CJ10" t="n">
-        <v>2.210916363765136e-06</v>
+        <v>0.000438650866271928</v>
       </c>
       <c r="CK10" t="n">
-        <v>9.317995136370882e-06</v>
+        <v>6.353910430334508e-05</v>
       </c>
       <c r="CL10" t="n">
-        <v>1.182735468319152e-05</v>
+        <v>0.0006403637817129493</v>
       </c>
       <c r="CM10" t="n">
-        <v>9.656377187639009e-06</v>
+        <v>0.001370030571706593</v>
       </c>
       <c r="CN10" t="n">
-        <v>3.35099539370276e-05</v>
+        <v>0.0009054911788552999</v>
       </c>
       <c r="CO10" t="n">
-        <v>1.876301212178078e-05</v>
+        <v>0.0006804348086006939</v>
       </c>
       <c r="CP10" t="n">
-        <v>1.132556099037174e-05</v>
+        <v>0.00212943903170526</v>
       </c>
       <c r="CQ10" t="n">
-        <v>1.694045749900397e-06</v>
+        <v>0.001708841184154153</v>
       </c>
       <c r="CR10" t="n">
-        <v>2.03959771170048e-05</v>
+        <v>0.001408012467436492</v>
       </c>
       <c r="CS10" t="n">
-        <v>3.222002305847127e-06</v>
+        <v>0.001316944020800292</v>
       </c>
       <c r="CT10" t="n">
-        <v>1.18153930088738e-05</v>
+        <v>0.001887843012809753</v>
       </c>
       <c r="CU10" t="n">
-        <v>2.288320320076309e-05</v>
+        <v>0.0001538170035928488</v>
       </c>
       <c r="CV10" t="n">
-        <v>6.529238817165606e-06</v>
+        <v>0.0008370402501896024</v>
       </c>
       <c r="CW10" t="n">
-        <v>1.009494371828623e-05</v>
+        <v>0.001817679847590625</v>
       </c>
       <c r="CX10" t="n">
-        <v>1.292268916586181e-05</v>
+        <v>0.0008957850513979793</v>
       </c>
       <c r="CY10" t="n">
-        <v>6.461256816692185e-06</v>
+        <v>0.001285488833673298</v>
       </c>
       <c r="CZ10" t="n">
-        <v>1.944960786204319e-05</v>
+        <v>0.0002313351287739351</v>
       </c>
       <c r="DA10" t="n">
-        <v>8.082209205895197e-06</v>
+        <v>0.001054957741871476</v>
       </c>
       <c r="DB10" t="n">
-        <v>3.807501570918248e-06</v>
+        <v>0.0005000996752642095</v>
       </c>
       <c r="DC10" t="n">
-        <v>9.308203516411595e-06</v>
+        <v>0.0002759420895017684</v>
       </c>
       <c r="DD10" t="n">
-        <v>1.348656678601401e-05</v>
+        <v>0.0004159394302405417</v>
       </c>
       <c r="DE10" t="n">
-        <v>1.875550879049115e-05</v>
+        <v>0.0005317485192790627</v>
       </c>
       <c r="DF10" t="n">
-        <v>2.415746894257609e-05</v>
+        <v>0.002422602847218513</v>
       </c>
       <c r="DG10" t="n">
-        <v>2.380177829763852e-05</v>
+        <v>0.0004098354838788509</v>
       </c>
       <c r="DH10" t="n">
-        <v>2.476482768543065e-05</v>
+        <v>0.002324564149603248</v>
       </c>
       <c r="DI10" t="n">
-        <v>1.778246223693714e-05</v>
+        <v>0.001178796519525349</v>
       </c>
       <c r="DJ10" t="n">
-        <v>1.460792645957554e-05</v>
+        <v>0.0007053727749735117</v>
       </c>
       <c r="DK10" t="n">
-        <v>2.354299977014307e-05</v>
+        <v>0.000986302737146616</v>
       </c>
       <c r="DL10" t="n">
-        <v>1.199472649204836e-06</v>
+        <v>6.546624354086816e-05</v>
       </c>
       <c r="DM10" t="n">
-        <v>1.901477298815735e-05</v>
+        <v>0.0005007737781852484</v>
       </c>
       <c r="DN10" t="n">
-        <v>7.265250133059453e-06</v>
+        <v>0.001509521389380097</v>
       </c>
       <c r="DO10" t="n">
-        <v>8.716356205695774e-06</v>
+        <v>0.0005444263806566596</v>
       </c>
       <c r="DP10" t="n">
-        <v>1.734342004056089e-05</v>
+        <v>0.0007108664140105247</v>
       </c>
       <c r="DQ10" t="n">
-        <v>8.357905244338326e-06</v>
+        <v>0.000860944390296936</v>
       </c>
       <c r="DR10" t="n">
-        <v>3.938457666663453e-07</v>
+        <v>0.0004192912019789219</v>
       </c>
       <c r="DS10" t="n">
-        <v>1.236559364770073e-05</v>
+        <v>0.001731344847939909</v>
       </c>
       <c r="DT10" t="n">
-        <v>4.1320586205984e-06</v>
+        <v>0.0002688479726202786</v>
       </c>
       <c r="DU10" t="n">
-        <v>3.961232323490549e-06</v>
+        <v>0.0001919934729812667</v>
       </c>
       <c r="DV10" t="n">
-        <v>1.854784932220355e-05</v>
+        <v>0.0008157828124240041</v>
       </c>
       <c r="DW10" t="n">
-        <v>4.047071797685931e-06</v>
+        <v>0.001050679013133049</v>
       </c>
       <c r="DX10" t="n">
-        <v>3.587751962186303e-07</v>
+        <v>0.0002125182072632015</v>
       </c>
       <c r="DY10" t="n">
-        <v>7.435316547343973e-06</v>
+        <v>0.002194623230025172</v>
       </c>
       <c r="DZ10" t="n">
-        <v>4.72154079034226e-06</v>
+        <v>0.0006410358473658562</v>
       </c>
       <c r="EA10" t="n">
-        <v>1.173667988041416e-05</v>
+        <v>0.001633315696381032</v>
       </c>
       <c r="EB10" t="n">
-        <v>1.191926094179507e-05</v>
+        <v>0.0007542766397818923</v>
       </c>
       <c r="EC10" t="n">
-        <v>6.052245225873776e-06</v>
+        <v>0.000189992890227586</v>
       </c>
       <c r="ED10" t="n">
-        <v>2.178735303459689e-05</v>
+        <v>3.259658114984632e-06</v>
       </c>
       <c r="EE10" t="n">
-        <v>2.642295157784247e-06</v>
+        <v>0.0002068182366201654</v>
       </c>
       <c r="EF10" t="n">
-        <v>1.289657757297391e-05</v>
+        <v>0.0001255102106370032</v>
       </c>
       <c r="EG10" t="n">
-        <v>2.090310226776637e-05</v>
+        <v>0.001141970977187157</v>
       </c>
       <c r="EH10" t="n">
-        <v>1.022034030029317e-05</v>
+        <v>2.867618968593888e-05</v>
       </c>
       <c r="EI10" t="n">
-        <v>2.418303438389557e-06</v>
+        <v>0.0003948452649638057</v>
       </c>
       <c r="EJ10" t="n">
-        <v>3.085324351559393e-06</v>
+        <v>0.000499697751365602</v>
       </c>
       <c r="EK10" t="n">
-        <v>6.850652880530106e-06</v>
+        <v>0.0008182554738596082</v>
       </c>
       <c r="EL10" t="n">
-        <v>3.919607479474507e-06</v>
+        <v>0.0006577889434993267</v>
       </c>
       <c r="EM10" t="n">
-        <v>1.247631371370517e-05</v>
+        <v>0.0004471599240787327</v>
       </c>
       <c r="EN10" t="n">
-        <v>4.341174189903541e-06</v>
+        <v>3.706825373228639e-05</v>
       </c>
       <c r="EO10" t="n">
-        <v>1.616890403965954e-05</v>
+        <v>0.000598739308770746</v>
       </c>
       <c r="EP10" t="n">
-        <v>3.04524792227312e-06</v>
+        <v>0.001559531898237765</v>
       </c>
       <c r="EQ10" t="n">
-        <v>1.25737460621167e-05</v>
+        <v>7.718201959505677e-05</v>
       </c>
       <c r="ER10" t="n">
-        <v>1.703063389868475e-05</v>
+        <v>0.00116948108188808</v>
       </c>
       <c r="ES10" t="n">
-        <v>8.067250746535137e-06</v>
+        <v>0.001123618800193071</v>
       </c>
       <c r="ET10" t="n">
-        <v>6.146856321720406e-07</v>
+        <v>0.00388415134511888</v>
       </c>
       <c r="EU10" t="n">
-        <v>1.205811349791475e-05</v>
+        <v>0.00141841359436512</v>
       </c>
       <c r="EV10" t="n">
-        <v>6.251322247408098e-06</v>
+        <v>0.001490135909989476</v>
       </c>
       <c r="EW10" t="n">
-        <v>2.225003481726162e-05</v>
+        <v>3.431868390180171e-05</v>
       </c>
       <c r="EX10" t="n">
-        <v>4.572296802507481e-06</v>
+        <v>0.0006956133292987943</v>
       </c>
       <c r="EY10" t="n">
-        <v>1.170148971141316e-05</v>
+        <v>0.001912032254040241</v>
       </c>
       <c r="EZ10" t="n">
-        <v>1.435324338672217e-05</v>
+        <v>0.0003805104061029851</v>
       </c>
       <c r="FA10" t="n">
-        <v>5.426009010989219e-06</v>
+        <v>0.0009888635249808431</v>
       </c>
       <c r="FB10" t="n">
-        <v>9.137345841736533e-06</v>
+        <v>0.0001799847523216158</v>
       </c>
       <c r="FC10" t="n">
-        <v>6.831362952652853e-06</v>
+        <v>0.001199088990688324</v>
       </c>
       <c r="FD10" t="n">
-        <v>3.813179318967741e-06</v>
+        <v>0.0007122026290744543</v>
       </c>
       <c r="FE10" t="n">
-        <v>1.151322885561967e-05</v>
+        <v>0.0002844068803824484</v>
       </c>
       <c r="FF10" t="n">
-        <v>1.847616658778861e-05</v>
+        <v>0.0006799941183999181</v>
       </c>
       <c r="FG10" t="n">
-        <v>4.274334969522897e-06</v>
+        <v>0.0004561006790027022</v>
       </c>
       <c r="FH10" t="n">
-        <v>1.944335963344201e-07</v>
+        <v>0.0009908236097544432</v>
       </c>
       <c r="FI10" t="n">
-        <v>1.037060246744659e-05</v>
+        <v>0.000479314912809059</v>
       </c>
       <c r="FJ10" t="n">
-        <v>1.175282704934943e-06</v>
+        <v>0.001034591579809785</v>
       </c>
       <c r="FK10" t="n">
-        <v>1.175851684820373e-05</v>
+        <v>0.0002550029021222144</v>
       </c>
       <c r="FL10" t="n">
-        <v>6.669495178357465e-06</v>
+        <v>0.0004283006128389388</v>
       </c>
       <c r="FM10" t="n">
-        <v>7.362289579759818e-06</v>
+        <v>0.0002088173641823232</v>
       </c>
       <c r="FN10" t="n">
-        <v>2.802419658110011e-06</v>
+        <v>0.0007410898106172681</v>
       </c>
       <c r="FO10" t="n">
-        <v>2.133223642886151e-05</v>
+        <v>0.00103696237783879</v>
       </c>
       <c r="FP10" t="n">
-        <v>1.396336983816582e-06</v>
+        <v>9.649818821344525e-05</v>
       </c>
       <c r="FQ10" t="n">
-        <v>2.583727109595202e-05</v>
+        <v>0.0002313547010999173</v>
       </c>
       <c r="FR10" t="n">
-        <v>1.109579716285225e-05</v>
+        <v>0.0001796807628124952</v>
       </c>
       <c r="FS10" t="n">
-        <v>1.768816400726791e-05</v>
+        <v>0.001821353333070874</v>
       </c>
       <c r="FT10" t="n">
-        <v>8.533204891136847e-06</v>
+        <v>0.002624703338369727</v>
       </c>
       <c r="FU10" t="n">
-        <v>4.537609129329212e-06</v>
+        <v>0.0002472455380484462</v>
       </c>
       <c r="FV10" t="n">
-        <v>8.498710485582706e-06</v>
+        <v>0.0005524469306692481</v>
       </c>
       <c r="FW10" t="n">
-        <v>1.685405550233554e-06</v>
+        <v>1.91986036952585e-05</v>
       </c>
       <c r="FX10" t="n">
-        <v>1.066605454980163e-05</v>
+        <v>0.0008191208471544087</v>
       </c>
       <c r="FY10" t="n">
-        <v>1.459374107071199e-05</v>
+        <v>0.001609802711755037</v>
       </c>
       <c r="FZ10" t="n">
-        <v>1.096189225791022e-05</v>
+        <v>0.0008283447241410613</v>
       </c>
       <c r="GA10" t="n">
-        <v>6.465796104748733e-06</v>
+        <v>0.0005268871900625527</v>
       </c>
       <c r="GB10" t="n">
-        <v>2.301877975696698e-05</v>
+        <v>0.0004977807984687388</v>
       </c>
       <c r="GC10" t="n">
-        <v>5.362890078686178e-06</v>
+        <v>0.001259933807887137</v>
       </c>
       <c r="GD10" t="n">
-        <v>2.152045817638282e-05</v>
+        <v>0.001560396631248295</v>
       </c>
       <c r="GE10" t="n">
-        <v>1.634417822060641e-05</v>
+        <v>0.003849797882139683</v>
       </c>
       <c r="GF10" t="n">
-        <v>2.493805368430912e-05</v>
+        <v>0.000225533454795368</v>
       </c>
       <c r="GG10" t="n">
-        <v>1.466772346248035e-06</v>
+        <v>0.0006007895572111011</v>
       </c>
     </row>
     <row r="11">
@@ -6694,2278 +6694,2278 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>3.633836058725137e-07</v>
+        <v>1.319558906587304e-09</v>
       </c>
       <c r="B12" t="n">
-        <v>4.564601141510138e-08</v>
+        <v>3.951070581820204e-09</v>
       </c>
       <c r="C12" t="n">
-        <v>6.610341642954154e-07</v>
+        <v>1.09488573762917e-09</v>
       </c>
       <c r="D12" t="n">
-        <v>3.150594523049222e-07</v>
+        <v>1.025312279523405e-08</v>
       </c>
       <c r="E12" t="n">
-        <v>8.880083441908937e-07</v>
+        <v>9.077033569226955e-10</v>
       </c>
       <c r="F12" t="n">
-        <v>1.36422769969613e-07</v>
+        <v>5.826298332678448e-10</v>
       </c>
       <c r="G12" t="n">
-        <v>1.742681092764542e-07</v>
+        <v>7.482339192677046e-10</v>
       </c>
       <c r="H12" t="n">
-        <v>3.371094692283805e-08</v>
+        <v>2.60656662920411e-10</v>
       </c>
       <c r="I12" t="n">
-        <v>6.964030490053119e-07</v>
+        <v>9.959757463207097e-10</v>
       </c>
       <c r="J12" t="n">
-        <v>4.383881702096915e-08</v>
+        <v>2.005108523661647e-09</v>
       </c>
       <c r="K12" t="n">
-        <v>1.562708433766602e-07</v>
+        <v>4.453281743366233e-09</v>
       </c>
       <c r="L12" t="n">
-        <v>7.352125521720154e-07</v>
+        <v>6.959791076788235e-10</v>
       </c>
       <c r="M12" t="n">
-        <v>1.803658165044908e-07</v>
+        <v>3.591851482909192e-09</v>
       </c>
       <c r="N12" t="n">
-        <v>6.818151518928062e-07</v>
+        <v>1.053924725269439e-10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.57998570671225e-07</v>
+        <v>2.1969968067026e-09</v>
       </c>
       <c r="P12" t="n">
-        <v>1.092867805141395e-07</v>
+        <v>2.444937030610106e-10</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.444503254788287e-07</v>
+        <v>3.774148105151198e-09</v>
       </c>
       <c r="R12" t="n">
-        <v>7.510708996960602e-07</v>
+        <v>1.027251395058215e-09</v>
       </c>
       <c r="S12" t="n">
-        <v>6.116712825132709e-08</v>
+        <v>4.906549611050082e-10</v>
       </c>
       <c r="T12" t="n">
-        <v>2.79025556437773e-07</v>
+        <v>3.290278605128094e-10</v>
       </c>
       <c r="U12" t="n">
-        <v>2.091163509021499e-08</v>
+        <v>1.141951644356709e-09</v>
       </c>
       <c r="V12" t="n">
-        <v>2.918637278526148e-07</v>
+        <v>3.160267603163902e-10</v>
       </c>
       <c r="W12" t="n">
-        <v>1.600676284851943e-07</v>
+        <v>2.369727303275226e-09</v>
       </c>
       <c r="X12" t="n">
-        <v>7.491848208474039e-08</v>
+        <v>2.821073930014961e-10</v>
       </c>
       <c r="Y12" t="n">
-        <v>6.609994329664914e-09</v>
+        <v>3.518098257160318e-09</v>
       </c>
       <c r="Z12" t="n">
-        <v>1.392708242065055e-07</v>
+        <v>4.584714274891155e-10</v>
       </c>
       <c r="AA12" t="n">
-        <v>2.107759797809194e-07</v>
+        <v>2.213177863197302e-09</v>
       </c>
       <c r="AB12" t="n">
-        <v>1.720908926472475e-08</v>
+        <v>1.088322543196796e-09</v>
       </c>
       <c r="AC12" t="n">
-        <v>2.076644705084618e-07</v>
+        <v>2.093218709475764e-09</v>
       </c>
       <c r="AD12" t="n">
-        <v>6.044681555295028e-08</v>
+        <v>2.19467582995847e-10</v>
       </c>
       <c r="AE12" t="n">
-        <v>1.122931863051235e-07</v>
+        <v>2.053991865480498e-09</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.114466610692034e-07</v>
+        <v>9.168538706028073e-10</v>
       </c>
       <c r="AG12" t="n">
-        <v>1.304398438151111e-07</v>
+        <v>2.764638962204913e-09</v>
       </c>
       <c r="AH12" t="n">
-        <v>3.523167890762124e-08</v>
+        <v>1.478707378765876e-09</v>
       </c>
       <c r="AI12" t="n">
-        <v>3.195065971794975e-07</v>
+        <v>1.2073153587977e-09</v>
       </c>
       <c r="AJ12" t="n">
-        <v>3.372686308011907e-07</v>
+        <v>1.681367933770161e-09</v>
       </c>
       <c r="AK12" t="n">
-        <v>9.309464132911671e-08</v>
+        <v>6.367081306635214e-10</v>
       </c>
       <c r="AL12" t="n">
-        <v>3.209459009667626e-07</v>
+        <v>1.279713002233507e-09</v>
       </c>
       <c r="AM12" t="n">
-        <v>5.346569409425683e-09</v>
+        <v>5.36162447772881e-10</v>
       </c>
       <c r="AN12" t="n">
-        <v>1.470759514177189e-07</v>
+        <v>1.227199009079527e-09</v>
       </c>
       <c r="AO12" t="n">
-        <v>2.108498975417206e-08</v>
+        <v>2.64537391991837e-09</v>
       </c>
       <c r="AP12" t="n">
-        <v>3.174592109189689e-07</v>
+        <v>1.041311481486673e-09</v>
       </c>
       <c r="AQ12" t="n">
-        <v>3.444780460881702e-08</v>
+        <v>1.726067400120712e-09</v>
       </c>
       <c r="AR12" t="n">
-        <v>3.183155128372306e-10</v>
+        <v>1.089407675181064e-09</v>
       </c>
       <c r="AS12" t="n">
-        <v>4.32695053120824e-08</v>
+        <v>1.109017544465019e-09</v>
       </c>
       <c r="AT12" t="n">
-        <v>2.32782525699804e-07</v>
+        <v>5.190281537892361e-11</v>
       </c>
       <c r="AU12" t="n">
-        <v>2.837040540271119e-07</v>
+        <v>1.531387905373549e-09</v>
       </c>
       <c r="AV12" t="n">
-        <v>4.508430606620095e-07</v>
+        <v>1.364726942565397e-10</v>
       </c>
       <c r="AW12" t="n">
-        <v>2.591105499050173e-07</v>
+        <v>4.139854681284305e-09</v>
       </c>
       <c r="AX12" t="n">
-        <v>2.330860837673754e-07</v>
+        <v>1.608756461379812e-09</v>
       </c>
       <c r="AY12" t="n">
-        <v>3.894022597705771e-07</v>
+        <v>2.30257979350057e-10</v>
       </c>
       <c r="AZ12" t="n">
-        <v>1.13820064484571e-09</v>
+        <v>1.92030347179184e-09</v>
       </c>
       <c r="BA12" t="n">
-        <v>1.456407119349024e-07</v>
+        <v>2.453757752540753e-10</v>
       </c>
       <c r="BB12" t="n">
-        <v>3.177877658799844e-07</v>
+        <v>2.377926300312083e-09</v>
       </c>
       <c r="BC12" t="n">
-        <v>7.34840384097879e-08</v>
+        <v>1.295981766347154e-09</v>
       </c>
       <c r="BD12" t="n">
-        <v>1.470916259904698e-07</v>
+        <v>8.549772001487099e-12</v>
       </c>
       <c r="BE12" t="n">
-        <v>3.226412559342862e-07</v>
+        <v>1.080777897732865e-10</v>
       </c>
       <c r="BF12" t="n">
-        <v>8.141955021301328e-08</v>
+        <v>2.161149037505083e-10</v>
       </c>
       <c r="BG12" t="n">
-        <v>1.96625123294325e-07</v>
+        <v>7.954592540215799e-10</v>
       </c>
       <c r="BH12" t="n">
-        <v>1.808087688459636e-07</v>
+        <v>3.170800288998521e-10</v>
       </c>
       <c r="BI12" t="n">
-        <v>1.714050910095466e-07</v>
+        <v>4.95463392535811e-10</v>
       </c>
       <c r="BJ12" t="n">
-        <v>1.427473961257419e-07</v>
+        <v>4.384244522981362e-09</v>
       </c>
       <c r="BK12" t="n">
-        <v>2.660471309923196e-08</v>
+        <v>5.874222219759417e-10</v>
       </c>
       <c r="BL12" t="n">
-        <v>5.775532940788253e-09</v>
+        <v>1.083924838773953e-09</v>
       </c>
       <c r="BM12" t="n">
-        <v>4.222273020104694e-08</v>
+        <v>8.528140416075303e-10</v>
       </c>
       <c r="BN12" t="n">
-        <v>2.804188170557609e-07</v>
+        <v>8.484544733455834e-10</v>
       </c>
       <c r="BO12" t="n">
-        <v>1.496262598266185e-07</v>
+        <v>3.800957881772149e-10</v>
       </c>
       <c r="BP12" t="n">
-        <v>3.139192727985574e-08</v>
+        <v>1.399411031499653e-09</v>
       </c>
       <c r="BQ12" t="n">
-        <v>9.485218299687403e-08</v>
+        <v>1.515916392413885e-09</v>
       </c>
       <c r="BR12" t="n">
-        <v>1.553039084001284e-07</v>
+        <v>3.558897065936151e-10</v>
       </c>
       <c r="BS12" t="n">
-        <v>2.544950632454857e-07</v>
+        <v>2.441114532736322e-10</v>
       </c>
       <c r="BT12" t="n">
-        <v>1.922325907344202e-07</v>
+        <v>1.381049719029193e-10</v>
       </c>
       <c r="BU12" t="n">
-        <v>1.525550885617122e-07</v>
+        <v>1.526619941571994e-10</v>
       </c>
       <c r="BV12" t="n">
-        <v>3.081763111367763e-08</v>
+        <v>1.348519296229256e-09</v>
       </c>
       <c r="BW12" t="n">
-        <v>2.199794124635446e-08</v>
+        <v>9.486182672713284e-11</v>
       </c>
       <c r="BX12" t="n">
-        <v>1.794666673049505e-07</v>
+        <v>1.497741708433864e-09</v>
       </c>
       <c r="BY12" t="n">
-        <v>4.405266622597992e-07</v>
+        <v>3.765567579971929e-10</v>
       </c>
       <c r="BZ12" t="n">
-        <v>4.508785877987975e-08</v>
+        <v>6.148479503309545e-10</v>
       </c>
       <c r="CA12" t="n">
-        <v>1.340757727064101e-09</v>
+        <v>1.118429016067068e-09</v>
       </c>
       <c r="CB12" t="n">
-        <v>2.09275370366413e-08</v>
+        <v>5.301850070082992e-10</v>
       </c>
       <c r="CC12" t="n">
-        <v>4.097598207408737e-07</v>
+        <v>2.471033822004642e-09</v>
       </c>
       <c r="CD12" t="n">
-        <v>2.738816995417892e-08</v>
+        <v>1.419840633953839e-10</v>
       </c>
       <c r="CE12" t="n">
-        <v>2.013857596239177e-07</v>
+        <v>7.061222717652527e-10</v>
       </c>
       <c r="CF12" t="n">
-        <v>1.214187079767726e-07</v>
+        <v>9.398999356591276e-10</v>
       </c>
       <c r="CG12" t="n">
-        <v>1.719950759593303e-08</v>
+        <v>1.101418733995274e-09</v>
       </c>
       <c r="CH12" t="n">
-        <v>1.744297009054208e-07</v>
+        <v>6.051885659275058e-10</v>
       </c>
       <c r="CI12" t="n">
-        <v>1.041273378632468e-07</v>
+        <v>3.792310215855466e-11</v>
       </c>
       <c r="CJ12" t="n">
-        <v>2.028271595122533e-08</v>
+        <v>9.62772750412455e-10</v>
       </c>
       <c r="CK12" t="n">
-        <v>1.913643288276035e-08</v>
+        <v>2.732200854449474e-10</v>
       </c>
       <c r="CL12" t="n">
-        <v>8.032191090023844e-08</v>
+        <v>1.327768117675987e-09</v>
       </c>
       <c r="CM12" t="n">
-        <v>1.70933532217532e-07</v>
+        <v>5.795421920140598e-10</v>
       </c>
       <c r="CN12" t="n">
-        <v>5.636990181301371e-07</v>
+        <v>1.214816691685883e-09</v>
       </c>
       <c r="CO12" t="n">
-        <v>1.381993826043981e-07</v>
+        <v>4.639841288955893e-10</v>
       </c>
       <c r="CP12" t="n">
-        <v>3.516551672078094e-08</v>
+        <v>3.412062410390604e-09</v>
       </c>
       <c r="CQ12" t="n">
-        <v>8.260150252681342e-08</v>
+        <v>2.952019517721283e-09</v>
       </c>
       <c r="CR12" t="n">
-        <v>6.35251780067847e-08</v>
+        <v>1.138133032263511e-09</v>
       </c>
       <c r="CS12" t="n">
-        <v>6.707797695071349e-08</v>
+        <v>2.47764719851773e-09</v>
       </c>
       <c r="CT12" t="n">
-        <v>5.979286044066612e-08</v>
+        <v>4.033753775445348e-09</v>
       </c>
       <c r="CU12" t="n">
-        <v>2.571203765455721e-07</v>
+        <v>3.457186203981166e-10</v>
       </c>
       <c r="CV12" t="n">
-        <v>1.353668821479914e-08</v>
+        <v>2.658268327682123e-10</v>
       </c>
       <c r="CW12" t="n">
-        <v>1.873479646974374e-07</v>
+        <v>8.341017876389856e-10</v>
       </c>
       <c r="CX12" t="n">
-        <v>1.307034409592234e-07</v>
+        <v>3.932965342290373e-10</v>
       </c>
       <c r="CY12" t="n">
-        <v>1.920852454873057e-08</v>
+        <v>1.893132095531769e-09</v>
       </c>
       <c r="CZ12" t="n">
-        <v>2.567794865626638e-07</v>
+        <v>5.368168687347463e-10</v>
       </c>
       <c r="DA12" t="n">
-        <v>1.012939350175657e-07</v>
+        <v>4.933639607962448e-10</v>
       </c>
       <c r="DB12" t="n">
-        <v>1.894299828109069e-09</v>
+        <v>9.661332844856929e-10</v>
       </c>
       <c r="DC12" t="n">
-        <v>2.167354073989713e-09</v>
+        <v>4.753085702802196e-10</v>
       </c>
       <c r="DD12" t="n">
-        <v>1.269273326442999e-07</v>
+        <v>1.034635821461904e-09</v>
       </c>
       <c r="DE12" t="n">
-        <v>2.08427053394189e-07</v>
+        <v>1.524478321357492e-10</v>
       </c>
       <c r="DF12" t="n">
-        <v>4.021138977350347e-07</v>
+        <v>1.845815833512177e-09</v>
       </c>
       <c r="DG12" t="n">
-        <v>3.481314934106194e-07</v>
+        <v>4.084925286917951e-09</v>
       </c>
       <c r="DH12" t="n">
-        <v>1.984778350561101e-07</v>
+        <v>9.183732885276186e-09</v>
       </c>
       <c r="DI12" t="n">
-        <v>1.198979902028441e-07</v>
+        <v>2.066099735742455e-09</v>
       </c>
       <c r="DJ12" t="n">
-        <v>1.58118126591944e-07</v>
+        <v>7.519351807871999e-11</v>
       </c>
       <c r="DK12" t="n">
-        <v>1.721236912999302e-07</v>
+        <v>7.235645416159286e-10</v>
       </c>
       <c r="DL12" t="n">
-        <v>9.223486863163544e-09</v>
+        <v>5.347310594316923e-09</v>
       </c>
       <c r="DM12" t="n">
-        <v>1.109157921064252e-07</v>
+        <v>4.932033670357328e-10</v>
       </c>
       <c r="DN12" t="n">
-        <v>1.151727957449111e-07</v>
+        <v>8.523863281872934e-10</v>
       </c>
       <c r="DO12" t="n">
-        <v>2.030296144539534e-07</v>
+        <v>4.038603063083457e-10</v>
       </c>
       <c r="DP12" t="n">
-        <v>1.94555553889586e-07</v>
+        <v>1.208098177052364e-09</v>
       </c>
       <c r="DQ12" t="n">
-        <v>1.106698448438692e-07</v>
+        <v>7.398853751894308e-10</v>
       </c>
       <c r="DR12" t="n">
-        <v>1.21297123456543e-08</v>
+        <v>9.531184730349196e-10</v>
       </c>
       <c r="DS12" t="n">
-        <v>3.88803584883135e-08</v>
+        <v>1.077156253082023e-09</v>
       </c>
       <c r="DT12" t="n">
-        <v>4.302930989297238e-08</v>
+        <v>5.69979285991451e-10</v>
       </c>
       <c r="DU12" t="n">
-        <v>8.990507183170848e-08</v>
+        <v>1.222376783127643e-10</v>
       </c>
       <c r="DV12" t="n">
-        <v>1.679144219224327e-07</v>
+        <v>2.991319192346964e-09</v>
       </c>
       <c r="DW12" t="n">
-        <v>2.228256157366104e-08</v>
+        <v>1.436892160810999e-09</v>
       </c>
       <c r="DX12" t="n">
-        <v>2.340844673653919e-08</v>
+        <v>1.074235839171322e-11</v>
       </c>
       <c r="DY12" t="n">
-        <v>3.160140238378517e-08</v>
+        <v>1.640787727907878e-09</v>
       </c>
       <c r="DZ12" t="n">
-        <v>3.058803343947147e-08</v>
+        <v>3.102821888312235e-10</v>
       </c>
       <c r="EA12" t="n">
-        <v>2.397549110355612e-07</v>
+        <v>1.081889355880605e-09</v>
       </c>
       <c r="EB12" t="n">
-        <v>4.451484869605338e-08</v>
+        <v>2.267050547288818e-09</v>
       </c>
       <c r="EC12" t="n">
-        <v>4.470013692525754e-08</v>
+        <v>1.445991548720826e-09</v>
       </c>
       <c r="ED12" t="n">
-        <v>1.278433217066777e-07</v>
+        <v>1.362941842719678e-10</v>
       </c>
       <c r="EE12" t="n">
-        <v>3.111311741577083e-08</v>
+        <v>3.820575800173032e-11</v>
       </c>
       <c r="EF12" t="n">
-        <v>9.93717321762233e-08</v>
+        <v>1.244732095173617e-10</v>
       </c>
       <c r="EG12" t="n">
-        <v>3.002145092523278e-07</v>
+        <v>1.012489758700497e-09</v>
       </c>
       <c r="EH12" t="n">
-        <v>8.543322849163815e-08</v>
+        <v>4.655248686535884e-10</v>
       </c>
       <c r="EI12" t="n">
-        <v>1.045961397494466e-07</v>
+        <v>6.865044643866725e-10</v>
       </c>
       <c r="EJ12" t="n">
-        <v>1.204649322517071e-07</v>
+        <v>8.218938862825098e-10</v>
       </c>
       <c r="EK12" t="n">
-        <v>2.237325418263936e-07</v>
+        <v>5.2598245203761e-11</v>
       </c>
       <c r="EL12" t="n">
-        <v>8.332314394010609e-09</v>
+        <v>8.924876948590565e-10</v>
       </c>
       <c r="EM12" t="n">
-        <v>9.302604553340643e-08</v>
+        <v>5.182141382675809e-10</v>
       </c>
       <c r="EN12" t="n">
-        <v>9.625738073282264e-08</v>
+        <v>9.16259457195423e-10</v>
       </c>
       <c r="EO12" t="n">
-        <v>1.102352911175331e-07</v>
+        <v>4.29179691785464e-10</v>
       </c>
       <c r="EP12" t="n">
-        <v>5.88640745036173e-08</v>
+        <v>7.402602419936954e-10</v>
       </c>
       <c r="EQ12" t="n">
-        <v>1.246709331326201e-07</v>
+        <v>1.381282421775154e-09</v>
       </c>
       <c r="ER12" t="n">
-        <v>6.672438246368984e-08</v>
+        <v>4.569697398260075e-10</v>
       </c>
       <c r="ES12" t="n">
-        <v>8.276087370973073e-09</v>
+        <v>2.985644398378895e-09</v>
       </c>
       <c r="ET12" t="n">
-        <v>2.052959757747885e-08</v>
+        <v>1.362627344292378e-09</v>
       </c>
       <c r="EU12" t="n">
-        <v>1.105269404888531e-07</v>
+        <v>1.615247935404795e-10</v>
       </c>
       <c r="EV12" t="n">
-        <v>8.526176742407188e-08</v>
+        <v>2.127717335653756e-09</v>
       </c>
       <c r="EW12" t="n">
-        <v>1.45411945595697e-07</v>
+        <v>4.434274614162348e-10</v>
       </c>
       <c r="EX12" t="n">
-        <v>7.271943047726381e-10</v>
+        <v>2.029603707320859e-10</v>
       </c>
       <c r="EY12" t="n">
-        <v>1.790333072904104e-07</v>
+        <v>6.730798141063588e-10</v>
       </c>
       <c r="EZ12" t="n">
-        <v>1.27379053083132e-07</v>
+        <v>6.922619144589248e-10</v>
       </c>
       <c r="FA12" t="n">
-        <v>1.512591119023909e-08</v>
+        <v>1.387412518205622e-09</v>
       </c>
       <c r="FB12" t="n">
-        <v>1.55879902763445e-07</v>
+        <v>4.040953682782344e-10</v>
       </c>
       <c r="FC12" t="n">
-        <v>7.98749510977359e-08</v>
+        <v>3.10028114292038e-10</v>
       </c>
       <c r="FD12" t="n">
-        <v>4.725361435475861e-09</v>
+        <v>8.995399980449292e-10</v>
       </c>
       <c r="FE12" t="n">
-        <v>1.616078471045057e-08</v>
+        <v>1.885159667258662e-10</v>
       </c>
       <c r="FF12" t="n">
-        <v>1.750115075083158e-07</v>
+        <v>1.317256415056534e-09</v>
       </c>
       <c r="FG12" t="n">
-        <v>6.518682482692384e-08</v>
+        <v>6.536772234611021e-10</v>
       </c>
       <c r="FH12" t="n">
-        <v>4.723793267658039e-08</v>
+        <v>9.883489582307448e-10</v>
       </c>
       <c r="FI12" t="n">
-        <v>9.016966373565083e-08</v>
+        <v>2.328810477791876e-09</v>
       </c>
       <c r="FJ12" t="n">
-        <v>7.239165000783032e-08</v>
+        <v>3.176383378544756e-09</v>
       </c>
       <c r="FK12" t="n">
-        <v>2.226916251402145e-07</v>
+        <v>2.032780166416615e-09</v>
       </c>
       <c r="FL12" t="n">
-        <v>1.018509898642606e-08</v>
+        <v>4.026260158607187e-10</v>
       </c>
       <c r="FM12" t="n">
-        <v>6.630583015976299e-08</v>
+        <v>1.991428577596821e-09</v>
       </c>
       <c r="FN12" t="n">
-        <v>1.675973635428818e-07</v>
+        <v>9.538700940225908e-10</v>
       </c>
       <c r="FO12" t="n">
-        <v>1.771688573626307e-07</v>
+        <v>5.78276038165626e-11</v>
       </c>
       <c r="FP12" t="n">
-        <v>6.141677033610904e-08</v>
+        <v>4.230771288860069e-11</v>
       </c>
       <c r="FQ12" t="n">
-        <v>3.226906741815583e-08</v>
+        <v>2.453477421227035e-10</v>
       </c>
       <c r="FR12" t="n">
-        <v>5.377696510322494e-08</v>
+        <v>3.169335627273284e-11</v>
       </c>
       <c r="FS12" t="n">
-        <v>1.074744773177372e-07</v>
+        <v>8.813930696405237e-10</v>
       </c>
       <c r="FT12" t="n">
-        <v>3.825047372174595e-07</v>
+        <v>7.162385129433346e-10</v>
       </c>
       <c r="FU12" t="n">
-        <v>2.817573729885225e-08</v>
+        <v>1.471526511753751e-10</v>
       </c>
       <c r="FV12" t="n">
-        <v>4.673485065609384e-08</v>
+        <v>3.494945721715936e-10</v>
       </c>
       <c r="FW12" t="n">
-        <v>4.49618440256927e-08</v>
+        <v>1.269964466921181e-09</v>
       </c>
       <c r="FX12" t="n">
-        <v>8.404929019434348e-08</v>
+        <v>4.806469111606759e-10</v>
       </c>
       <c r="FY12" t="n">
-        <v>1.092569874572291e-07</v>
+        <v>1.572847629915941e-09</v>
       </c>
       <c r="FZ12" t="n">
-        <v>3.028895889656269e-08</v>
+        <v>1.459186105279286e-09</v>
       </c>
       <c r="GA12" t="n">
-        <v>1.41097018513392e-07</v>
+        <v>3.414476756891105e-10</v>
       </c>
       <c r="GB12" t="n">
-        <v>1.646162246515814e-07</v>
+        <v>3.366962264550466e-10</v>
       </c>
       <c r="GC12" t="n">
-        <v>5.847410022852273e-08</v>
+        <v>1.507874936024223e-09</v>
       </c>
       <c r="GD12" t="n">
-        <v>2.328742993995547e-07</v>
+        <v>3.847150376046216e-10</v>
       </c>
       <c r="GE12" t="n">
-        <v>7.209570185295888e-08</v>
+        <v>3.982739471553032e-09</v>
       </c>
       <c r="GF12" t="n">
-        <v>1.586285236498952e-07</v>
+        <v>3.526330338843309e-10</v>
       </c>
       <c r="GG12" t="n">
-        <v>2.400715537476117e-08</v>
+        <v>2.35501262935145e-09</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.009195979684591293</v>
+        <v>0.0008902053814381361</v>
       </c>
       <c r="B13" t="n">
-        <v>0.02801171503961086</v>
+        <v>0.003755029989406466</v>
       </c>
       <c r="C13" t="n">
-        <v>0.00483151338994503</v>
+        <v>0.0001723830500850454</v>
       </c>
       <c r="D13" t="n">
-        <v>0.03577060997486115</v>
+        <v>0.001589183695614338</v>
       </c>
       <c r="E13" t="n">
-        <v>0.006461839191615582</v>
+        <v>1.938369678100571e-06</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0078708715736866</v>
+        <v>0.003010905580595136</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01023373194038868</v>
+        <v>0.0002818851498886943</v>
       </c>
       <c r="H13" t="n">
-        <v>0.003738208208233118</v>
+        <v>0.0003827195905614644</v>
       </c>
       <c r="I13" t="n">
-        <v>0.03606151044368744</v>
+        <v>6.599599873879924e-05</v>
       </c>
       <c r="J13" t="n">
-        <v>0.005659135058522224</v>
+        <v>0.001056742039509118</v>
       </c>
       <c r="K13" t="n">
-        <v>0.02288194932043552</v>
+        <v>0.002604118548333645</v>
       </c>
       <c r="L13" t="n">
-        <v>0.01324288453906775</v>
+        <v>0.0002525466261431575</v>
       </c>
       <c r="M13" t="n">
-        <v>0.02880944311618805</v>
+        <v>0.002180068986490369</v>
       </c>
       <c r="N13" t="n">
-        <v>0.01448560133576393</v>
+        <v>0.0006856950931251049</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01771206222474575</v>
+        <v>0.003349031787365675</v>
       </c>
       <c r="P13" t="n">
-        <v>0.006254306063055992</v>
+        <v>0.0005772332660853863</v>
       </c>
       <c r="Q13" t="n">
-        <v>0.0008340324275195599</v>
+        <v>0.0003772941417992115</v>
       </c>
       <c r="R13" t="n">
-        <v>0.04447421059012413</v>
+        <v>7.716471009189263e-05</v>
       </c>
       <c r="S13" t="n">
-        <v>0.006131985224783421</v>
+        <v>0.0001883705117506906</v>
       </c>
       <c r="T13" t="n">
-        <v>0.004442504141479731</v>
+        <v>0.0006398434052243829</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0019697907846421</v>
+        <v>2.155714173568413e-05</v>
       </c>
       <c r="V13" t="n">
-        <v>0.007427815347909927</v>
+        <v>0.0003655183827504516</v>
       </c>
       <c r="W13" t="n">
-        <v>0.02746540866792202</v>
+        <v>0.0002273556601721793</v>
       </c>
       <c r="X13" t="n">
-        <v>0.01006493903696537</v>
+        <v>2.142608354915865e-05</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.004234103485941887</v>
+        <v>0.0002734164008870721</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.004644067957997322</v>
+        <v>6.143434438854456e-05</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.006641231011599302</v>
+        <v>0.0002383860119152814</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.004957941360771656</v>
+        <v>0.0001564402919029817</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.008883727714419365</v>
+        <v>0.0007041977951303124</v>
       </c>
       <c r="AD13" t="n">
-        <v>0.00476562324911356</v>
+        <v>3.712686157086864e-05</v>
       </c>
       <c r="AE13" t="n">
-        <v>0.0001838132739067078</v>
+        <v>0.0004387730732560158</v>
       </c>
       <c r="AF13" t="n">
-        <v>0.01135626994073391</v>
+        <v>1.381723268423229e-05</v>
       </c>
       <c r="AG13" t="n">
-        <v>0.005921311676502228</v>
+        <v>6.052391472621821e-05</v>
       </c>
       <c r="AH13" t="n">
-        <v>0.0002049445611191913</v>
+        <v>0.0005481803673319519</v>
       </c>
       <c r="AI13" t="n">
-        <v>0.006102061364799738</v>
+        <v>0.0001253181835636497</v>
       </c>
       <c r="AJ13" t="n">
-        <v>0.01480304077267647</v>
+        <v>1.657470784266479e-05</v>
       </c>
       <c r="AK13" t="n">
-        <v>0.007832814939320087</v>
+        <v>0.0004520392685662955</v>
       </c>
       <c r="AL13" t="n">
-        <v>0.007266816217452288</v>
+        <v>0.000475212698802352</v>
       </c>
       <c r="AM13" t="n">
-        <v>0.003794736228883266</v>
+        <v>0.0001400327601004392</v>
       </c>
       <c r="AN13" t="n">
-        <v>0.0009391168132424355</v>
+        <v>0.0001666516182012856</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.003574979491531849</v>
+        <v>1.161405089078471e-05</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.01191073469817638</v>
+        <v>0.0007459120242856443</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.004611909855157137</v>
+        <v>0.0003968109667766839</v>
       </c>
       <c r="AR13" t="n">
-        <v>0.005775326862931252</v>
+        <v>8.088204776868224e-05</v>
       </c>
       <c r="AS13" t="n">
-        <v>0.002810228150337934</v>
+        <v>0.000317354773869738</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.002338735852390528</v>
+        <v>0.0007893206202425063</v>
       </c>
       <c r="AU13" t="n">
-        <v>0.008725086227059364</v>
+        <v>0.003358966670930386</v>
       </c>
       <c r="AV13" t="n">
-        <v>0.008753074333071709</v>
+        <v>0.0003382151480764151</v>
       </c>
       <c r="AW13" t="n">
-        <v>0.01650108955800533</v>
+        <v>0.0003010522341355681</v>
       </c>
       <c r="AX13" t="n">
-        <v>0.00429201778024435</v>
+        <v>0.001241870108060539</v>
       </c>
       <c r="AY13" t="n">
-        <v>0.0173356905579567</v>
+        <v>0.001229560468345881</v>
       </c>
       <c r="AZ13" t="n">
-        <v>0.007456370629370213</v>
+        <v>0.0001387727970723063</v>
       </c>
       <c r="BA13" t="n">
-        <v>0.004301015287637711</v>
+        <v>0.0008745180675759912</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.009382817894220352</v>
+        <v>0.0004073645395692438</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.0003220863291062415</v>
+        <v>0.0006749805761501193</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.01279010064899921</v>
+        <v>0.0004697869881056249</v>
       </c>
       <c r="BE13" t="n">
-        <v>0.0005211493698880076</v>
+        <v>0.001034698216244578</v>
       </c>
       <c r="BF13" t="n">
-        <v>0.003343605436384678</v>
+        <v>0.000576743739657104</v>
       </c>
       <c r="BG13" t="n">
-        <v>0.002070670481771231</v>
+        <v>0.00149447307921946</v>
       </c>
       <c r="BH13" t="n">
-        <v>0.005832607392221689</v>
+        <v>0.001438982551917434</v>
       </c>
       <c r="BI13" t="n">
-        <v>0.001378500601276755</v>
+        <v>0.0002392725000390783</v>
       </c>
       <c r="BJ13" t="n">
-        <v>0.002994854003190994</v>
+        <v>0.0008947499445639551</v>
       </c>
       <c r="BK13" t="n">
-        <v>0.01085169427096844</v>
+        <v>5.052432243246585e-05</v>
       </c>
       <c r="BL13" t="n">
-        <v>0.001660971669480205</v>
+        <v>8.14629893284291e-05</v>
       </c>
       <c r="BM13" t="n">
-        <v>0.0007852396229282022</v>
+        <v>0.001093927770853043</v>
       </c>
       <c r="BN13" t="n">
-        <v>0.008175013586878777</v>
+        <v>0.0001735972327878699</v>
       </c>
       <c r="BO13" t="n">
-        <v>0.005122840404510498</v>
+        <v>0.001463214866816998</v>
       </c>
       <c r="BP13" t="n">
-        <v>0.0005260295001789927</v>
+        <v>0.00102703960146755</v>
       </c>
       <c r="BQ13" t="n">
-        <v>0.001506383181549609</v>
+        <v>1.204143700306304e-05</v>
       </c>
       <c r="BR13" t="n">
-        <v>0.0002251703117508441</v>
+        <v>0.0005843032267875969</v>
       </c>
       <c r="BS13" t="n">
-        <v>0.005235806107521057</v>
+        <v>0.0004778356815222651</v>
       </c>
       <c r="BT13" t="n">
-        <v>0.00857180543243885</v>
+        <v>0.0001048873891704716</v>
       </c>
       <c r="BU13" t="n">
-        <v>0.008886149153113365</v>
+        <v>0.0003274029295425862</v>
       </c>
       <c r="BV13" t="n">
-        <v>0.006942779757082462</v>
+        <v>0.001454821089282632</v>
       </c>
       <c r="BW13" t="n">
-        <v>0.00369785656221211</v>
+        <v>4.52875392511487e-05</v>
       </c>
       <c r="BX13" t="n">
-        <v>0.01053313165903091</v>
+        <v>3.579318217816763e-05</v>
       </c>
       <c r="BY13" t="n">
-        <v>0.003779425052925944</v>
+        <v>8.159047865774482e-05</v>
       </c>
       <c r="BZ13" t="n">
-        <v>0.001475496334023774</v>
+        <v>2.379712532274425e-05</v>
       </c>
       <c r="CA13" t="n">
-        <v>0.003536016913130879</v>
+        <v>0.0005741851055063307</v>
       </c>
       <c r="CB13" t="n">
-        <v>0.002625329187139869</v>
+        <v>0.0004654285730794072</v>
       </c>
       <c r="CC13" t="n">
-        <v>0.02128022722899914</v>
+        <v>0.0003114469291176647</v>
       </c>
       <c r="CD13" t="n">
-        <v>0.006145970895886421</v>
+        <v>0.0001637607056181878</v>
       </c>
       <c r="CE13" t="n">
-        <v>0.009033439680933952</v>
+        <v>0.0007436078158207238</v>
       </c>
       <c r="CF13" t="n">
-        <v>0.0006209348794072866</v>
+        <v>0.0003334895009174943</v>
       </c>
       <c r="CG13" t="n">
-        <v>0.006517915055155754</v>
+        <v>0.0004061264044139534</v>
       </c>
       <c r="CH13" t="n">
-        <v>0.001797993783839047</v>
+        <v>0.0002223114570369944</v>
       </c>
       <c r="CI13" t="n">
-        <v>0.0009522369946353137</v>
+        <v>0.0005194813129492104</v>
       </c>
       <c r="CJ13" t="n">
-        <v>0.0001353071420453489</v>
+        <v>0.0001854473375715315</v>
       </c>
       <c r="CK13" t="n">
-        <v>0.0001486268592998385</v>
+        <v>2.778822636173572e-05</v>
       </c>
       <c r="CL13" t="n">
-        <v>0.005731293000280857</v>
+        <v>0.0001798111916286871</v>
       </c>
       <c r="CM13" t="n">
-        <v>0.001024193246848881</v>
+        <v>0.0006605326198041439</v>
       </c>
       <c r="CN13" t="n">
-        <v>0.009869392029941082</v>
+        <v>0.0006146270898170769</v>
       </c>
       <c r="CO13" t="n">
-        <v>7.04578123986721e-05</v>
+        <v>0.0002768152626231313</v>
       </c>
       <c r="CP13" t="n">
-        <v>0.003967278636991978</v>
+        <v>0.0005483659915626049</v>
       </c>
       <c r="CQ13" t="n">
-        <v>0.008037694729864597</v>
+        <v>0.0001065467949956656</v>
       </c>
       <c r="CR13" t="n">
-        <v>0.01306723523885012</v>
+        <v>0.0001755372795742005</v>
       </c>
       <c r="CS13" t="n">
-        <v>0.0006511332467198372</v>
+        <v>0.0001648888282943517</v>
       </c>
       <c r="CT13" t="n">
-        <v>0.003977880347520113</v>
+        <v>0.0001893937296699733</v>
       </c>
       <c r="CU13" t="n">
-        <v>0.002404251368716359</v>
+        <v>7.296893454622477e-05</v>
       </c>
       <c r="CV13" t="n">
-        <v>0.007555725052952766</v>
+        <v>7.877242751419544e-05</v>
       </c>
       <c r="CW13" t="n">
-        <v>0.01145760156214237</v>
+        <v>0.0005039461539126933</v>
       </c>
       <c r="CX13" t="n">
-        <v>0.0007883841753937304</v>
+        <v>0.0003017402777913958</v>
       </c>
       <c r="CY13" t="n">
-        <v>0.00619429349899292</v>
+        <v>0.0006204392993822694</v>
       </c>
       <c r="CZ13" t="n">
-        <v>0.004806108772754669</v>
+        <v>0.0001342344330623746</v>
       </c>
       <c r="DA13" t="n">
-        <v>0.002880123211070895</v>
+        <v>0.0005295151495374739</v>
       </c>
       <c r="DB13" t="n">
-        <v>0.0005264807841740549</v>
+        <v>0.000236547231907025</v>
       </c>
       <c r="DC13" t="n">
-        <v>0.0007520187646150589</v>
+        <v>0.000215431340620853</v>
       </c>
       <c r="DD13" t="n">
-        <v>0.006264008115977049</v>
+        <v>9.002368460642174e-05</v>
       </c>
       <c r="DE13" t="n">
-        <v>0.01033077389001846</v>
+        <v>0.0006163433426991105</v>
       </c>
       <c r="DF13" t="n">
-        <v>0.02153265662491322</v>
+        <v>0.001602435018867254</v>
       </c>
       <c r="DG13" t="n">
-        <v>0.01835914328694344</v>
+        <v>1.781186074367724e-05</v>
       </c>
       <c r="DH13" t="n">
-        <v>0.01296821795403957</v>
+        <v>0.0005754518206231296</v>
       </c>
       <c r="DI13" t="n">
-        <v>0.004570815246552229</v>
+        <v>0.0005144780152477324</v>
       </c>
       <c r="DJ13" t="n">
-        <v>0.01170780789107084</v>
+        <v>0.0001122591565945186</v>
       </c>
       <c r="DK13" t="n">
-        <v>0.005895617417991161</v>
+        <v>0.0009138447931036353</v>
       </c>
       <c r="DL13" t="n">
-        <v>3.570260014384985e-05</v>
+        <v>0.0006254789768718183</v>
       </c>
       <c r="DM13" t="n">
-        <v>0.003626453224569559</v>
+        <v>0.0002606928755994886</v>
       </c>
       <c r="DN13" t="n">
-        <v>0.00224786764010787</v>
+        <v>0.0007170388707891107</v>
       </c>
       <c r="DO13" t="n">
-        <v>0.0007292665541172028</v>
+        <v>0.0004274100938346237</v>
       </c>
       <c r="DP13" t="n">
-        <v>0.002401236444711685</v>
+        <v>0.0004208356840535998</v>
       </c>
       <c r="DQ13" t="n">
-        <v>0.005876135546714067</v>
+        <v>0.0006986919906921685</v>
       </c>
       <c r="DR13" t="n">
-        <v>0.009769167751073837</v>
+        <v>0.000144315097713843</v>
       </c>
       <c r="DS13" t="n">
-        <v>0.006717587821185589</v>
+        <v>0.0003584054356906563</v>
       </c>
       <c r="DT13" t="n">
-        <v>0.001433103694580495</v>
+        <v>6.002554437145591e-05</v>
       </c>
       <c r="DU13" t="n">
-        <v>0.008969604969024658</v>
+        <v>0.0003326532023493201</v>
       </c>
       <c r="DV13" t="n">
-        <v>0.002949110930785537</v>
+        <v>0.0002841552486643195</v>
       </c>
       <c r="DW13" t="n">
-        <v>0.001696194289252162</v>
+        <v>5.464457353809848e-05</v>
       </c>
       <c r="DX13" t="n">
-        <v>0.001520481891930103</v>
+        <v>0.0001229073386639357</v>
       </c>
       <c r="DY13" t="n">
-        <v>0.00484568765386939</v>
+        <v>0.0006345499423332512</v>
       </c>
       <c r="DZ13" t="n">
-        <v>0.008584123104810715</v>
+        <v>0.000104541119071655</v>
       </c>
       <c r="EA13" t="n">
-        <v>0.003012912813574076</v>
+        <v>0.0003705335548147559</v>
       </c>
       <c r="EB13" t="n">
-        <v>0.005606168881058693</v>
+        <v>0.0002435015048831701</v>
       </c>
       <c r="EC13" t="n">
-        <v>0.001102123875170946</v>
+        <v>0.0001596600777702406</v>
       </c>
       <c r="ED13" t="n">
-        <v>0.00495185749605298</v>
+        <v>0.0001227137399837375</v>
       </c>
       <c r="EE13" t="n">
-        <v>0.01226031500846148</v>
+        <v>0.0001371157559333369</v>
       </c>
       <c r="EF13" t="n">
-        <v>0.006263408809900284</v>
+        <v>0.0002634504344314337</v>
       </c>
       <c r="EG13" t="n">
-        <v>0.009462903253734112</v>
+        <v>4.622452252078801e-05</v>
       </c>
       <c r="EH13" t="n">
-        <v>0.0002713226131163538</v>
+        <v>6.17983314441517e-05</v>
       </c>
       <c r="EI13" t="n">
-        <v>0.004042282234877348</v>
+        <v>0.0002965704770758748</v>
       </c>
       <c r="EJ13" t="n">
-        <v>0.004585151560604572</v>
+        <v>9.094784036278725e-05</v>
       </c>
       <c r="EK13" t="n">
-        <v>0.001474732183851302</v>
+        <v>0.0003961970214731991</v>
       </c>
       <c r="EL13" t="n">
-        <v>0.001764512853696942</v>
+        <v>0.0004306893097236753</v>
       </c>
       <c r="EM13" t="n">
-        <v>0.006501760799437761</v>
+        <v>9.577230957802385e-05</v>
       </c>
       <c r="EN13" t="n">
-        <v>0.006009032484143972</v>
+        <v>7.054989691823721e-05</v>
       </c>
       <c r="EO13" t="n">
-        <v>0.005024005193263292</v>
+        <v>0.0005453313351608813</v>
       </c>
       <c r="EP13" t="n">
-        <v>0.01008609775453806</v>
+        <v>0.0003267601714469492</v>
       </c>
       <c r="EQ13" t="n">
-        <v>0.01545021869242191</v>
+        <v>2.077416866086423e-05</v>
       </c>
       <c r="ER13" t="n">
-        <v>0.002345887711271644</v>
+        <v>0.0004386765358503908</v>
       </c>
       <c r="ES13" t="n">
-        <v>0.00729753915220499</v>
+        <v>0.0001627597084734589</v>
       </c>
       <c r="ET13" t="n">
-        <v>0.01117533538490534</v>
+        <v>0.0009742605616338551</v>
       </c>
       <c r="EU13" t="n">
-        <v>0.004520036745816469</v>
+        <v>0.0001857868046499789</v>
       </c>
       <c r="EV13" t="n">
-        <v>0.006111645605415106</v>
+        <v>0.0004401745973154902</v>
       </c>
       <c r="EW13" t="n">
-        <v>0.002410380868241191</v>
+        <v>7.512193406000733e-06</v>
       </c>
       <c r="EX13" t="n">
-        <v>0.005663107149302959</v>
+        <v>0.0001352149265585467</v>
       </c>
       <c r="EY13" t="n">
-        <v>0.01056464668363333</v>
+        <v>0.0004734297108370811</v>
       </c>
       <c r="EZ13" t="n">
-        <v>0.001400742447003722</v>
+        <v>0.0001405910006724298</v>
       </c>
       <c r="FA13" t="n">
-        <v>0.003823296399787068</v>
+        <v>0.0004359811136964709</v>
       </c>
       <c r="FB13" t="n">
-        <v>0.004517118446528912</v>
+        <v>0.0001343063049716875</v>
       </c>
       <c r="FC13" t="n">
-        <v>0.0003796303062699735</v>
+        <v>0.0005193132092244923</v>
       </c>
       <c r="FD13" t="n">
-        <v>0.0006733225891366601</v>
+        <v>0.0002720553602557629</v>
       </c>
       <c r="FE13" t="n">
-        <v>0.001495360280387104</v>
+        <v>2.788125129882246e-06</v>
       </c>
       <c r="FF13" t="n">
-        <v>0.007743978872895241</v>
+        <v>0.0002138491399819031</v>
       </c>
       <c r="FG13" t="n">
-        <v>0.002757920883595943</v>
+        <v>0.0003423308371566236</v>
       </c>
       <c r="FH13" t="n">
-        <v>0.008734301663935184</v>
+        <v>0.0004405381914693862</v>
       </c>
       <c r="FI13" t="n">
-        <v>0.008143989369273186</v>
+        <v>0.0001780848833732307</v>
       </c>
       <c r="FJ13" t="n">
-        <v>0.004174479283392429</v>
+        <v>1.887721009552479e-05</v>
       </c>
       <c r="FK13" t="n">
-        <v>0.00233765272423625</v>
+        <v>9.342125849798322e-05</v>
       </c>
       <c r="FL13" t="n">
-        <v>0.005266702733933926</v>
+        <v>9.684020915301517e-05</v>
       </c>
       <c r="FM13" t="n">
-        <v>0.00139600713737309</v>
+        <v>6.510062667075545e-05</v>
       </c>
       <c r="FN13" t="n">
-        <v>0.009090118110179901</v>
+        <v>0.0002038869861280546</v>
       </c>
       <c r="FO13" t="n">
-        <v>0.00184805307071656</v>
+        <v>4.253168299328536e-05</v>
       </c>
       <c r="FP13" t="n">
-        <v>0.001582639524713159</v>
+        <v>0.0004361462197266519</v>
       </c>
       <c r="FQ13" t="n">
-        <v>0.007272501941770315</v>
+        <v>0.0003987493983004242</v>
       </c>
       <c r="FR13" t="n">
-        <v>0.001824006671085954</v>
+        <v>8.314434671774507e-05</v>
       </c>
       <c r="FS13" t="n">
-        <v>0.004124332219362259</v>
+        <v>0.0002852568868547678</v>
       </c>
       <c r="FT13" t="n">
-        <v>0.002131490269675851</v>
+        <v>0.002168005099520087</v>
       </c>
       <c r="FU13" t="n">
-        <v>0.004060693085193634</v>
+        <v>0.000394477741792798</v>
       </c>
       <c r="FV13" t="n">
-        <v>0.00335863302461803</v>
+        <v>0.0001179438404506072</v>
       </c>
       <c r="FW13" t="n">
-        <v>0.0001543697289889678</v>
+        <v>0.000490558217279613</v>
       </c>
       <c r="FX13" t="n">
-        <v>0.01423811446875334</v>
+        <v>1.537408388685435e-05</v>
       </c>
       <c r="FY13" t="n">
-        <v>0.005929971113801003</v>
+        <v>0.0003338187525514513</v>
       </c>
       <c r="FZ13" t="n">
-        <v>0.002711145207285881</v>
+        <v>0.0007879179320298135</v>
       </c>
       <c r="GA13" t="n">
-        <v>0.00451528700068593</v>
+        <v>0.000256587314652279</v>
       </c>
       <c r="GB13" t="n">
-        <v>0.007950551807880402</v>
+        <v>0.0007333797984756529</v>
       </c>
       <c r="GC13" t="n">
-        <v>0.0001702605513855815</v>
+        <v>0.0001947287237271667</v>
       </c>
       <c r="GD13" t="n">
-        <v>0.0003583692014217377</v>
+        <v>0.0004044649540446699</v>
       </c>
       <c r="GE13" t="n">
-        <v>0.00475030904635787</v>
+        <v>0.000994830159470439</v>
       </c>
       <c r="GF13" t="n">
-        <v>0.008614534512162209</v>
+        <v>0.0008425344130955637</v>
       </c>
       <c r="GG13" t="n">
-        <v>0.006494481116533279</v>
+        <v>0.0001711805525701493</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.004028063267469406</v>
+        <v>0.0002063090942101553</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0082617262378335</v>
+        <v>0.0002889341558329761</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0114237554371357</v>
+        <v>0.001426147297024727</v>
       </c>
       <c r="D14" t="n">
-        <v>0.01304835639894009</v>
+        <v>0.001392371137626469</v>
       </c>
       <c r="E14" t="n">
-        <v>0.02129411138594151</v>
+        <v>0.001248573535121977</v>
       </c>
       <c r="F14" t="n">
-        <v>0.03599239140748978</v>
+        <v>0.0005334716406650841</v>
       </c>
       <c r="G14" t="n">
-        <v>0.009008198045194149</v>
+        <v>0.0005831460002809763</v>
       </c>
       <c r="H14" t="n">
-        <v>0.05361410602927208</v>
+        <v>0.000227568787522614</v>
       </c>
       <c r="I14" t="n">
-        <v>0.006178666837513447</v>
+        <v>0.0006040993612259626</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0003794978838413954</v>
+        <v>0.0001711405930109322</v>
       </c>
       <c r="K14" t="n">
-        <v>0.002898340113461018</v>
+        <v>0.0002594487450551242</v>
       </c>
       <c r="L14" t="n">
-        <v>0.01440159883350134</v>
+        <v>0.001119184074923396</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0132192661985755</v>
+        <v>0.001301004434935749</v>
       </c>
       <c r="N14" t="n">
-        <v>0.02736397087574005</v>
+        <v>0.0003970956604462117</v>
       </c>
       <c r="O14" t="n">
-        <v>0.03823091089725494</v>
+        <v>0.0003698203072417527</v>
       </c>
       <c r="P14" t="n">
-        <v>0.01014153938740492</v>
+        <v>0.0002543358132243156</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.05959685146808624</v>
+        <v>0.0004324097244534642</v>
       </c>
       <c r="R14" t="n">
-        <v>0.001571024302393198</v>
+        <v>0.0008803817327134311</v>
       </c>
       <c r="S14" t="n">
-        <v>0.01304707955569029</v>
+        <v>4.703494050772861e-05</v>
       </c>
       <c r="T14" t="n">
-        <v>0.003432021243497729</v>
+        <v>0.0003743667621165514</v>
       </c>
       <c r="U14" t="n">
-        <v>0.002264101058244705</v>
+        <v>0.0004136654897592962</v>
       </c>
       <c r="V14" t="n">
-        <v>0.002133141504600644</v>
+        <v>0.0001448046532459557</v>
       </c>
       <c r="W14" t="n">
-        <v>0.004751375876367092</v>
+        <v>0.0002882652333937585</v>
       </c>
       <c r="X14" t="n">
-        <v>0.01049185171723366</v>
+        <v>0.0001971724850591272</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.002675073686987162</v>
+        <v>0.0002078390243696049</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.01640717126429081</v>
+        <v>2.772893640212715e-05</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.0009644738165661693</v>
+        <v>0.0001502994855400175</v>
       </c>
       <c r="AB14" t="n">
-        <v>0.002251577330753207</v>
+        <v>0.0005225121858529747</v>
       </c>
       <c r="AC14" t="n">
-        <v>0.001704144990071654</v>
+        <v>0.0003904671757481992</v>
       </c>
       <c r="AD14" t="n">
-        <v>0.0004559890949167311</v>
+        <v>0.0001433991565136239</v>
       </c>
       <c r="AE14" t="n">
-        <v>0.008936760947108269</v>
+        <v>0.0004723413148894906</v>
       </c>
       <c r="AF14" t="n">
-        <v>0.01939736679196358</v>
+        <v>0.0002919871767517179</v>
       </c>
       <c r="AG14" t="n">
-        <v>0.00495933648198843</v>
+        <v>7.693029328947887e-05</v>
       </c>
       <c r="AH14" t="n">
-        <v>0.01865866594016552</v>
+        <v>3.145372829749249e-06</v>
       </c>
       <c r="AI14" t="n">
-        <v>0.005814887117594481</v>
+        <v>0.0003514678392093629</v>
       </c>
       <c r="AJ14" t="n">
-        <v>0.001982127083465457</v>
+        <v>0.000278377701761201</v>
       </c>
       <c r="AK14" t="n">
-        <v>0.002301063388586044</v>
+        <v>0.0001115596169256605</v>
       </c>
       <c r="AL14" t="n">
-        <v>0.002876552287489176</v>
+        <v>9.948009392246604e-05</v>
       </c>
       <c r="AM14" t="n">
-        <v>0.01255898550152779</v>
+        <v>2.443543053232133e-05</v>
       </c>
       <c r="AN14" t="n">
-        <v>0.0024922548327595</v>
+        <v>1.014389363263035e-05</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.02650078199803829</v>
+        <v>0.0002171998494304717</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.001776634249836206</v>
+        <v>3.182020009262487e-05</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0.0004743061144836247</v>
+        <v>0.0001169291790574789</v>
       </c>
       <c r="AR14" t="n">
-        <v>0.003567433683201671</v>
+        <v>0.0002125815226463601</v>
       </c>
       <c r="AS14" t="n">
-        <v>0.001963335322216153</v>
+        <v>2.499729816918261e-05</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.007300416007637978</v>
+        <v>0.0005801941151730716</v>
       </c>
       <c r="AU14" t="n">
-        <v>0.01428693626075983</v>
+        <v>0.0007565451669506729</v>
       </c>
       <c r="AV14" t="n">
-        <v>0.007748858071863651</v>
+        <v>0.0006273038452491164</v>
       </c>
       <c r="AW14" t="n">
-        <v>0.001502280589193106</v>
+        <v>0.00118754175491631</v>
       </c>
       <c r="AX14" t="n">
-        <v>0.006211156491190195</v>
+        <v>0.0005121394642628729</v>
       </c>
       <c r="AY14" t="n">
-        <v>0.02684931643307209</v>
+        <v>0.0002080284466501325</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0.003406084142625332</v>
+        <v>0.00042455003131181</v>
       </c>
       <c r="BA14" t="n">
-        <v>0.02053269557654858</v>
+        <v>0.0002978109987452626</v>
       </c>
       <c r="BB14" t="n">
-        <v>0.001315971720032394</v>
+        <v>0.0001720745203783736</v>
       </c>
       <c r="BC14" t="n">
-        <v>0.007501651998609304</v>
+        <v>0.0001280276192119345</v>
       </c>
       <c r="BD14" t="n">
-        <v>0.002769465325400233</v>
+        <v>0.001085278112441301</v>
       </c>
       <c r="BE14" t="n">
-        <v>0.005108126439154148</v>
+        <v>0.0002732647699303925</v>
       </c>
       <c r="BF14" t="n">
-        <v>0.01170316804200411</v>
+        <v>0.0004625642322935164</v>
       </c>
       <c r="BG14" t="n">
-        <v>0.01563295349478722</v>
+        <v>3.615477180574089e-05</v>
       </c>
       <c r="BH14" t="n">
-        <v>0.002246358897536993</v>
+        <v>0.0009339735843241215</v>
       </c>
       <c r="BI14" t="n">
-        <v>0.01531370263546705</v>
+        <v>0.0001832088164519519</v>
       </c>
       <c r="BJ14" t="n">
-        <v>0.01155003719031811</v>
+        <v>0.000857473467476666</v>
       </c>
       <c r="BK14" t="n">
-        <v>0.002585975453257561</v>
+        <v>0.0007553436444140971</v>
       </c>
       <c r="BL14" t="n">
-        <v>0.0009333023335784674</v>
+        <v>9.023741586133838e-05</v>
       </c>
       <c r="BM14" t="n">
-        <v>0.0058808708563447</v>
+        <v>0.000124341415357776</v>
       </c>
       <c r="BN14" t="n">
-        <v>0.006614245474338531</v>
+        <v>0.0002183253527618945</v>
       </c>
       <c r="BO14" t="n">
-        <v>0.005542941391468048</v>
+        <v>0.000236548250541091</v>
       </c>
       <c r="BP14" t="n">
-        <v>0.001080386457033455</v>
+        <v>8.008912845980376e-05</v>
       </c>
       <c r="BQ14" t="n">
-        <v>0.003816722892224789</v>
+        <v>0.0001297910639550537</v>
       </c>
       <c r="BR14" t="n">
-        <v>0.01224502827972174</v>
+        <v>2.692038106033579e-05</v>
       </c>
       <c r="BS14" t="n">
-        <v>0.003196649719029665</v>
+        <v>0.000249060831265524</v>
       </c>
       <c r="BT14" t="n">
-        <v>0.0007769715157337487</v>
+        <v>5.683151539415121e-05</v>
       </c>
       <c r="BU14" t="n">
-        <v>0.006358582526445389</v>
+        <v>0.000198390829609707</v>
       </c>
       <c r="BV14" t="n">
-        <v>0.001394663355313241</v>
+        <v>0.0003328741586301476</v>
       </c>
       <c r="BW14" t="n">
-        <v>0.001050488092005253</v>
+        <v>0.0004324720939621329</v>
       </c>
       <c r="BX14" t="n">
-        <v>0.001822917023673654</v>
+        <v>0.0005363408708944917</v>
       </c>
       <c r="BY14" t="n">
-        <v>0.00714467465877533</v>
+        <v>0.0006494977860711515</v>
       </c>
       <c r="BZ14" t="n">
-        <v>0.02029209770262241</v>
+        <v>0.000109606065961998</v>
       </c>
       <c r="CA14" t="n">
-        <v>0.005484877154231071</v>
+        <v>3.894848487107083e-05</v>
       </c>
       <c r="CB14" t="n">
-        <v>0.02010755613446236</v>
+        <v>3.870160799124278e-05</v>
       </c>
       <c r="CC14" t="n">
-        <v>0.0006458584684878588</v>
+        <v>0.0003286058199591935</v>
       </c>
       <c r="CD14" t="n">
-        <v>0.001948097953572869</v>
+        <v>8.016198989935219e-05</v>
       </c>
       <c r="CE14" t="n">
-        <v>0.002785224001854658</v>
+        <v>7.535535405622795e-05</v>
       </c>
       <c r="CF14" t="n">
-        <v>0.004183918703347445</v>
+        <v>0.0003626336983870715</v>
       </c>
       <c r="CG14" t="n">
-        <v>0.005186882335692644</v>
+        <v>0.0002151553053408861</v>
       </c>
       <c r="CH14" t="n">
-        <v>0.006280406843870878</v>
+        <v>0.0003523395862430334</v>
       </c>
       <c r="CI14" t="n">
-        <v>0.007600248325616121</v>
+        <v>0.0001603871205588803</v>
       </c>
       <c r="CJ14" t="n">
-        <v>0.001154582249000669</v>
+        <v>0.0001244255690835416</v>
       </c>
       <c r="CK14" t="n">
-        <v>0.009443977847695351</v>
+        <v>0.0001546110870549455</v>
       </c>
       <c r="CL14" t="n">
-        <v>5.680299364030361e-05</v>
+        <v>3.008672319992911e-05</v>
       </c>
       <c r="CM14" t="n">
-        <v>0.00906852725893259</v>
+        <v>0.0005602324963547289</v>
       </c>
       <c r="CN14" t="n">
-        <v>0.01325521804392338</v>
+        <v>0.0005199496517889202</v>
       </c>
       <c r="CO14" t="n">
-        <v>0.009232530370354652</v>
+        <v>9.262614184990525e-05</v>
       </c>
       <c r="CP14" t="n">
-        <v>0.01258153468370438</v>
+        <v>0.000276729988399893</v>
       </c>
       <c r="CQ14" t="n">
-        <v>0.002797911409288645</v>
+        <v>0.000158172711962834</v>
       </c>
       <c r="CR14" t="n">
-        <v>0.002239369321614504</v>
+        <v>0.0001093293394660577</v>
       </c>
       <c r="CS14" t="n">
-        <v>0.005475761834532022</v>
+        <v>0.0001507684064563364</v>
       </c>
       <c r="CT14" t="n">
-        <v>0.006889791693538427</v>
+        <v>0.0006157735479064286</v>
       </c>
       <c r="CU14" t="n">
-        <v>0.0002459594106767327</v>
+        <v>1.216991313413018e-05</v>
       </c>
       <c r="CV14" t="n">
-        <v>0.003599088406190276</v>
+        <v>2.372627386648674e-05</v>
       </c>
       <c r="CW14" t="n">
-        <v>0.004133140202611685</v>
+        <v>0.0001691736979410052</v>
       </c>
       <c r="CX14" t="n">
-        <v>0.004846028052270412</v>
+        <v>0.0002605619374662638</v>
       </c>
       <c r="CY14" t="n">
-        <v>0.004902503918856382</v>
+        <v>0.0002982427540700883</v>
       </c>
       <c r="CZ14" t="n">
-        <v>0.006004862952977419</v>
+        <v>0.0002613140968605876</v>
       </c>
       <c r="DA14" t="n">
-        <v>0.007641393691301346</v>
+        <v>0.0001069332429324277</v>
       </c>
       <c r="DB14" t="n">
-        <v>0.0004759310686495155</v>
+        <v>0.0001116535131586716</v>
       </c>
       <c r="DC14" t="n">
-        <v>0.01140053756535053</v>
+        <v>9.670023428043351e-05</v>
       </c>
       <c r="DD14" t="n">
-        <v>0.0003604019293561578</v>
+        <v>3.002401172125246e-05</v>
       </c>
       <c r="DE14" t="n">
-        <v>0.02618815749883652</v>
+        <v>0.0001823635830078274</v>
       </c>
       <c r="DF14" t="n">
-        <v>0.0151711069047451</v>
+        <v>0.0004278530250303447</v>
       </c>
       <c r="DG14" t="n">
-        <v>0.005955675151199102</v>
+        <v>0.0009929325897246599</v>
       </c>
       <c r="DH14" t="n">
-        <v>0.003614155342802405</v>
+        <v>0.0004062660736963153</v>
       </c>
       <c r="DI14" t="n">
-        <v>0.0008252131519839168</v>
+        <v>0.0006523291813209653</v>
       </c>
       <c r="DJ14" t="n">
-        <v>0.01206314563751221</v>
+        <v>0.0001908376289065927</v>
       </c>
       <c r="DK14" t="n">
-        <v>0.001488106907345355</v>
+        <v>0.0003253476461395621</v>
       </c>
       <c r="DL14" t="n">
-        <v>0.002963050035759807</v>
+        <v>0.0006615446181967854</v>
       </c>
       <c r="DM14" t="n">
-        <v>0.004649553447961807</v>
+        <v>0.0002189525257563218</v>
       </c>
       <c r="DN14" t="n">
-        <v>0.005515072029083967</v>
+        <v>0.0001074168103514239</v>
       </c>
       <c r="DO14" t="n">
-        <v>0.003833915805444121</v>
+        <v>0.0005465086433105171</v>
       </c>
       <c r="DP14" t="n">
-        <v>0.003381732385605574</v>
+        <v>0.000191585932043381</v>
       </c>
       <c r="DQ14" t="n">
-        <v>0.006180495023727417</v>
+        <v>4.413114584167488e-05</v>
       </c>
       <c r="DR14" t="n">
-        <v>0.009360057301819324</v>
+        <v>0.0006595909362658858</v>
       </c>
       <c r="DS14" t="n">
-        <v>0.006204466801136732</v>
+        <v>0.0002883859560824931</v>
       </c>
       <c r="DT14" t="n">
-        <v>0.007209985516965389</v>
+        <v>0.0001526730047771707</v>
       </c>
       <c r="DU14" t="n">
-        <v>0.0001040416100295261</v>
+        <v>3.099149034824222e-05</v>
       </c>
       <c r="DV14" t="n">
-        <v>0.004218955524265766</v>
+        <v>0.0004094964824616909</v>
       </c>
       <c r="DW14" t="n">
-        <v>0.003611245891079307</v>
+        <v>0.0001043837692122906</v>
       </c>
       <c r="DX14" t="n">
-        <v>0.001108218100853264</v>
+        <v>0.0005773495649918914</v>
       </c>
       <c r="DY14" t="n">
-        <v>0.005476579070091248</v>
+        <v>0.0002879627572838217</v>
       </c>
       <c r="DZ14" t="n">
-        <v>3.104412462562323e-05</v>
+        <v>0.0001418273895978928</v>
       </c>
       <c r="EA14" t="n">
-        <v>0.000467971432954073</v>
+        <v>0.000461815478047356</v>
       </c>
       <c r="EB14" t="n">
-        <v>0.001601529074832797</v>
+        <v>7.275317329913378e-05</v>
       </c>
       <c r="EC14" t="n">
-        <v>0.003731522243469954</v>
+        <v>5.536785465665162e-06</v>
       </c>
       <c r="ED14" t="n">
-        <v>0.0007745904731564224</v>
+        <v>0.0002807567070703954</v>
       </c>
       <c r="EE14" t="n">
-        <v>0.001188133959658444</v>
+        <v>0.0001433087018085644</v>
       </c>
       <c r="EF14" t="n">
-        <v>0.0117903184145689</v>
+        <v>9.726012649480253e-05</v>
       </c>
       <c r="EG14" t="n">
-        <v>0.01305478997528553</v>
+        <v>0.0003769386385101825</v>
       </c>
       <c r="EH14" t="n">
-        <v>0.0003173599834553897</v>
+        <v>0.0004015494196210057</v>
       </c>
       <c r="EI14" t="n">
-        <v>0.006018461659550667</v>
+        <v>0.0005402407259680331</v>
       </c>
       <c r="EJ14" t="n">
-        <v>0.003432441735640168</v>
+        <v>5.690585749107413e-05</v>
       </c>
       <c r="EK14" t="n">
-        <v>0.008725829422473907</v>
+        <v>1.800705649657175e-05</v>
       </c>
       <c r="EL14" t="n">
-        <v>0.0001020267736748792</v>
+        <v>0.0001300257572438568</v>
       </c>
       <c r="EM14" t="n">
-        <v>0.01041529700160027</v>
+        <v>7.072279549902305e-05</v>
       </c>
       <c r="EN14" t="n">
-        <v>0.00195530685596168</v>
+        <v>0.0001252587680937722</v>
       </c>
       <c r="EO14" t="n">
-        <v>0.003296657465398312</v>
+        <v>3.520032259984873e-05</v>
       </c>
       <c r="EP14" t="n">
-        <v>0.002415845403447747</v>
+        <v>0.0004740630683954805</v>
       </c>
       <c r="EQ14" t="n">
-        <v>0.007713252678513527</v>
+        <v>6.105890497565269e-05</v>
       </c>
       <c r="ER14" t="n">
-        <v>0.002519353991374373</v>
+        <v>0.0002491144405212253</v>
       </c>
       <c r="ES14" t="n">
-        <v>0.006567635107785463</v>
+        <v>0.0004712422087322921</v>
       </c>
       <c r="ET14" t="n">
-        <v>0.004154068417847157</v>
+        <v>4.324051042203791e-05</v>
       </c>
       <c r="EU14" t="n">
-        <v>0.001542990561574697</v>
+        <v>3.955237480113283e-05</v>
       </c>
       <c r="EV14" t="n">
-        <v>0.009540902450680733</v>
+        <v>9.195423626806587e-05</v>
       </c>
       <c r="EW14" t="n">
-        <v>0.004057522397488356</v>
+        <v>0.0004043504886794835</v>
       </c>
       <c r="EX14" t="n">
-        <v>0.00314529612660408</v>
+        <v>6.303552800090984e-05</v>
       </c>
       <c r="EY14" t="n">
-        <v>0.004381315317004919</v>
+        <v>0.000246942596277222</v>
       </c>
       <c r="EZ14" t="n">
-        <v>0.005064446479082108</v>
+        <v>0.0003621387877501547</v>
       </c>
       <c r="FA14" t="n">
-        <v>0.007496391888707876</v>
+        <v>0.0002598805294837803</v>
       </c>
       <c r="FB14" t="n">
-        <v>0.009168236516416073</v>
+        <v>0.0002517283719498664</v>
       </c>
       <c r="FC14" t="n">
-        <v>0.008385911583900452</v>
+        <v>7.509986608056352e-05</v>
       </c>
       <c r="FD14" t="n">
-        <v>0.001389291021041572</v>
+        <v>8.803656965028495e-05</v>
       </c>
       <c r="FE14" t="n">
-        <v>0.01138087548315525</v>
+        <v>0.0001304405595874414</v>
       </c>
       <c r="FF14" t="n">
-        <v>0.0001948752178577706</v>
+        <v>6.884259346406907e-05</v>
       </c>
       <c r="FG14" t="n">
-        <v>0.0002826211275532842</v>
+        <v>4.898503902950324e-06</v>
       </c>
       <c r="FH14" t="n">
-        <v>0.0005830822046846151</v>
+        <v>0.0002805900585372001</v>
       </c>
       <c r="FI14" t="n">
-        <v>0.003945657517760992</v>
+        <v>1.695781975286081e-06</v>
       </c>
       <c r="FJ14" t="n">
-        <v>0.005589498206973076</v>
+        <v>8.113414514809847e-05</v>
       </c>
       <c r="FK14" t="n">
-        <v>0.001509042922407389</v>
+        <v>0.0001314627006649971</v>
       </c>
       <c r="FL14" t="n">
-        <v>0.001661587622947991</v>
+        <v>0.0001092246675398201</v>
       </c>
       <c r="FM14" t="n">
-        <v>0.0017873365432024</v>
+        <v>0.0002868916490115225</v>
       </c>
       <c r="FN14" t="n">
-        <v>0.00390721345320344</v>
+        <v>0.0002084161533275619</v>
       </c>
       <c r="FO14" t="n">
-        <v>0.0002554674283601344</v>
+        <v>1.744720793794841e-05</v>
       </c>
       <c r="FP14" t="n">
-        <v>0.008149932138621807</v>
+        <v>3.663011739263311e-06</v>
       </c>
       <c r="FQ14" t="n">
-        <v>0.003795068711042404</v>
+        <v>0.0002304305817233399</v>
       </c>
       <c r="FR14" t="n">
-        <v>0.001652218517847359</v>
+        <v>0.0001862774370238185</v>
       </c>
       <c r="FS14" t="n">
-        <v>0.002554349834099412</v>
+        <v>0.0001480999490013346</v>
       </c>
       <c r="FT14" t="n">
-        <v>0.001239492441527545</v>
+        <v>0.0002669603854883462</v>
       </c>
       <c r="FU14" t="n">
-        <v>0.01405758503824472</v>
+        <v>0.0002651105169206858</v>
       </c>
       <c r="FV14" t="n">
-        <v>0.008629055693745613</v>
+        <v>8.183367754099891e-05</v>
       </c>
       <c r="FW14" t="n">
-        <v>0.009096400812268257</v>
+        <v>0.000290562427835539</v>
       </c>
       <c r="FX14" t="n">
-        <v>0.001367684104479849</v>
+        <v>1.887994949356653e-05</v>
       </c>
       <c r="FY14" t="n">
-        <v>0.004803048446774483</v>
+        <v>2.322040927538183e-05</v>
       </c>
       <c r="FZ14" t="n">
-        <v>7.808429654687643e-05</v>
+        <v>0.0003401472349651158</v>
       </c>
       <c r="GA14" t="n">
-        <v>0.002237393520772457</v>
+        <v>4.507432458922267e-05</v>
       </c>
       <c r="GB14" t="n">
-        <v>0.001396909821778536</v>
+        <v>0.0001551756577100605</v>
       </c>
       <c r="GC14" t="n">
-        <v>0.003688117722049356</v>
+        <v>0.0004464274970814586</v>
       </c>
       <c r="GD14" t="n">
-        <v>0.002895792247727513</v>
+        <v>0.0003480611776467413</v>
       </c>
       <c r="GE14" t="n">
-        <v>0.002491926774382591</v>
+        <v>0.0002488403115421534</v>
       </c>
       <c r="GF14" t="n">
-        <v>0.001016185618937016</v>
+        <v>0.0002143685560440645</v>
       </c>
       <c r="GG14" t="n">
-        <v>0.00264445343054831</v>
+        <v>3.060384187847376e-05</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.00488207908347249</v>
+        <v>2.989145832543727e-05</v>
       </c>
       <c r="B15" t="n">
-        <v>0.002283938694745302</v>
+        <v>0.0008044690475799143</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02442248351871967</v>
+        <v>0.00011249708768446</v>
       </c>
       <c r="D15" t="n">
-        <v>0.03618237748742104</v>
+        <v>0.0003411610086914152</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01856672577559948</v>
+        <v>0.0003005240869242698</v>
       </c>
       <c r="F15" t="n">
-        <v>0.00548930186778307</v>
+        <v>0.0003001638397108763</v>
       </c>
       <c r="G15" t="n">
-        <v>0.004587475676089525</v>
+        <v>0.0001359439047519118</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05839866027235985</v>
+        <v>0.0002382752718403935</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0005795900360681117</v>
+        <v>1.954086837940849e-05</v>
       </c>
       <c r="J15" t="n">
-        <v>0.002305015688762069</v>
+        <v>3.408499105717055e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.007800351362675428</v>
+        <v>0.0005922088166698813</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01983009651303291</v>
+        <v>1.82528056029696e-05</v>
       </c>
       <c r="M15" t="n">
-        <v>0.02240965515375137</v>
+        <v>0.0002335647732252255</v>
       </c>
       <c r="N15" t="n">
-        <v>0.02915774844586849</v>
+        <v>0.0002821500820573419</v>
       </c>
       <c r="O15" t="n">
-        <v>0.01051164884120226</v>
+        <v>0.0002927367459051311</v>
       </c>
       <c r="P15" t="n">
-        <v>0.009118468500673771</v>
+        <v>0.0001071310907718726</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.06980124861001968</v>
+        <v>1.273368980037048e-05</v>
       </c>
       <c r="R15" t="n">
-        <v>0.001134304096922278</v>
+        <v>2.193273212469649e-05</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0004495494649745524</v>
+        <v>2.841556852217764e-05</v>
       </c>
       <c r="T15" t="n">
-        <v>0.005104693118482828</v>
+        <v>0.0001438776816939935</v>
       </c>
       <c r="U15" t="n">
-        <v>0.002761077601462603</v>
+        <v>2.947064604086336e-05</v>
       </c>
       <c r="V15" t="n">
-        <v>0.0007783487671986222</v>
+        <v>4.83443436678499e-05</v>
       </c>
       <c r="W15" t="n">
-        <v>0.02696453221142292</v>
+        <v>0.0001327570644207299</v>
       </c>
       <c r="X15" t="n">
-        <v>0.005682009737938643</v>
+        <v>5.424679329735227e-05</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.001130311517044902</v>
+        <v>8.31376964924857e-05</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.01341507397592068</v>
+        <v>0.0001289108913624659</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.003351613879203796</v>
+        <v>6.167031824588776e-05</v>
       </c>
       <c r="AB15" t="n">
-        <v>0.01223470363765955</v>
+        <v>2.826543641276658e-05</v>
       </c>
       <c r="AC15" t="n">
-        <v>0.004319571889936924</v>
+        <v>0.0001303353637922555</v>
       </c>
       <c r="AD15" t="n">
-        <v>0.005649657920002937</v>
+        <v>8.945635272539221e-06</v>
       </c>
       <c r="AE15" t="n">
-        <v>0.01719198748469353</v>
+        <v>6.918640428921208e-05</v>
       </c>
       <c r="AF15" t="n">
-        <v>0.0005842576501891017</v>
+        <v>1.91001090570353e-05</v>
       </c>
       <c r="AG15" t="n">
-        <v>0.00392448715865612</v>
+        <v>8.031641300476622e-06</v>
       </c>
       <c r="AH15" t="n">
-        <v>0.01440515462309122</v>
+        <v>0.000103632191894576</v>
       </c>
       <c r="AI15" t="n">
-        <v>0.006293306592851877</v>
+        <v>7.605380960740149e-05</v>
       </c>
       <c r="AJ15" t="n">
-        <v>0.006139819975942373</v>
+        <v>1.040101960825268e-05</v>
       </c>
       <c r="AK15" t="n">
-        <v>0.00466683367267251</v>
+        <v>4.098439967492595e-05</v>
       </c>
       <c r="AL15" t="n">
-        <v>0.00760089885443449</v>
+        <v>0.0001752559619490057</v>
       </c>
       <c r="AM15" t="n">
-        <v>0.00249817967414856</v>
+        <v>1.154149958892958e-05</v>
       </c>
       <c r="AN15" t="n">
-        <v>0.0003103937488049269</v>
+        <v>2.268987918796483e-05</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.01264901086688042</v>
+        <v>4.124613042222336e-06</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.004610179457813501</v>
+        <v>0.0001458927290514112</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.003231577342376113</v>
+        <v>8.82531821844168e-06</v>
       </c>
       <c r="AR15" t="n">
-        <v>0.000428499624831602</v>
+        <v>6.737989315297455e-05</v>
       </c>
       <c r="AS15" t="n">
-        <v>0.0007568085566163063</v>
+        <v>3.935256609111093e-05</v>
       </c>
       <c r="AT15" t="n">
-        <v>0.006689902860671282</v>
+        <v>8.712119597475976e-05</v>
       </c>
       <c r="AU15" t="n">
-        <v>0.005949141457676888</v>
+        <v>0.0005444535636343062</v>
       </c>
       <c r="AV15" t="n">
-        <v>0.006845835596323013</v>
+        <v>9.635376773076132e-05</v>
       </c>
       <c r="AW15" t="n">
-        <v>0.01863481104373932</v>
+        <v>2.115476308972575e-05</v>
       </c>
       <c r="AX15" t="n">
-        <v>0.00743197975680232</v>
+        <v>7.095816545188427e-05</v>
       </c>
       <c r="AY15" t="n">
-        <v>0.004696825984865427</v>
+        <v>0.0002500716364011168</v>
       </c>
       <c r="AZ15" t="n">
-        <v>0.01326320040971041</v>
+        <v>2.144671452697366e-05</v>
       </c>
       <c r="BA15" t="n">
-        <v>0.02161926776170731</v>
+        <v>0.0001338580914307386</v>
       </c>
       <c r="BB15" t="n">
-        <v>0.002640502294525504</v>
+        <v>7.16838576408918e-06</v>
       </c>
       <c r="BC15" t="n">
-        <v>0.004824219737201929</v>
+        <v>2.36932210100349e-05</v>
       </c>
       <c r="BD15" t="n">
-        <v>0.002307092770934105</v>
+        <v>0.0001154832280008122</v>
       </c>
       <c r="BE15" t="n">
-        <v>0.002601446118205786</v>
+        <v>6.769164610886946e-05</v>
       </c>
       <c r="BF15" t="n">
-        <v>0.01434290036559105</v>
+        <v>0.0001234982628375292</v>
       </c>
       <c r="BG15" t="n">
-        <v>0.007162428461015224</v>
+        <v>0.0002473646309226751</v>
       </c>
       <c r="BH15" t="n">
-        <v>0.005900542251765728</v>
+        <v>2.122953628713731e-05</v>
       </c>
       <c r="BI15" t="n">
-        <v>0.010071218945086</v>
+        <v>0.0001422112109139562</v>
       </c>
       <c r="BJ15" t="n">
-        <v>0.01611477695405483</v>
+        <v>0.0001047611367539503</v>
       </c>
       <c r="BK15" t="n">
-        <v>0.002274924423545599</v>
+        <v>6.416650649043731e-06</v>
       </c>
       <c r="BL15" t="n">
-        <v>0.003242818638682365</v>
+        <v>7.07063009031117e-05</v>
       </c>
       <c r="BM15" t="n">
-        <v>0.001094777253456414</v>
+        <v>0.000132852524984628</v>
       </c>
       <c r="BN15" t="n">
-        <v>0.004194134380668402</v>
+        <v>6.731857865815982e-05</v>
       </c>
       <c r="BO15" t="n">
-        <v>0.0007124415133148432</v>
+        <v>6.837485125288367e-05</v>
       </c>
       <c r="BP15" t="n">
-        <v>0.004935742821544409</v>
+        <v>1.353118932456709e-06</v>
       </c>
       <c r="BQ15" t="n">
-        <v>0.003091823775321245</v>
+        <v>5.946947567281313e-05</v>
       </c>
       <c r="BR15" t="n">
-        <v>0.00849415548145771</v>
+        <v>1.348634214082267e-05</v>
       </c>
       <c r="BS15" t="n">
-        <v>0.006209911778569221</v>
+        <v>2.855312959582079e-05</v>
       </c>
       <c r="BT15" t="n">
-        <v>0.001151146134361625</v>
+        <v>3.283363548689522e-05</v>
       </c>
       <c r="BU15" t="n">
-        <v>0.0159946084022522</v>
+        <v>8.285738294944167e-05</v>
       </c>
       <c r="BV15" t="n">
-        <v>0.006331027951091528</v>
+        <v>0.0003446709597483277</v>
       </c>
       <c r="BW15" t="n">
-        <v>0.006681336089968681</v>
+        <v>0.000148453502333723</v>
       </c>
       <c r="BX15" t="n">
-        <v>0.003836018033325672</v>
+        <v>2.399480217718519e-05</v>
       </c>
       <c r="BY15" t="n">
-        <v>0.004716316238045692</v>
+        <v>0.0001191090850625187</v>
       </c>
       <c r="BZ15" t="n">
-        <v>0.005010684486478567</v>
+        <v>3.119137545581907e-06</v>
       </c>
       <c r="CA15" t="n">
-        <v>0.01360812876373529</v>
+        <v>4.680648635257967e-05</v>
       </c>
       <c r="CB15" t="n">
-        <v>0.02101114206016064</v>
+        <v>2.685037179617211e-05</v>
       </c>
       <c r="CC15" t="n">
-        <v>0.0001771913084667176</v>
+        <v>5.695639265468344e-05</v>
       </c>
       <c r="CD15" t="n">
-        <v>0.006463588681071997</v>
+        <v>1.50733922055224e-05</v>
       </c>
       <c r="CE15" t="n">
-        <v>0.00270504504442215</v>
+        <v>0.0001245247549377382</v>
       </c>
       <c r="CF15" t="n">
-        <v>0.003577746450901031</v>
+        <v>3.781940540648066e-05</v>
       </c>
       <c r="CG15" t="n">
-        <v>0.005669247359037399</v>
+        <v>6.725802086293697e-05</v>
       </c>
       <c r="CH15" t="n">
-        <v>0.005382440984249115</v>
+        <v>1.376498403260484e-05</v>
       </c>
       <c r="CI15" t="n">
-        <v>0.002667617984116077</v>
+        <v>5.934832734055817e-05</v>
       </c>
       <c r="CJ15" t="n">
-        <v>0.001293385517783463</v>
+        <v>3.91103676520288e-05</v>
       </c>
       <c r="CK15" t="n">
-        <v>0.01228342577815056</v>
+        <v>3.241063677705824e-05</v>
       </c>
       <c r="CL15" t="n">
-        <v>0.00141822942532599</v>
+        <v>2.985768333019223e-05</v>
       </c>
       <c r="CM15" t="n">
-        <v>0.003209358546882868</v>
+        <v>8.521028212271631e-05</v>
       </c>
       <c r="CN15" t="n">
-        <v>0.004580267239362001</v>
+        <v>1.456397149013355e-05</v>
       </c>
       <c r="CO15" t="n">
-        <v>0.00553961331024766</v>
+        <v>9.293687980971299e-06</v>
       </c>
       <c r="CP15" t="n">
-        <v>0.003612637985497713</v>
+        <v>5.042538396082819e-05</v>
       </c>
       <c r="CQ15" t="n">
-        <v>0.01084442529827356</v>
+        <v>4.867752068093978e-05</v>
       </c>
       <c r="CR15" t="n">
-        <v>0.01526583917438984</v>
+        <v>4.102771526959259e-06</v>
       </c>
       <c r="CS15" t="n">
-        <v>0.005154074169695377</v>
+        <v>0.0001284530881093815</v>
       </c>
       <c r="CT15" t="n">
-        <v>0.001568308332934976</v>
+        <v>0.0001711587101453915</v>
       </c>
       <c r="CU15" t="n">
-        <v>0.002381731057539582</v>
+        <v>8.020997483981773e-06</v>
       </c>
       <c r="CV15" t="n">
-        <v>0.004616470541805029</v>
+        <v>1.736173726385459e-05</v>
       </c>
       <c r="CW15" t="n">
-        <v>0.003454844700172544</v>
+        <v>0.0001019785413518548</v>
       </c>
       <c r="CX15" t="n">
-        <v>0.004690609872341156</v>
+        <v>5.498250175151043e-05</v>
       </c>
       <c r="CY15" t="n">
-        <v>0.006406906526535749</v>
+        <v>0.0001000431511783972</v>
       </c>
       <c r="CZ15" t="n">
-        <v>0.006287692580372095</v>
+        <v>1.410788399880403e-06</v>
       </c>
       <c r="DA15" t="n">
-        <v>0.003598313312977552</v>
+        <v>9.811230120249093e-05</v>
       </c>
       <c r="DB15" t="n">
-        <v>0.0001260932767763734</v>
+        <v>2.638373189256527e-05</v>
       </c>
       <c r="DC15" t="n">
-        <v>0.01313016563653946</v>
+        <v>4.224299846100621e-05</v>
       </c>
       <c r="DD15" t="n">
-        <v>0.001626663142815232</v>
+        <v>7.023193575150799e-06</v>
       </c>
       <c r="DE15" t="n">
-        <v>0.01078786328434944</v>
+        <v>3.665167605504394e-05</v>
       </c>
       <c r="DF15" t="n">
-        <v>0.01587154902517796</v>
+        <v>0.0001388742675771937</v>
       </c>
       <c r="DG15" t="n">
-        <v>0.002055042888969183</v>
+        <v>3.459626532276161e-05</v>
       </c>
       <c r="DH15" t="n">
-        <v>0.002527862787246704</v>
+        <v>0.0002439112868160009</v>
       </c>
       <c r="DI15" t="n">
-        <v>0.006471190135926008</v>
+        <v>4.356685167294927e-06</v>
       </c>
       <c r="DJ15" t="n">
-        <v>0.008724456652998924</v>
+        <v>5.321786375134252e-06</v>
       </c>
       <c r="DK15" t="n">
-        <v>0.00454786978662014</v>
+        <v>0.0001120995511882938</v>
       </c>
       <c r="DL15" t="n">
-        <v>0.008218484930694103</v>
+        <v>0.000112038200313691</v>
       </c>
       <c r="DM15" t="n">
-        <v>0.003235122188925743</v>
+        <v>1.343846543022664e-05</v>
       </c>
       <c r="DN15" t="n">
-        <v>0.005506023764610291</v>
+        <v>2.846533607225865e-05</v>
       </c>
       <c r="DO15" t="n">
-        <v>0.005922237876802683</v>
+        <v>6.350516923703253e-05</v>
       </c>
       <c r="DP15" t="n">
-        <v>0.003691831836476922</v>
+        <v>3.013411060237559e-06</v>
       </c>
       <c r="DQ15" t="n">
-        <v>0.002674490679055452</v>
+        <v>5.239928213995881e-05</v>
       </c>
       <c r="DR15" t="n">
-        <v>0.009178133681416512</v>
+        <v>3.465347253950313e-05</v>
       </c>
       <c r="DS15" t="n">
-        <v>0.001329050050117075</v>
+        <v>5.86321075388696e-05</v>
       </c>
       <c r="DT15" t="n">
-        <v>0.01232835650444031</v>
+        <v>5.766235699411482e-05</v>
       </c>
       <c r="DU15" t="n">
-        <v>0.0008689627866260707</v>
+        <v>6.071788448025472e-05</v>
       </c>
       <c r="DV15" t="n">
-        <v>0.001459407270886004</v>
+        <v>4.953800817020237e-05</v>
       </c>
       <c r="DW15" t="n">
-        <v>0.001491258852183819</v>
+        <v>1.746539783198386e-05</v>
       </c>
       <c r="DX15" t="n">
-        <v>0.01054403930902481</v>
+        <v>3.437540271988837e-06</v>
       </c>
       <c r="DY15" t="n">
-        <v>0.003883570432662964</v>
+        <v>8.879742381395772e-05</v>
       </c>
       <c r="DZ15" t="n">
-        <v>0.003580877557396889</v>
+        <v>2.144238169421442e-05</v>
       </c>
       <c r="EA15" t="n">
-        <v>0.00112876552157104</v>
+        <v>9.145026706391945e-05</v>
       </c>
       <c r="EB15" t="n">
-        <v>0.007867134176194668</v>
+        <v>5.024763595429249e-05</v>
       </c>
       <c r="EC15" t="n">
-        <v>0.004087867680937052</v>
+        <v>9.899285942083225e-06</v>
       </c>
       <c r="ED15" t="n">
-        <v>0.004434515722095966</v>
+        <v>4.605562571668997e-05</v>
       </c>
       <c r="EE15" t="n">
-        <v>0.0001680010173004121</v>
+        <v>7.533389180025551e-06</v>
       </c>
       <c r="EF15" t="n">
-        <v>0.001711989403702319</v>
+        <v>3.684261537273414e-05</v>
       </c>
       <c r="EG15" t="n">
-        <v>0.003799214959144592</v>
+        <v>8.348461415152997e-05</v>
       </c>
       <c r="EH15" t="n">
-        <v>0.004812553059309721</v>
+        <v>4.472251384868287e-05</v>
       </c>
       <c r="EI15" t="n">
-        <v>0.01169889234006405</v>
+        <v>5.958308975095861e-06</v>
       </c>
       <c r="EJ15" t="n">
-        <v>0.006203721277415752</v>
+        <v>5.235470598563552e-05</v>
       </c>
       <c r="EK15" t="n">
-        <v>0.006055548787117004</v>
+        <v>1.850161788752303e-05</v>
       </c>
       <c r="EL15" t="n">
-        <v>0.003485185094177723</v>
+        <v>5.594180402113125e-05</v>
       </c>
       <c r="EM15" t="n">
-        <v>0.01745459996163845</v>
+        <v>2.226185461040586e-05</v>
       </c>
       <c r="EN15" t="n">
-        <v>0.005098459776490927</v>
+        <v>2.888375092879869e-06</v>
       </c>
       <c r="EO15" t="n">
-        <v>0.006358210928738117</v>
+        <v>7.297257070604246e-06</v>
       </c>
       <c r="EP15" t="n">
-        <v>0.008294746279716492</v>
+        <v>1.230495945492294e-05</v>
       </c>
       <c r="EQ15" t="n">
-        <v>0.009115853346884251</v>
+        <v>8.831549348542467e-05</v>
       </c>
       <c r="ER15" t="n">
-        <v>0.000739517854526639</v>
+        <v>0.000105581886600703</v>
       </c>
       <c r="ES15" t="n">
-        <v>0.01315826363861561</v>
+        <v>7.008323154877871e-05</v>
       </c>
       <c r="ET15" t="n">
-        <v>0.005357755813747644</v>
+        <v>0.0001828667736845091</v>
       </c>
       <c r="EU15" t="n">
-        <v>8.081342093646526e-05</v>
+        <v>3.862147423205897e-05</v>
       </c>
       <c r="EV15" t="n">
-        <v>0.0001604226126801223</v>
+        <v>6.720070086885244e-05</v>
       </c>
       <c r="EW15" t="n">
-        <v>0.002121613593772054</v>
+        <v>1.983509719138965e-05</v>
       </c>
       <c r="EX15" t="n">
-        <v>0.00399109348654747</v>
+        <v>6.556570497195935e-06</v>
       </c>
       <c r="EY15" t="n">
-        <v>0.003807209897786379</v>
+        <v>8.818837522994727e-05</v>
       </c>
       <c r="EZ15" t="n">
-        <v>0.004981243051588535</v>
+        <v>3.184589513693936e-05</v>
       </c>
       <c r="FA15" t="n">
-        <v>0.00598409678786993</v>
+        <v>8.82504100445658e-05</v>
       </c>
       <c r="FB15" t="n">
-        <v>0.008087119087576866</v>
+        <v>1.711811637505889e-05</v>
       </c>
       <c r="FC15" t="n">
-        <v>0.003914762288331985</v>
+        <v>7.584038394270465e-05</v>
       </c>
       <c r="FD15" t="n">
-        <v>0.001350301434285939</v>
+        <v>5.29004173586145e-05</v>
       </c>
       <c r="FE15" t="n">
-        <v>0.01274061761796474</v>
+        <v>3.397619002498686e-05</v>
       </c>
       <c r="FF15" t="n">
-        <v>0.001501824706792831</v>
+        <v>3.655804175650701e-05</v>
       </c>
       <c r="FG15" t="n">
-        <v>0.001503454172052443</v>
+        <v>3.912850843335036e-06</v>
       </c>
       <c r="FH15" t="n">
-        <v>0.005431531928479671</v>
+        <v>8.900894317775965e-05</v>
       </c>
       <c r="FI15" t="n">
-        <v>0.003322375472635031</v>
+        <v>7.319365249713883e-05</v>
       </c>
       <c r="FJ15" t="n">
-        <v>0.009146342985332012</v>
+        <v>0.0001026232785079628</v>
       </c>
       <c r="FK15" t="n">
-        <v>0.007846357300877571</v>
+        <v>6.420482532121241e-05</v>
       </c>
       <c r="FL15" t="n">
-        <v>0.007427959237247705</v>
+        <v>6.563117494806647e-06</v>
       </c>
       <c r="FM15" t="n">
-        <v>0.006081234663724899</v>
+        <v>2.637886791490018e-05</v>
       </c>
       <c r="FN15" t="n">
-        <v>0.007748979143798351</v>
+        <v>1.745778172335122e-05</v>
       </c>
       <c r="FO15" t="n">
-        <v>8.789502317085862e-05</v>
+        <v>5.30596989847254e-05</v>
       </c>
       <c r="FP15" t="n">
-        <v>0.005221018567681313</v>
+        <v>4.802842158824205e-05</v>
       </c>
       <c r="FQ15" t="n">
-        <v>0.01060769613832235</v>
+        <v>0.000153496686834842</v>
       </c>
       <c r="FR15" t="n">
-        <v>0.01225192099809647</v>
+        <v>5.308995605446398e-05</v>
       </c>
       <c r="FS15" t="n">
-        <v>0.0008099428378045559</v>
+        <v>0.0001629093458177522</v>
       </c>
       <c r="FT15" t="n">
-        <v>0.004549267236143351</v>
+        <v>2.010399475693703e-05</v>
       </c>
       <c r="FU15" t="n">
-        <v>0.002722002100199461</v>
+        <v>4.200126204523258e-05</v>
       </c>
       <c r="FV15" t="n">
-        <v>0.009697443805634975</v>
+        <v>9.878622222458944e-06</v>
       </c>
       <c r="FW15" t="n">
-        <v>0.02200448513031006</v>
+        <v>8.367362170247361e-05</v>
       </c>
       <c r="FX15" t="n">
-        <v>0.009529659524559975</v>
+        <v>3.643742275016848e-06</v>
       </c>
       <c r="FY15" t="n">
-        <v>0.008060624822974205</v>
+        <v>8.084106229944155e-05</v>
       </c>
       <c r="FZ15" t="n">
-        <v>0.006158977746963501</v>
+        <v>1.36863727675518e-05</v>
       </c>
       <c r="GA15" t="n">
-        <v>0.001243251841515303</v>
+        <v>1.100936424336396e-05</v>
       </c>
       <c r="GB15" t="n">
-        <v>0.01023074891418219</v>
+        <v>6.068572474760003e-05</v>
       </c>
       <c r="GC15" t="n">
-        <v>8.275883737951517e-05</v>
+        <v>0.0001560008531669155</v>
       </c>
       <c r="GD15" t="n">
-        <v>0.006696232594549656</v>
+        <v>0.0001170988689409569</v>
       </c>
       <c r="GE15" t="n">
-        <v>0.01369897089898586</v>
+        <v>0.0002635381824802607</v>
       </c>
       <c r="GF15" t="n">
-        <v>0.00332497083581984</v>
+        <v>4.389616151456721e-06</v>
       </c>
       <c r="GG15" t="n">
-        <v>0.001665950287133455</v>
+        <v>7.470850505342241e-06</v>
       </c>
     </row>
     <row r="16">
@@ -9539,571 +9539,571 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>3.264562110416591e-05</v>
+        <v>0.3320713937282562</v>
       </c>
       <c r="B17" t="n">
-        <v>0.0001382025802740827</v>
+        <v>0.06734202802181244</v>
       </c>
       <c r="C17" t="n">
-        <v>4.89118656332721e-06</v>
+        <v>0.1186596006155014</v>
       </c>
       <c r="D17" t="n">
-        <v>3.29585891449824e-05</v>
+        <v>0.001079481095075607</v>
       </c>
       <c r="E17" t="n">
-        <v>7.797707075951621e-05</v>
+        <v>0.2349657863378525</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0001400674809701741</v>
+        <v>0.1010311171412468</v>
       </c>
       <c r="G17" t="n">
-        <v>9.498980944044888e-06</v>
+        <v>0.5000698566436768</v>
       </c>
       <c r="H17" t="n">
-        <v>1.676234023761936e-05</v>
+        <v>0.1171189472079277</v>
       </c>
       <c r="I17" t="n">
-        <v>3.15871602651896e-06</v>
+        <v>0.03478952869772911</v>
       </c>
       <c r="J17" t="n">
-        <v>1.383085691486485e-05</v>
+        <v>0.2432858794927597</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0001233361836057156</v>
+        <v>0.05469644442200661</v>
       </c>
       <c r="L17" t="n">
-        <v>3.811932174357935e-06</v>
+        <v>0.06557793915271759</v>
       </c>
       <c r="M17" t="n">
-        <v>3.529140030877898e-06</v>
+        <v>0.07145162671804428</v>
       </c>
       <c r="N17" t="n">
-        <v>7.281597936525941e-05</v>
+        <v>0.2149835228919983</v>
       </c>
       <c r="O17" t="n">
-        <v>0.0001277230039704591</v>
+        <v>0.1134549230337143</v>
       </c>
       <c r="P17" t="n">
-        <v>2.029824372584699e-06</v>
+        <v>0.5150262713432312</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.297460221394431e-05</v>
+        <v>0.08323965221643448</v>
       </c>
       <c r="R17" t="n">
-        <v>1.454573703085771e-05</v>
+        <v>0.1848576217889786</v>
       </c>
       <c r="S17" t="n">
-        <v>6.459723408624995e-06</v>
+        <v>0.03741345554590225</v>
       </c>
       <c r="T17" t="n">
-        <v>6.120624675531872e-06</v>
+        <v>0.04237110912799835</v>
       </c>
       <c r="U17" t="n">
-        <v>2.730689629970584e-08</v>
+        <v>0.02090069651603699</v>
       </c>
       <c r="V17" t="n">
-        <v>2.796449916786514e-05</v>
+        <v>0.100737452507019</v>
       </c>
       <c r="W17" t="n">
-        <v>2.793424027913716e-05</v>
+        <v>0.07490199059247971</v>
       </c>
       <c r="X17" t="n">
-        <v>2.080313970509451e-05</v>
+        <v>0.11721371114254</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.417103521816898e-05</v>
+        <v>0.04068293422460556</v>
       </c>
       <c r="Z17" t="n">
-        <v>1.182850064651575e-05</v>
+        <v>0.003060973482206464</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.449635055905674e-05</v>
+        <v>0.000248989526880905</v>
       </c>
       <c r="AB17" t="n">
-        <v>3.943105184589513e-07</v>
+        <v>0.1033338978886604</v>
       </c>
       <c r="AC17" t="n">
-        <v>2.296384445799049e-05</v>
+        <v>0.05101388692855835</v>
       </c>
       <c r="AD17" t="n">
-        <v>1.270981101697544e-05</v>
+        <v>0.001296211965382099</v>
       </c>
       <c r="AE17" t="n">
-        <v>1.687216536083724e-05</v>
+        <v>0.03867986053228378</v>
       </c>
       <c r="AF17" t="n">
-        <v>7.162737347243819e-06</v>
+        <v>0.1016037985682487</v>
       </c>
       <c r="AG17" t="n">
-        <v>2.404763472441118e-05</v>
+        <v>0.0009470200166106224</v>
       </c>
       <c r="AH17" t="n">
-        <v>1.549023363622837e-05</v>
+        <v>0.1079544275999069</v>
       </c>
       <c r="AI17" t="n">
-        <v>1.659737245063297e-05</v>
+        <v>0.06020882353186607</v>
       </c>
       <c r="AJ17" t="n">
-        <v>2.435541500744876e-05</v>
+        <v>0.006880782078951597</v>
       </c>
       <c r="AK17" t="n">
-        <v>5.622014214168303e-06</v>
+        <v>0.07094469666481018</v>
       </c>
       <c r="AL17" t="n">
-        <v>2.464506906107999e-05</v>
+        <v>0.04246192052960396</v>
       </c>
       <c r="AM17" t="n">
-        <v>2.57040642281936e-06</v>
+        <v>0.008984135463833809</v>
       </c>
       <c r="AN17" t="n">
-        <v>2.352990122744814e-05</v>
+        <v>0.05712011829018593</v>
       </c>
       <c r="AO17" t="n">
-        <v>7.573980838060379e-06</v>
+        <v>0.1887262016534805</v>
       </c>
       <c r="AP17" t="n">
-        <v>2.690693872864358e-05</v>
+        <v>0.04581513628363609</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.589431667525787e-05</v>
+        <v>0.04794973880052567</v>
       </c>
       <c r="AR17" t="n">
-        <v>5.10288737132214e-06</v>
+        <v>0.01868479698896408</v>
       </c>
       <c r="AS17" t="n">
-        <v>2.473268523317529e-06</v>
+        <v>0.02280784957110882</v>
       </c>
       <c r="AT17" t="n">
-        <v>6.828322966612177e-06</v>
+        <v>0.2919737696647644</v>
       </c>
       <c r="AU17" t="n">
-        <v>5.510368646355346e-05</v>
+        <v>0.1306192576885223</v>
       </c>
       <c r="AV17" t="n">
-        <v>1.075939144357108e-05</v>
+        <v>0.0968099981546402</v>
       </c>
       <c r="AW17" t="n">
-        <v>3.302700406493386e-06</v>
+        <v>0.07621487975120544</v>
       </c>
       <c r="AX17" t="n">
-        <v>4.611240365193225e-05</v>
+        <v>0.2793694734573364</v>
       </c>
       <c r="AY17" t="n">
-        <v>6.650984869338572e-05</v>
+        <v>0.02331704646348953</v>
       </c>
       <c r="AZ17" t="n">
-        <v>1.802350379875861e-05</v>
+        <v>0.2021403014659882</v>
       </c>
       <c r="BA17" t="n">
-        <v>1.651305501582101e-05</v>
+        <v>0.1244593784213066</v>
       </c>
       <c r="BB17" t="n">
-        <v>1.427787356078625e-05</v>
+        <v>0.03149783983826637</v>
       </c>
       <c r="BC17" t="n">
-        <v>5.23694689036347e-06</v>
+        <v>0.01277294754981995</v>
       </c>
       <c r="BD17" t="n">
-        <v>4.0546125092078e-05</v>
+        <v>0.1139181852340698</v>
       </c>
       <c r="BE17" t="n">
-        <v>4.061371328134555e-06</v>
+        <v>0.01650682464241982</v>
       </c>
       <c r="BF17" t="n">
-        <v>4.081320639670594e-06</v>
+        <v>0.03542584925889969</v>
       </c>
       <c r="BG17" t="n">
-        <v>6.841589311079588e-06</v>
+        <v>0.06269581615924835</v>
       </c>
       <c r="BH17" t="n">
-        <v>1.568419975228608e-05</v>
+        <v>0.256220817565918</v>
       </c>
       <c r="BI17" t="n">
-        <v>1.117824649554677e-05</v>
+        <v>0.09711822867393494</v>
       </c>
       <c r="BJ17" t="n">
-        <v>3.585963895602617e-06</v>
+        <v>0.1135190352797508</v>
       </c>
       <c r="BK17" t="n">
-        <v>3.786435263464227e-05</v>
+        <v>0.04422571882605553</v>
       </c>
       <c r="BL17" t="n">
-        <v>1.699683139122499e-06</v>
+        <v>0.103560708463192</v>
       </c>
       <c r="BM17" t="n">
-        <v>1.352309709545807e-06</v>
+        <v>0.03568673878908157</v>
       </c>
       <c r="BN17" t="n">
-        <v>2.433537702017929e-06</v>
+        <v>0.02646304108202457</v>
       </c>
       <c r="BO17" t="n">
-        <v>1.053950381901814e-05</v>
+        <v>0.1004135310649872</v>
       </c>
       <c r="BP17" t="n">
-        <v>4.450834239833057e-05</v>
+        <v>0.06288617849349976</v>
       </c>
       <c r="BQ17" t="n">
-        <v>4.150771565036848e-05</v>
+        <v>0.08174122124910355</v>
       </c>
       <c r="BR17" t="n">
-        <v>3.216809545847354e-06</v>
+        <v>0.112170547246933</v>
       </c>
       <c r="BS17" t="n">
-        <v>1.621418596187141e-05</v>
+        <v>0.05680655688047409</v>
       </c>
       <c r="BT17" t="n">
-        <v>7.979417205206119e-06</v>
+        <v>0.01058004423975945</v>
       </c>
       <c r="BU17" t="n">
-        <v>2.950831003545318e-06</v>
+        <v>0.123247392475605</v>
       </c>
       <c r="BV17" t="n">
-        <v>1.560786768095568e-05</v>
+        <v>0.01416478492319584</v>
       </c>
       <c r="BW17" t="n">
-        <v>6.586446033907123e-06</v>
+        <v>0.08522322028875351</v>
       </c>
       <c r="BX17" t="n">
-        <v>3.66486801794963e-06</v>
+        <v>0.1053721457719803</v>
       </c>
       <c r="BY17" t="n">
-        <v>4.14379064750392e-05</v>
+        <v>0.1736856400966644</v>
       </c>
       <c r="BZ17" t="n">
-        <v>6.622864748351276e-05</v>
+        <v>0.09002566337585449</v>
       </c>
       <c r="CA17" t="n">
-        <v>1.599761162651703e-05</v>
+        <v>0.07094936072826385</v>
       </c>
       <c r="CB17" t="n">
-        <v>9.198933184961788e-06</v>
+        <v>0.134920746088028</v>
       </c>
       <c r="CC17" t="n">
-        <v>1.366325159324333e-05</v>
+        <v>0.004987566266208887</v>
       </c>
       <c r="CD17" t="n">
-        <v>7.291206202353351e-06</v>
+        <v>0.06965115666389465</v>
       </c>
       <c r="CE17" t="n">
-        <v>2.899870560213458e-05</v>
+        <v>0.04322250932455063</v>
       </c>
       <c r="CF17" t="n">
-        <v>4.317092589189997e-06</v>
+        <v>0.03908047080039978</v>
       </c>
       <c r="CG17" t="n">
-        <v>1.11216777440859e-05</v>
+        <v>0.06955254077911377</v>
       </c>
       <c r="CH17" t="n">
-        <v>1.37524457386462e-05</v>
+        <v>0.043855220079422</v>
       </c>
       <c r="CI17" t="n">
-        <v>2.058186510112137e-05</v>
+        <v>0.06975716352462769</v>
       </c>
       <c r="CJ17" t="n">
-        <v>1.224569018631882e-06</v>
+        <v>0.09874923527240753</v>
       </c>
       <c r="CK17" t="n">
-        <v>4.760026968142483e-07</v>
+        <v>0.01460937969386578</v>
       </c>
       <c r="CL17" t="n">
-        <v>1.119413127526059e-06</v>
+        <v>0.008705059066414833</v>
       </c>
       <c r="CM17" t="n">
-        <v>1.054494259733474e-05</v>
+        <v>0.05057140812277794</v>
       </c>
       <c r="CN17" t="n">
-        <v>1.463885291741462e-05</v>
+        <v>0.1285213977098465</v>
       </c>
       <c r="CO17" t="n">
-        <v>9.30744681681972e-06</v>
+        <v>0.03588416799902916</v>
       </c>
       <c r="CP17" t="n">
-        <v>4.719510798167903e-06</v>
+        <v>0.07484294474124908</v>
       </c>
       <c r="CQ17" t="n">
-        <v>2.946683252957882e-06</v>
+        <v>0.0162909347563982</v>
       </c>
       <c r="CR17" t="n">
-        <v>2.84589477814734e-05</v>
+        <v>0.08239048719406128</v>
       </c>
       <c r="CS17" t="n">
-        <v>3.246270716772415e-05</v>
+        <v>0.08029194176197052</v>
       </c>
       <c r="CT17" t="n">
-        <v>2.454579953337088e-05</v>
+        <v>0.01686178147792816</v>
       </c>
       <c r="CU17" t="n">
-        <v>4.403047933010384e-05</v>
+        <v>0.04473506286740303</v>
       </c>
       <c r="CV17" t="n">
-        <v>7.66819721320644e-06</v>
+        <v>0.07558781653642654</v>
       </c>
       <c r="CW17" t="n">
-        <v>2.531977588660084e-05</v>
+        <v>0.03268669173121452</v>
       </c>
       <c r="CX17" t="n">
-        <v>1.065840706360177e-06</v>
+        <v>0.01844490878283978</v>
       </c>
       <c r="CY17" t="n">
-        <v>1.409340165992035e-05</v>
+        <v>0.07200664281845093</v>
       </c>
       <c r="CZ17" t="n">
-        <v>1.164089553640224e-05</v>
+        <v>0.02454272285103798</v>
       </c>
       <c r="DA17" t="n">
-        <v>2.196161403844599e-05</v>
+        <v>0.07496347278356552</v>
       </c>
       <c r="DB17" t="n">
-        <v>2.974566086777486e-06</v>
+        <v>0.09570995718240738</v>
       </c>
       <c r="DC17" t="n">
-        <v>3.514957825245801e-06</v>
+        <v>0.01758399419486523</v>
       </c>
       <c r="DD17" t="n">
-        <v>7.450769317074446e-06</v>
+        <v>0.012620460242033</v>
       </c>
       <c r="DE17" t="n">
-        <v>4.494129098020494e-05</v>
+        <v>0.09057391434907913</v>
       </c>
       <c r="DF17" t="n">
-        <v>7.250670023495331e-06</v>
+        <v>0.04140061140060425</v>
       </c>
       <c r="DG17" t="n">
-        <v>1.528614302515052e-05</v>
+        <v>0.05008023977279663</v>
       </c>
       <c r="DH17" t="n">
-        <v>3.503324842313305e-05</v>
+        <v>0.02171561494469643</v>
       </c>
       <c r="DI17" t="n">
-        <v>6.581758498214185e-05</v>
+        <v>0.1443920135498047</v>
       </c>
       <c r="DJ17" t="n">
-        <v>2.97630213026423e-05</v>
+        <v>0.01911032758653164</v>
       </c>
       <c r="DK17" t="n">
-        <v>7.280355021066498e-07</v>
+        <v>0.07861360907554626</v>
       </c>
       <c r="DL17" t="n">
-        <v>2.653082901815651e-06</v>
+        <v>0.1883741468191147</v>
       </c>
       <c r="DM17" t="n">
-        <v>8.850195627019275e-06</v>
+        <v>0.04550493508577347</v>
       </c>
       <c r="DN17" t="n">
-        <v>4.249505309417145e-06</v>
+        <v>0.05607794970273972</v>
       </c>
       <c r="DO17" t="n">
-        <v>8.685708962730132e-06</v>
+        <v>0.01998525857925415</v>
       </c>
       <c r="DP17" t="n">
-        <v>5.15494048158871e-06</v>
+        <v>0.01172256469726562</v>
       </c>
       <c r="DQ17" t="n">
-        <v>4.521518349065445e-06</v>
+        <v>0.04663625359535217</v>
       </c>
       <c r="DR17" t="n">
-        <v>2.606699126772583e-06</v>
+        <v>0.04425248876214027</v>
       </c>
       <c r="DS17" t="n">
-        <v>5.701369445887394e-06</v>
+        <v>0.0518733486533165</v>
       </c>
       <c r="DT17" t="n">
-        <v>1.046631950885057e-06</v>
+        <v>0.08295126259326935</v>
       </c>
       <c r="DU17" t="n">
-        <v>2.71954013442155e-06</v>
+        <v>0.05168371647596359</v>
       </c>
       <c r="DV17" t="n">
-        <v>2.508836814740789e-06</v>
+        <v>0.03273738920688629</v>
       </c>
       <c r="DW17" t="n">
-        <v>2.495786247891374e-05</v>
+        <v>0.0587952584028244</v>
       </c>
       <c r="DX17" t="n">
-        <v>4.19039088228601e-06</v>
+        <v>0.01066501345485449</v>
       </c>
       <c r="DY17" t="n">
-        <v>1.459429677197477e-05</v>
+        <v>0.05159695446491241</v>
       </c>
       <c r="DZ17" t="n">
-        <v>1.745480949466582e-05</v>
+        <v>0.03511088341474533</v>
       </c>
       <c r="EA17" t="n">
-        <v>7.695613930991385e-06</v>
+        <v>0.1244686990976334</v>
       </c>
       <c r="EB17" t="n">
-        <v>1.333944237558171e-05</v>
+        <v>0.09753300994634628</v>
       </c>
       <c r="EC17" t="n">
-        <v>1.008234085020376e-05</v>
+        <v>0.02481864765286446</v>
       </c>
       <c r="ED17" t="n">
-        <v>4.984100996807683e-06</v>
+        <v>0.02093027345836163</v>
       </c>
       <c r="EE17" t="n">
-        <v>3.254073089919984e-05</v>
+        <v>0.1345188915729523</v>
       </c>
       <c r="EF17" t="n">
-        <v>7.564472070953343e-06</v>
+        <v>0.08708111941814423</v>
       </c>
       <c r="EG17" t="n">
-        <v>4.334300319897011e-05</v>
+        <v>0.0574200265109539</v>
       </c>
       <c r="EH17" t="n">
-        <v>2.162466989830136e-05</v>
+        <v>0.02001124061644077</v>
       </c>
       <c r="EI17" t="n">
-        <v>5.186315775063122e-06</v>
+        <v>0.1006892323493958</v>
       </c>
       <c r="EJ17" t="n">
-        <v>3.168555122101679e-05</v>
+        <v>0.01889892295002937</v>
       </c>
       <c r="EK17" t="n">
-        <v>2.787751509458758e-05</v>
+        <v>0.08665023744106293</v>
       </c>
       <c r="EL17" t="n">
-        <v>5.257489647192415e-06</v>
+        <v>0.1122771948575974</v>
       </c>
       <c r="EM17" t="n">
-        <v>2.533613724153838e-06</v>
+        <v>0.01369625143706799</v>
       </c>
       <c r="EN17" t="n">
-        <v>1.241697191289859e-05</v>
+        <v>0.03652007877826691</v>
       </c>
       <c r="EO17" t="n">
-        <v>4.374773197923787e-06</v>
+        <v>0.0985119640827179</v>
       </c>
       <c r="EP17" t="n">
-        <v>3.561473931767978e-06</v>
+        <v>0.05731628835201263</v>
       </c>
       <c r="EQ17" t="n">
-        <v>7.154115337471012e-06</v>
+        <v>0.01553783379495144</v>
       </c>
       <c r="ER17" t="n">
-        <v>1.615755172679201e-05</v>
+        <v>0.08280913531780243</v>
       </c>
       <c r="ES17" t="n">
-        <v>6.38712208456127e-06</v>
+        <v>0.02414466254413128</v>
       </c>
       <c r="ET17" t="n">
-        <v>3.429644857533276e-05</v>
+        <v>0.1552153676748276</v>
       </c>
       <c r="EU17" t="n">
-        <v>1.860911652329378e-06</v>
+        <v>0.1097157299518585</v>
       </c>
       <c r="EV17" t="n">
-        <v>1.58912052938831e-06</v>
+        <v>0.04811751842498779</v>
       </c>
       <c r="EW17" t="n">
-        <v>6.274644420045661e-06</v>
+        <v>0.1562569886445999</v>
       </c>
       <c r="EX17" t="n">
-        <v>9.789990144781768e-06</v>
+        <v>0.06491495668888092</v>
       </c>
       <c r="EY17" t="n">
-        <v>2.45880801230669e-05</v>
+        <v>0.04195008799433708</v>
       </c>
       <c r="EZ17" t="n">
-        <v>2.338535296075861e-06</v>
+        <v>0.02971955947577953</v>
       </c>
       <c r="FA17" t="n">
-        <v>1.091809463105164e-05</v>
+        <v>0.05646681040525436</v>
       </c>
       <c r="FB17" t="n">
-        <v>1.377401349600405e-05</v>
+        <v>0.02887423895299435</v>
       </c>
       <c r="FC17" t="n">
-        <v>2.369576759519987e-05</v>
+        <v>0.06217629089951515</v>
       </c>
       <c r="FD17" t="n">
-        <v>4.381955136523175e-07</v>
+        <v>0.1195033937692642</v>
       </c>
       <c r="FE17" t="n">
-        <v>2.381325430178549e-06</v>
+        <v>0.03269262239336967</v>
       </c>
       <c r="FF17" t="n">
-        <v>3.547136657289229e-06</v>
+        <v>0.01622281968593597</v>
       </c>
       <c r="FG17" t="n">
-        <v>1.89157435670495e-06</v>
+        <v>0.0229094885289669</v>
       </c>
       <c r="FH17" t="n">
-        <v>1.680590867181309e-05</v>
+        <v>0.0003921706229448318</v>
       </c>
       <c r="FI17" t="n">
-        <v>1.6992695236695e-05</v>
+        <v>0.04626427590847015</v>
       </c>
       <c r="FJ17" t="n">
-        <v>2.233797204098664e-05</v>
+        <v>0.02554706484079361</v>
       </c>
       <c r="FK17" t="n">
-        <v>6.667292382189771e-06</v>
+        <v>0.09031324088573456</v>
       </c>
       <c r="FL17" t="n">
-        <v>5.123756636749022e-07</v>
+        <v>0.07854604721069336</v>
       </c>
       <c r="FM17" t="n">
-        <v>7.066837497404777e-06</v>
+        <v>0.007947784848511219</v>
       </c>
       <c r="FN17" t="n">
-        <v>9.205496098729782e-06</v>
+        <v>0.04237277060747147</v>
       </c>
       <c r="FO17" t="n">
-        <v>1.77077527041547e-06</v>
+        <v>0.06679747998714447</v>
       </c>
       <c r="FP17" t="n">
-        <v>2.175210647692438e-05</v>
+        <v>0.1714284718036652</v>
       </c>
       <c r="FQ17" t="n">
-        <v>3.042263051611371e-05</v>
+        <v>0.07832759618759155</v>
       </c>
       <c r="FR17" t="n">
-        <v>7.870253284636419e-06</v>
+        <v>0.04479620978236198</v>
       </c>
       <c r="FS17" t="n">
-        <v>3.874108006129973e-05</v>
+        <v>0.08558879792690277</v>
       </c>
       <c r="FT17" t="n">
-        <v>1.242004145751707e-05</v>
+        <v>0.1862278878688812</v>
       </c>
       <c r="FU17" t="n">
-        <v>4.160480602877215e-05</v>
+        <v>0.1655678153038025</v>
       </c>
       <c r="FV17" t="n">
-        <v>1.438286744814832e-05</v>
+        <v>0.01808431372046471</v>
       </c>
       <c r="FW17" t="n">
-        <v>1.867909486463759e-05</v>
+        <v>0.0997936800122261</v>
       </c>
       <c r="FX17" t="n">
-        <v>8.034112397581339e-07</v>
+        <v>0.05489084869623184</v>
       </c>
       <c r="FY17" t="n">
-        <v>2.862887049559504e-05</v>
+        <v>0.02446827292442322</v>
       </c>
       <c r="FZ17" t="n">
-        <v>9.034833965415601e-06</v>
+        <v>0.05725754424929619</v>
       </c>
       <c r="GA17" t="n">
-        <v>1.183892618428217e-05</v>
+        <v>0.08915014564990997</v>
       </c>
       <c r="GB17" t="n">
-        <v>5.124905328557361e-06</v>
+        <v>0.01228000223636627</v>
       </c>
       <c r="GC17" t="n">
-        <v>4.594166057358962e-06</v>
+        <v>0.01451596803963184</v>
       </c>
       <c r="GD17" t="n">
-        <v>9.553378731652629e-06</v>
+        <v>0.1214863285422325</v>
       </c>
       <c r="GE17" t="n">
-        <v>1.507160277469666e-06</v>
+        <v>0.0629977360367775</v>
       </c>
       <c r="GF17" t="n">
-        <v>3.794281656155363e-05</v>
+        <v>0.05002035200595856</v>
       </c>
       <c r="GG17" t="n">
-        <v>1.5947325664456e-05</v>
+        <v>0.04879826307296753</v>
       </c>
     </row>
   </sheetData>
